--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3972" uniqueCount="1612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3973" uniqueCount="1612">
   <si>
     <t>username</t>
   </si>
@@ -33587,7 +33587,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33701,14 +33701,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -33810,9 +33802,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -33882,13 +33874,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -33916,10 +33907,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink 2" xfId="2"/>
@@ -34138,7 +34129,7 @@
   <dimension ref="A1:F999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1007" sqref="B1007"/>
+      <selection activeCell="A652" sqref="A652"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -39056,7 +39047,7 @@
       <c r="B246" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="C246" s="42" t="s">
+      <c r="C246" s="41" t="s">
         <v>389</v>
       </c>
       <c r="D246" s="16">
@@ -39195,10 +39186,10 @@
         <v>399</v>
       </c>
       <c r="C253" s="24"/>
-      <c r="D253" s="40">
+      <c r="D253" s="39">
         <v>4153</v>
       </c>
-      <c r="E253" s="40">
+      <c r="E253" s="39">
         <v>1683</v>
       </c>
       <c r="F253" s="24" t="s">
@@ -39213,10 +39204,10 @@
         <v>400</v>
       </c>
       <c r="C254" s="24"/>
-      <c r="D254" s="40">
+      <c r="D254" s="39">
         <v>2064</v>
       </c>
-      <c r="E254" s="40">
+      <c r="E254" s="39">
         <v>704</v>
       </c>
       <c r="F254" s="24" t="s">
@@ -39233,10 +39224,10 @@
       <c r="C255" s="24" t="s">
         <v>402</v>
       </c>
-      <c r="D255" s="40">
+      <c r="D255" s="39">
         <v>860</v>
       </c>
-      <c r="E255" s="40">
+      <c r="E255" s="39">
         <v>9</v>
       </c>
       <c r="F255" s="24" t="s">
@@ -39253,10 +39244,10 @@
       <c r="C256" s="24" t="s">
         <v>402</v>
       </c>
-      <c r="D256" s="40">
+      <c r="D256" s="39">
         <v>354</v>
       </c>
-      <c r="E256" s="40">
+      <c r="E256" s="39">
         <v>23</v>
       </c>
       <c r="F256" s="24" t="s">
@@ -39273,10 +39264,10 @@
       <c r="C257" s="24" t="s">
         <v>402</v>
       </c>
-      <c r="D257" s="40">
+      <c r="D257" s="39">
         <v>1171</v>
       </c>
-      <c r="E257" s="40">
+      <c r="E257" s="39">
         <v>99</v>
       </c>
       <c r="F257" s="24" t="s">
@@ -39293,10 +39284,10 @@
       <c r="C258" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="D258" s="40">
+      <c r="D258" s="39">
         <v>278</v>
       </c>
-      <c r="E258" s="40">
+      <c r="E258" s="39">
         <v>11</v>
       </c>
       <c r="F258" s="24" t="s">
@@ -39313,10 +39304,10 @@
       <c r="C259" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="D259" s="40">
+      <c r="D259" s="39">
         <v>1827</v>
       </c>
-      <c r="E259" s="40">
+      <c r="E259" s="39">
         <v>35</v>
       </c>
       <c r="F259" s="24" t="s">
@@ -39333,10 +39324,10 @@
       <c r="C260" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="D260" s="40">
+      <c r="D260" s="39">
         <v>102</v>
       </c>
-      <c r="E260" s="40">
+      <c r="E260" s="39">
         <v>4</v>
       </c>
       <c r="F260" s="24" t="s">
@@ -39350,13 +39341,13 @@
       <c r="B261" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="C261" s="41" t="s">
+      <c r="C261" s="40" t="s">
         <v>410</v>
       </c>
-      <c r="D261" s="40">
+      <c r="D261" s="39">
         <v>618</v>
       </c>
-      <c r="E261" s="40">
+      <c r="E261" s="39">
         <v>31</v>
       </c>
       <c r="F261" s="24" t="s">
@@ -39373,10 +39364,10 @@
       <c r="C262" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="D262" s="40">
+      <c r="D262" s="39">
         <v>390</v>
       </c>
-      <c r="E262" s="40">
+      <c r="E262" s="39">
         <v>10</v>
       </c>
       <c r="F262" s="24" t="s">
@@ -39393,10 +39384,10 @@
       <c r="C263" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="D263" s="40">
+      <c r="D263" s="39">
         <v>1461</v>
       </c>
-      <c r="E263" s="40">
+      <c r="E263" s="39">
         <v>14</v>
       </c>
       <c r="F263" s="24" t="s">
@@ -39413,10 +39404,10 @@
       <c r="C264" s="24" t="s">
         <v>402</v>
       </c>
-      <c r="D264" s="40">
+      <c r="D264" s="39">
         <v>640</v>
       </c>
-      <c r="E264" s="40">
+      <c r="E264" s="39">
         <v>23</v>
       </c>
       <c r="F264" s="24" t="s">
@@ -39431,10 +39422,10 @@
         <v>416</v>
       </c>
       <c r="C265" s="24"/>
-      <c r="D265" s="40">
+      <c r="D265" s="39">
         <v>571</v>
       </c>
-      <c r="E265" s="40">
+      <c r="E265" s="39">
         <v>3</v>
       </c>
       <c r="F265" s="24" t="s">
@@ -39451,10 +39442,10 @@
       <c r="C266" s="24" t="s">
         <v>402</v>
       </c>
-      <c r="D266" s="40">
+      <c r="D266" s="39">
         <v>929</v>
       </c>
-      <c r="E266" s="40">
+      <c r="E266" s="39">
         <v>19</v>
       </c>
       <c r="F266" s="24" t="s">
@@ -39471,10 +39462,10 @@
       <c r="C267" s="24" t="s">
         <v>402</v>
       </c>
-      <c r="D267" s="40">
+      <c r="D267" s="39">
         <v>437</v>
       </c>
-      <c r="E267" s="40">
+      <c r="E267" s="39">
         <v>6</v>
       </c>
       <c r="F267" s="24" t="s">
@@ -39788,7 +39779,7 @@
       <c r="B283" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="C283" s="42" t="s">
+      <c r="C283" s="41" t="s">
         <v>942</v>
       </c>
       <c r="D283" s="24">
@@ -39828,7 +39819,7 @@
       <c r="B285" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="C285" s="42" t="s">
+      <c r="C285" s="41" t="s">
         <v>453</v>
       </c>
       <c r="D285" s="24">
@@ -39888,7 +39879,7 @@
       <c r="B288" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="C288" s="42" t="s">
+      <c r="C288" s="41" t="s">
         <v>943</v>
       </c>
       <c r="D288" s="24">
@@ -40062,402 +40053,402 @@
       </c>
     </row>
     <row r="297" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A297" s="43" t="s">
+      <c r="A297" s="42" t="s">
         <v>483</v>
       </c>
-      <c r="B297" s="43" t="s">
+      <c r="B297" s="42" t="s">
         <v>484</v>
       </c>
-      <c r="C297" s="43" t="s">
+      <c r="C297" s="42" t="s">
         <v>485</v>
       </c>
-      <c r="D297" s="44">
+      <c r="D297" s="43">
         <v>70</v>
       </c>
-      <c r="E297" s="44">
+      <c r="E297" s="43">
         <v>12</v>
       </c>
-      <c r="F297" s="43" t="s">
+      <c r="F297" s="42" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A298" s="43" t="s">
+      <c r="A298" s="42" t="s">
         <v>483</v>
       </c>
-      <c r="B298" s="43" t="s">
+      <c r="B298" s="42" t="s">
         <v>486</v>
       </c>
-      <c r="C298" s="43" t="s">
+      <c r="C298" s="42" t="s">
         <v>487</v>
       </c>
-      <c r="D298" s="44">
+      <c r="D298" s="43">
         <v>24</v>
       </c>
-      <c r="E298" s="44">
+      <c r="E298" s="43">
         <v>0</v>
       </c>
-      <c r="F298" s="43" t="s">
+      <c r="F298" s="42" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A299" s="43" t="s">
+      <c r="A299" s="42" t="s">
         <v>483</v>
       </c>
-      <c r="B299" s="43" t="s">
+      <c r="B299" s="42" t="s">
         <v>488</v>
       </c>
-      <c r="C299" s="43" t="s">
+      <c r="C299" s="42" t="s">
         <v>489</v>
       </c>
-      <c r="D299" s="44">
+      <c r="D299" s="43">
         <v>16</v>
       </c>
-      <c r="E299" s="44">
+      <c r="E299" s="43">
         <v>2</v>
       </c>
-      <c r="F299" s="43" t="s">
+      <c r="F299" s="42" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A300" s="43" t="s">
+      <c r="A300" s="42" t="s">
         <v>483</v>
       </c>
-      <c r="B300" s="43" t="s">
+      <c r="B300" s="42" t="s">
         <v>490</v>
       </c>
-      <c r="C300" s="43" t="s">
+      <c r="C300" s="42" t="s">
         <v>491</v>
       </c>
-      <c r="D300" s="44">
+      <c r="D300" s="43">
         <v>53</v>
       </c>
-      <c r="E300" s="44">
+      <c r="E300" s="43">
         <v>17</v>
       </c>
-      <c r="F300" s="43" t="s">
+      <c r="F300" s="42" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A301" s="43" t="s">
+      <c r="A301" s="42" t="s">
         <v>483</v>
       </c>
-      <c r="B301" s="43" t="s">
+      <c r="B301" s="42" t="s">
         <v>492</v>
       </c>
-      <c r="C301" s="43" t="s">
+      <c r="C301" s="42" t="s">
         <v>489</v>
       </c>
-      <c r="D301" s="44">
+      <c r="D301" s="43">
         <v>16</v>
       </c>
-      <c r="E301" s="44">
+      <c r="E301" s="43">
         <v>4</v>
       </c>
-      <c r="F301" s="43" t="s">
+      <c r="F301" s="42" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A302" s="43" t="s">
+      <c r="A302" s="42" t="s">
         <v>483</v>
       </c>
-      <c r="B302" s="43" t="s">
+      <c r="B302" s="42" t="s">
         <v>493</v>
       </c>
-      <c r="C302" s="43" t="s">
+      <c r="C302" s="42" t="s">
         <v>485</v>
       </c>
-      <c r="D302" s="44">
+      <c r="D302" s="43">
         <v>100</v>
       </c>
-      <c r="E302" s="44">
+      <c r="E302" s="43">
         <v>7</v>
       </c>
-      <c r="F302" s="43" t="s">
+      <c r="F302" s="42" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A303" s="43" t="s">
+      <c r="A303" s="42" t="s">
         <v>483</v>
       </c>
-      <c r="B303" s="43" t="s">
+      <c r="B303" s="42" t="s">
         <v>494</v>
       </c>
-      <c r="C303" s="43" t="s">
+      <c r="C303" s="42" t="s">
         <v>489</v>
       </c>
-      <c r="D303" s="44">
+      <c r="D303" s="43">
         <v>130</v>
       </c>
-      <c r="E303" s="44">
+      <c r="E303" s="43">
         <v>27</v>
       </c>
-      <c r="F303" s="43" t="s">
+      <c r="F303" s="42" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A304" s="43" t="s">
+      <c r="A304" s="42" t="s">
         <v>483</v>
       </c>
-      <c r="B304" s="43" t="s">
+      <c r="B304" s="42" t="s">
         <v>495</v>
       </c>
-      <c r="C304" s="43" t="s">
+      <c r="C304" s="42" t="s">
         <v>489</v>
       </c>
-      <c r="D304" s="44">
+      <c r="D304" s="43">
         <v>22</v>
       </c>
-      <c r="E304" s="44">
+      <c r="E304" s="43">
         <v>1</v>
       </c>
-      <c r="F304" s="43" t="s">
+      <c r="F304" s="42" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="305" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A305" s="43" t="s">
+      <c r="A305" s="42" t="s">
         <v>483</v>
       </c>
-      <c r="B305" s="43" t="s">
+      <c r="B305" s="42" t="s">
         <v>486</v>
       </c>
-      <c r="C305" s="43" t="s">
+      <c r="C305" s="42" t="s">
         <v>487</v>
       </c>
-      <c r="D305" s="44">
+      <c r="D305" s="43">
         <v>45</v>
       </c>
-      <c r="E305" s="44">
+      <c r="E305" s="43">
         <v>6</v>
       </c>
-      <c r="F305" s="43" t="s">
+      <c r="F305" s="42" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A306" s="43" t="s">
+      <c r="A306" s="42" t="s">
         <v>483</v>
       </c>
-      <c r="B306" s="43" t="s">
+      <c r="B306" s="42" t="s">
         <v>496</v>
       </c>
-      <c r="C306" s="43" t="s">
+      <c r="C306" s="42" t="s">
         <v>487</v>
       </c>
-      <c r="D306" s="44">
+      <c r="D306" s="43">
         <v>38</v>
       </c>
-      <c r="E306" s="44">
+      <c r="E306" s="43">
         <v>10</v>
       </c>
-      <c r="F306" s="43" t="s">
+      <c r="F306" s="42" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A307" s="43" t="s">
+      <c r="A307" s="42" t="s">
         <v>497</v>
       </c>
-      <c r="B307" s="43" t="s">
+      <c r="B307" s="42" t="s">
         <v>498</v>
       </c>
-      <c r="C307" s="43" t="s">
+      <c r="C307" s="42" t="s">
         <v>499</v>
       </c>
-      <c r="D307" s="44">
+      <c r="D307" s="43">
         <v>97</v>
       </c>
-      <c r="E307" s="44">
+      <c r="E307" s="43">
         <v>0</v>
       </c>
-      <c r="F307" s="43" t="s">
+      <c r="F307" s="42" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A308" s="43" t="s">
+      <c r="A308" s="42" t="s">
         <v>497</v>
       </c>
-      <c r="B308" s="43" t="s">
+      <c r="B308" s="42" t="s">
         <v>500</v>
       </c>
-      <c r="C308" s="43" t="s">
+      <c r="C308" s="42" t="s">
         <v>499</v>
       </c>
-      <c r="D308" s="44">
+      <c r="D308" s="43">
         <v>334</v>
       </c>
-      <c r="E308" s="44">
+      <c r="E308" s="43">
         <v>45</v>
       </c>
-      <c r="F308" s="43" t="s">
+      <c r="F308" s="42" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A309" s="43" t="s">
+      <c r="A309" s="42" t="s">
         <v>497</v>
       </c>
-      <c r="B309" s="43" t="s">
+      <c r="B309" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C309" s="43" t="s">
+      <c r="C309" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D309" s="44">
+      <c r="D309" s="43">
         <v>244</v>
       </c>
-      <c r="E309" s="44">
+      <c r="E309" s="43">
         <v>28</v>
       </c>
-      <c r="F309" s="43" t="s">
+      <c r="F309" s="42" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A310" s="43" t="s">
+      <c r="A310" s="42" t="s">
         <v>497</v>
       </c>
-      <c r="B310" s="43" t="s">
+      <c r="B310" s="42" t="s">
         <v>503</v>
       </c>
-      <c r="C310" s="43" t="s">
+      <c r="C310" s="42" t="s">
         <v>504</v>
       </c>
-      <c r="D310" s="44">
+      <c r="D310" s="43">
         <v>119</v>
       </c>
-      <c r="E310" s="44">
+      <c r="E310" s="43">
         <v>35</v>
       </c>
-      <c r="F310" s="43" t="s">
+      <c r="F310" s="42" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="311" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A311" s="43" t="s">
+      <c r="A311" s="42" t="s">
         <v>497</v>
       </c>
-      <c r="B311" s="43" t="s">
+      <c r="B311" s="42" t="s">
         <v>505</v>
       </c>
-      <c r="C311" s="43" t="s">
+      <c r="C311" s="42" t="s">
         <v>506</v>
       </c>
-      <c r="D311" s="44">
+      <c r="D311" s="43">
         <v>311</v>
       </c>
-      <c r="E311" s="44">
+      <c r="E311" s="43">
         <v>6</v>
       </c>
-      <c r="F311" s="43" t="s">
+      <c r="F311" s="42" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A312" s="43" t="s">
+      <c r="A312" s="42" t="s">
         <v>497</v>
       </c>
-      <c r="B312" s="43" t="s">
+      <c r="B312" s="42" t="s">
         <v>507</v>
       </c>
-      <c r="C312" s="43" t="s">
+      <c r="C312" s="42" t="s">
         <v>504</v>
       </c>
-      <c r="D312" s="44">
+      <c r="D312" s="43">
         <v>89</v>
       </c>
-      <c r="E312" s="44">
+      <c r="E312" s="43">
         <v>6</v>
       </c>
-      <c r="F312" s="43" t="s">
+      <c r="F312" s="42" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A313" s="43" t="s">
+      <c r="A313" s="42" t="s">
         <v>497</v>
       </c>
-      <c r="B313" s="43" t="s">
+      <c r="B313" s="42" t="s">
         <v>505</v>
       </c>
-      <c r="C313" s="43" t="s">
+      <c r="C313" s="42" t="s">
         <v>506</v>
       </c>
-      <c r="D313" s="44">
+      <c r="D313" s="43">
         <v>70</v>
       </c>
-      <c r="E313" s="44">
+      <c r="E313" s="43">
         <v>1</v>
       </c>
-      <c r="F313" s="43" t="s">
+      <c r="F313" s="42" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A314" s="43" t="s">
+      <c r="A314" s="42" t="s">
         <v>497</v>
       </c>
-      <c r="B314" s="43" t="s">
+      <c r="B314" s="42" t="s">
         <v>505</v>
       </c>
-      <c r="C314" s="43" t="s">
+      <c r="C314" s="42" t="s">
         <v>506</v>
       </c>
-      <c r="D314" s="44">
+      <c r="D314" s="43">
         <v>64</v>
       </c>
-      <c r="E314" s="44">
+      <c r="E314" s="43">
         <v>0</v>
       </c>
-      <c r="F314" s="43" t="s">
+      <c r="F314" s="42" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A315" s="45" t="s">
+      <c r="A315" s="44" t="s">
         <v>497</v>
       </c>
-      <c r="B315" s="45" t="s">
+      <c r="B315" s="44" t="s">
         <v>505</v>
       </c>
-      <c r="C315" s="45" t="s">
+      <c r="C315" s="44" t="s">
         <v>506</v>
       </c>
-      <c r="D315" s="46">
+      <c r="D315" s="45">
         <v>361</v>
       </c>
-      <c r="E315" s="46">
+      <c r="E315" s="45">
         <v>18</v>
       </c>
-      <c r="F315" s="45" t="s">
+      <c r="F315" s="44" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A316" s="47" t="s">
+      <c r="A316" s="46" t="s">
         <v>497</v>
       </c>
-      <c r="B316" s="47" t="s">
+      <c r="B316" s="46" t="s">
         <v>508</v>
       </c>
-      <c r="C316" s="47" t="s">
+      <c r="C316" s="46" t="s">
         <v>509</v>
       </c>
-      <c r="D316" s="48">
+      <c r="D316" s="47">
         <v>227</v>
       </c>
-      <c r="E316" s="48">
+      <c r="E316" s="47">
         <v>6</v>
       </c>
-      <c r="F316" s="47" t="s">
+      <c r="F316" s="46" t="s">
         <v>213</v>
       </c>
     </row>
@@ -44141,7 +44132,7 @@
       <c r="A501" s="34" t="s">
         <v>824</v>
       </c>
-      <c r="B501" s="36" t="s">
+      <c r="B501" s="35" t="s">
         <v>832</v>
       </c>
       <c r="C501" s="33" t="s">
@@ -44161,7 +44152,7 @@
       <c r="A502" s="34" t="s">
         <v>824</v>
       </c>
-      <c r="B502" s="36" t="s">
+      <c r="B502" s="35" t="s">
         <v>833</v>
       </c>
       <c r="C502" s="33" t="s">
@@ -44557,10 +44548,10 @@
       <c r="C522" s="24" t="s">
         <v>880</v>
       </c>
-      <c r="D522" s="37">
+      <c r="D522" s="36">
         <v>712</v>
       </c>
-      <c r="E522" s="37">
+      <c r="E522" s="36">
         <v>8</v>
       </c>
       <c r="F522" s="33" t="s">
@@ -44577,10 +44568,10 @@
       <c r="C523" s="24" t="s">
         <v>880</v>
       </c>
-      <c r="D523" s="37">
+      <c r="D523" s="36">
         <v>1010</v>
       </c>
-      <c r="E523" s="37">
+      <c r="E523" s="36">
         <v>28</v>
       </c>
       <c r="F523" s="33" t="s">
@@ -44597,10 +44588,10 @@
       <c r="C524" s="24" t="s">
         <v>880</v>
       </c>
-      <c r="D524" s="37">
+      <c r="D524" s="36">
         <v>1471</v>
       </c>
-      <c r="E524" s="37">
+      <c r="E524" s="36">
         <v>31</v>
       </c>
       <c r="F524" s="33" t="s">
@@ -44617,10 +44608,10 @@
       <c r="C525" s="24" t="s">
         <v>941</v>
       </c>
-      <c r="D525" s="37">
+      <c r="D525" s="36">
         <v>92</v>
       </c>
-      <c r="E525" s="37">
+      <c r="E525" s="36">
         <v>0</v>
       </c>
       <c r="F525" s="33" t="s">
@@ -44637,10 +44628,10 @@
       <c r="C526" s="24" t="s">
         <v>880</v>
       </c>
-      <c r="D526" s="37">
+      <c r="D526" s="36">
         <v>433</v>
       </c>
-      <c r="E526" s="37">
+      <c r="E526" s="36">
         <v>15</v>
       </c>
       <c r="F526" s="33" t="s">
@@ -44657,10 +44648,10 @@
       <c r="C527" s="24" t="s">
         <v>880</v>
       </c>
-      <c r="D527" s="37">
+      <c r="D527" s="36">
         <v>145</v>
       </c>
-      <c r="E527" s="37">
+      <c r="E527" s="36">
         <v>0</v>
       </c>
       <c r="F527" s="33" t="s">
@@ -44677,10 +44668,10 @@
       <c r="C528" s="24" t="s">
         <v>880</v>
       </c>
-      <c r="D528" s="37">
+      <c r="D528" s="36">
         <v>899</v>
       </c>
-      <c r="E528" s="37">
+      <c r="E528" s="36">
         <v>8</v>
       </c>
       <c r="F528" s="33" t="s">
@@ -44697,10 +44688,10 @@
       <c r="C529" s="24" t="s">
         <v>880</v>
       </c>
-      <c r="D529" s="37">
+      <c r="D529" s="36">
         <v>80</v>
       </c>
-      <c r="E529" s="37">
+      <c r="E529" s="36">
         <v>0</v>
       </c>
       <c r="F529" s="33" t="s">
@@ -44717,10 +44708,10 @@
       <c r="C530" s="24" t="s">
         <v>880</v>
       </c>
-      <c r="D530" s="37">
+      <c r="D530" s="36">
         <v>863</v>
       </c>
-      <c r="E530" s="37">
+      <c r="E530" s="36">
         <v>8</v>
       </c>
       <c r="F530" s="33" t="s">
@@ -44728,567 +44719,567 @@
       </c>
     </row>
     <row r="531" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A531" s="38" t="s">
+      <c r="A531" s="37" t="s">
         <v>889</v>
       </c>
-      <c r="B531" s="38" t="s">
+      <c r="B531" s="37" t="s">
         <v>890</v>
       </c>
-      <c r="C531" s="39" t="s">
+      <c r="C531" s="38" t="s">
         <v>929</v>
       </c>
-      <c r="D531" s="38">
+      <c r="D531" s="37">
         <v>198</v>
       </c>
-      <c r="E531" s="38">
+      <c r="E531" s="37">
         <v>0</v>
       </c>
-      <c r="F531" s="38" t="s">
+      <c r="F531" s="37" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="532" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A532" s="38" t="s">
+      <c r="A532" s="37" t="s">
         <v>889</v>
       </c>
-      <c r="B532" s="39" t="s">
+      <c r="B532" s="38" t="s">
         <v>891</v>
       </c>
-      <c r="C532" s="39" t="s">
+      <c r="C532" s="38" t="s">
         <v>930</v>
       </c>
-      <c r="D532" s="38">
+      <c r="D532" s="37">
         <v>105</v>
       </c>
-      <c r="E532" s="38">
+      <c r="E532" s="37">
         <v>0</v>
       </c>
-      <c r="F532" s="38" t="s">
+      <c r="F532" s="37" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="533" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A533" s="38" t="s">
+      <c r="A533" s="37" t="s">
         <v>889</v>
       </c>
-      <c r="B533" s="39" t="s">
+      <c r="B533" s="38" t="s">
         <v>892</v>
       </c>
-      <c r="C533" s="39" t="s">
+      <c r="C533" s="38" t="s">
         <v>931</v>
       </c>
-      <c r="D533" s="38">
+      <c r="D533" s="37">
         <v>277</v>
       </c>
-      <c r="E533" s="38">
+      <c r="E533" s="37">
         <v>1</v>
       </c>
-      <c r="F533" s="38" t="s">
+      <c r="F533" s="37" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="534" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A534" s="38" t="s">
+      <c r="A534" s="37" t="s">
         <v>893</v>
       </c>
-      <c r="B534" s="39" t="s">
+      <c r="B534" s="38" t="s">
         <v>894</v>
       </c>
-      <c r="C534" s="39" t="s">
+      <c r="C534" s="38" t="s">
         <v>932</v>
       </c>
-      <c r="D534" s="38">
+      <c r="D534" s="37">
         <v>538</v>
       </c>
-      <c r="E534" s="38">
+      <c r="E534" s="37">
         <v>12</v>
       </c>
-      <c r="F534" s="38" t="s">
+      <c r="F534" s="37" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="535" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A535" s="38" t="s">
+      <c r="A535" s="37" t="s">
         <v>893</v>
       </c>
-      <c r="B535" s="39" t="s">
+      <c r="B535" s="38" t="s">
         <v>895</v>
       </c>
-      <c r="C535" s="39" t="s">
+      <c r="C535" s="38" t="s">
         <v>925</v>
       </c>
-      <c r="D535" s="38">
+      <c r="D535" s="37">
         <v>153</v>
       </c>
-      <c r="E535" s="38">
+      <c r="E535" s="37">
         <v>4</v>
       </c>
-      <c r="F535" s="38" t="s">
+      <c r="F535" s="37" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="536" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A536" s="38" t="s">
+      <c r="A536" s="37" t="s">
         <v>893</v>
       </c>
-      <c r="B536" s="39" t="s">
+      <c r="B536" s="38" t="s">
         <v>896</v>
       </c>
-      <c r="C536" s="39" t="s">
+      <c r="C536" s="38" t="s">
         <v>925</v>
       </c>
-      <c r="D536" s="38">
+      <c r="D536" s="37">
         <v>186</v>
       </c>
-      <c r="E536" s="38">
+      <c r="E536" s="37">
         <v>2</v>
       </c>
-      <c r="F536" s="38" t="s">
+      <c r="F536" s="37" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="537" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A537" s="38" t="s">
+      <c r="A537" s="37" t="s">
         <v>893</v>
       </c>
-      <c r="B537" s="39" t="s">
+      <c r="B537" s="38" t="s">
         <v>897</v>
       </c>
-      <c r="C537" s="39" t="s">
+      <c r="C537" s="38" t="s">
         <v>925</v>
       </c>
-      <c r="D537" s="38">
+      <c r="D537" s="37">
         <v>222</v>
       </c>
-      <c r="E537" s="38">
+      <c r="E537" s="37">
         <v>1</v>
       </c>
-      <c r="F537" s="38" t="s">
+      <c r="F537" s="37" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="538" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A538" s="38" t="s">
+      <c r="A538" s="37" t="s">
         <v>893</v>
       </c>
-      <c r="B538" s="39" t="s">
+      <c r="B538" s="38" t="s">
         <v>898</v>
       </c>
-      <c r="C538" s="39" t="s">
+      <c r="C538" s="38" t="s">
         <v>925</v>
       </c>
-      <c r="D538" s="38">
+      <c r="D538" s="37">
         <v>150</v>
       </c>
-      <c r="E538" s="38">
+      <c r="E538" s="37">
         <v>0</v>
       </c>
-      <c r="F538" s="38" t="s">
+      <c r="F538" s="37" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="539" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A539" s="38" t="s">
+      <c r="A539" s="37" t="s">
         <v>893</v>
       </c>
-      <c r="B539" s="39" t="s">
+      <c r="B539" s="38" t="s">
         <v>899</v>
       </c>
-      <c r="C539" s="39" t="s">
+      <c r="C539" s="38" t="s">
         <v>925</v>
       </c>
-      <c r="D539" s="38">
+      <c r="D539" s="37">
         <v>352</v>
       </c>
-      <c r="E539" s="38">
+      <c r="E539" s="37">
         <v>4</v>
       </c>
-      <c r="F539" s="38" t="s">
+      <c r="F539" s="37" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="540" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A540" s="38" t="s">
+      <c r="A540" s="37" t="s">
         <v>893</v>
       </c>
-      <c r="B540" s="39" t="s">
+      <c r="B540" s="38" t="s">
         <v>900</v>
       </c>
-      <c r="C540" s="39" t="s">
+      <c r="C540" s="38" t="s">
         <v>925</v>
       </c>
-      <c r="D540" s="38">
+      <c r="D540" s="37">
         <v>1039</v>
       </c>
-      <c r="E540" s="38">
+      <c r="E540" s="37">
         <v>15</v>
       </c>
-      <c r="F540" s="38" t="s">
+      <c r="F540" s="37" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="541" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A541" s="38" t="s">
+      <c r="A541" s="37" t="s">
         <v>893</v>
       </c>
-      <c r="B541" s="39" t="s">
+      <c r="B541" s="38" t="s">
         <v>901</v>
       </c>
-      <c r="C541" s="39" t="s">
+      <c r="C541" s="38" t="s">
         <v>925</v>
       </c>
-      <c r="D541" s="38">
+      <c r="D541" s="37">
         <v>98</v>
       </c>
-      <c r="E541" s="38">
+      <c r="E541" s="37">
         <v>1</v>
       </c>
-      <c r="F541" s="38" t="s">
+      <c r="F541" s="37" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="542" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A542" s="38" t="s">
+      <c r="A542" s="37" t="s">
         <v>893</v>
       </c>
-      <c r="B542" s="39" t="s">
+      <c r="B542" s="38" t="s">
         <v>902</v>
       </c>
-      <c r="C542" s="39" t="s">
+      <c r="C542" s="38" t="s">
         <v>925</v>
       </c>
-      <c r="D542" s="38">
+      <c r="D542" s="37">
         <v>133</v>
       </c>
-      <c r="E542" s="38">
+      <c r="E542" s="37">
         <v>2</v>
       </c>
-      <c r="F542" s="38" t="s">
+      <c r="F542" s="37" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="543" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A543" s="38" t="s">
+      <c r="A543" s="37" t="s">
         <v>893</v>
       </c>
-      <c r="B543" s="39" t="s">
+      <c r="B543" s="38" t="s">
         <v>903</v>
       </c>
-      <c r="C543" s="39" t="s">
+      <c r="C543" s="38" t="s">
         <v>925</v>
       </c>
-      <c r="D543" s="38">
+      <c r="D543" s="37">
         <v>133</v>
       </c>
-      <c r="E543" s="38">
+      <c r="E543" s="37">
         <v>10</v>
       </c>
-      <c r="F543" s="38" t="s">
+      <c r="F543" s="37" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="544" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A544" s="38" t="s">
+      <c r="A544" s="37" t="s">
         <v>893</v>
       </c>
-      <c r="B544" s="39" t="s">
+      <c r="B544" s="38" t="s">
         <v>928</v>
       </c>
-      <c r="C544" s="39" t="s">
+      <c r="C544" s="38" t="s">
         <v>933</v>
       </c>
-      <c r="D544" s="38">
+      <c r="D544" s="37">
         <v>210</v>
       </c>
-      <c r="E544" s="38">
+      <c r="E544" s="37">
         <v>3</v>
       </c>
-      <c r="F544" s="38" t="s">
+      <c r="F544" s="37" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="545" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A545" s="38" t="s">
+      <c r="A545" s="37" t="s">
         <v>893</v>
       </c>
-      <c r="B545" s="39" t="s">
+      <c r="B545" s="38" t="s">
         <v>904</v>
       </c>
-      <c r="C545" s="39" t="s">
+      <c r="C545" s="38" t="s">
         <v>934</v>
       </c>
-      <c r="D545" s="38">
+      <c r="D545" s="37">
         <v>121</v>
       </c>
-      <c r="E545" s="38">
+      <c r="E545" s="37">
         <v>11</v>
       </c>
-      <c r="F545" s="38" t="s">
+      <c r="F545" s="37" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="546" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A546" s="39" t="s">
+      <c r="A546" s="38" t="s">
         <v>905</v>
       </c>
-      <c r="B546" s="38" t="s">
+      <c r="B546" s="37" t="s">
         <v>906</v>
       </c>
-      <c r="C546" s="39" t="s">
+      <c r="C546" s="38" t="s">
         <v>935</v>
       </c>
-      <c r="D546" s="38">
+      <c r="D546" s="37">
         <v>2836</v>
       </c>
-      <c r="E546" s="38">
+      <c r="E546" s="37">
         <v>35</v>
       </c>
-      <c r="F546" s="38" t="s">
+      <c r="F546" s="37" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="547" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A547" s="39" t="s">
+      <c r="A547" s="38" t="s">
         <v>905</v>
       </c>
-      <c r="B547" s="39" t="s">
+      <c r="B547" s="38" t="s">
         <v>907</v>
       </c>
-      <c r="C547" s="39" t="s">
+      <c r="C547" s="38" t="s">
         <v>936</v>
       </c>
-      <c r="D547" s="38">
+      <c r="D547" s="37">
         <v>1906</v>
       </c>
-      <c r="E547" s="38">
+      <c r="E547" s="37">
         <v>22</v>
       </c>
-      <c r="F547" s="38" t="s">
+      <c r="F547" s="37" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="548" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A548" s="39" t="s">
+      <c r="A548" s="38" t="s">
         <v>905</v>
       </c>
-      <c r="B548" s="39" t="s">
+      <c r="B548" s="38" t="s">
         <v>908</v>
       </c>
-      <c r="C548" s="39" t="s">
+      <c r="C548" s="38" t="s">
         <v>936</v>
       </c>
-      <c r="D548" s="38">
+      <c r="D548" s="37">
         <v>3265</v>
       </c>
-      <c r="E548" s="38">
+      <c r="E548" s="37">
         <v>11</v>
       </c>
-      <c r="F548" s="38" t="s">
+      <c r="F548" s="37" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="549" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A549" s="39" t="s">
+      <c r="A549" s="38" t="s">
         <v>905</v>
       </c>
-      <c r="B549" s="39" t="s">
+      <c r="B549" s="38" t="s">
         <v>926</v>
       </c>
-      <c r="C549" s="39" t="s">
+      <c r="C549" s="38" t="s">
         <v>936</v>
       </c>
-      <c r="D549" s="38">
+      <c r="D549" s="37">
         <v>1377</v>
       </c>
-      <c r="E549" s="38">
+      <c r="E549" s="37">
         <v>9</v>
       </c>
-      <c r="F549" s="38" t="s">
+      <c r="F549" s="37" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="550" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A550" s="39" t="s">
+      <c r="A550" s="38" t="s">
         <v>905</v>
       </c>
-      <c r="B550" s="39" t="s">
+      <c r="B550" s="38" t="s">
         <v>909</v>
       </c>
-      <c r="C550" s="38" t="s">
+      <c r="C550" s="37" t="s">
         <v>910</v>
       </c>
-      <c r="D550" s="38">
+      <c r="D550" s="37">
         <v>2061</v>
       </c>
-      <c r="E550" s="38">
+      <c r="E550" s="37">
         <v>10</v>
       </c>
-      <c r="F550" s="38" t="s">
+      <c r="F550" s="37" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="551" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A551" s="39" t="s">
+      <c r="A551" s="38" t="s">
         <v>905</v>
       </c>
-      <c r="B551" s="38" t="s">
+      <c r="B551" s="37" t="s">
         <v>911</v>
       </c>
-      <c r="C551" s="39" t="s">
+      <c r="C551" s="38" t="s">
         <v>936</v>
       </c>
-      <c r="D551" s="38">
+      <c r="D551" s="37">
         <v>2505</v>
       </c>
-      <c r="E551" s="38">
+      <c r="E551" s="37">
         <v>13</v>
       </c>
-      <c r="F551" s="38" t="s">
+      <c r="F551" s="37" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="552" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A552" s="39" t="s">
+      <c r="A552" s="38" t="s">
         <v>912</v>
       </c>
-      <c r="B552" s="39" t="s">
+      <c r="B552" s="38" t="s">
         <v>924</v>
       </c>
-      <c r="C552" s="39" t="s">
+      <c r="C552" s="38" t="s">
         <v>937</v>
       </c>
-      <c r="D552" s="38">
+      <c r="D552" s="37">
         <v>604</v>
       </c>
-      <c r="E552" s="38">
+      <c r="E552" s="37">
         <v>75</v>
       </c>
-      <c r="F552" s="38" t="s">
+      <c r="F552" s="37" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="553" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A553" s="39" t="s">
+      <c r="A553" s="38" t="s">
         <v>912</v>
       </c>
-      <c r="B553" s="39" t="s">
+      <c r="B553" s="38" t="s">
         <v>927</v>
       </c>
-      <c r="C553" s="39" t="s">
+      <c r="C553" s="38" t="s">
         <v>938</v>
       </c>
-      <c r="D553" s="38">
+      <c r="D553" s="37">
         <v>33</v>
       </c>
-      <c r="E553" s="38">
+      <c r="E553" s="37">
         <v>3</v>
       </c>
-      <c r="F553" s="38" t="s">
+      <c r="F553" s="37" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="554" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A554" s="39" t="s">
+      <c r="A554" s="38" t="s">
         <v>913</v>
       </c>
-      <c r="B554" s="39" t="s">
+      <c r="B554" s="38" t="s">
         <v>914</v>
       </c>
-      <c r="C554" s="39" t="s">
+      <c r="C554" s="38" t="s">
         <v>915</v>
       </c>
-      <c r="D554" s="38">
+      <c r="D554" s="37">
         <v>686</v>
       </c>
-      <c r="E554" s="38">
+      <c r="E554" s="37">
         <v>35</v>
       </c>
-      <c r="F554" s="38" t="s">
+      <c r="F554" s="37" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="555" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A555" s="39" t="s">
+      <c r="A555" s="38" t="s">
         <v>913</v>
       </c>
-      <c r="B555" s="38" t="s">
+      <c r="B555" s="37" t="s">
         <v>916</v>
       </c>
-      <c r="C555" s="38" t="s">
+      <c r="C555" s="37" t="s">
         <v>939</v>
       </c>
-      <c r="D555" s="38">
+      <c r="D555" s="37">
         <v>564</v>
       </c>
-      <c r="E555" s="38">
+      <c r="E555" s="37">
         <v>17</v>
       </c>
-      <c r="F555" s="38" t="s">
+      <c r="F555" s="37" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="556" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A556" s="39" t="s">
+      <c r="A556" s="38" t="s">
         <v>913</v>
       </c>
-      <c r="B556" s="38" t="s">
+      <c r="B556" s="37" t="s">
         <v>917</v>
       </c>
-      <c r="C556" s="39" t="s">
+      <c r="C556" s="38" t="s">
         <v>918</v>
       </c>
-      <c r="D556" s="38">
+      <c r="D556" s="37">
         <v>1015</v>
       </c>
-      <c r="E556" s="38">
+      <c r="E556" s="37">
         <v>46</v>
       </c>
-      <c r="F556" s="38" t="s">
+      <c r="F556" s="37" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="557" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A557" s="39" t="s">
+      <c r="A557" s="38" t="s">
         <v>919</v>
       </c>
-      <c r="B557" s="39" t="s">
+      <c r="B557" s="38" t="s">
         <v>920</v>
       </c>
-      <c r="C557" s="38" t="s">
+      <c r="C557" s="37" t="s">
         <v>921</v>
       </c>
-      <c r="D557" s="38">
+      <c r="D557" s="37">
         <v>3291</v>
       </c>
-      <c r="E557" s="38">
+      <c r="E557" s="37">
         <v>63</v>
       </c>
-      <c r="F557" s="38" t="s">
+      <c r="F557" s="37" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="558" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A558" s="39" t="s">
+      <c r="A558" s="38" t="s">
         <v>922</v>
       </c>
-      <c r="B558" s="39" t="s">
+      <c r="B558" s="38" t="s">
         <v>923</v>
       </c>
-      <c r="C558" s="39" t="s">
+      <c r="C558" s="38" t="s">
         <v>940</v>
       </c>
-      <c r="D558" s="38">
+      <c r="D558" s="37">
         <v>1312</v>
       </c>
-      <c r="E558" s="38">
+      <c r="E558" s="37">
         <v>31</v>
       </c>
-      <c r="F558" s="38" t="s">
+      <c r="F558" s="37" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="559" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A559" s="49" t="s">
+      <c r="A559" s="48" t="s">
         <v>944</v>
       </c>
       <c r="B559" s="31" t="s">
@@ -45297,18 +45288,18 @@
       <c r="C559" s="24" t="s">
         <v>958</v>
       </c>
-      <c r="D559" s="50">
+      <c r="D559" s="49">
         <v>38</v>
       </c>
-      <c r="E559" s="50">
+      <c r="E559" s="49">
         <v>3</v>
       </c>
-      <c r="F559" s="50" t="s">
+      <c r="F559" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="560" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A560" s="49" t="s">
+      <c r="A560" s="48" t="s">
         <v>944</v>
       </c>
       <c r="B560" s="26" t="s">
@@ -45317,18 +45308,18 @@
       <c r="C560" s="24" t="s">
         <v>959</v>
       </c>
-      <c r="D560" s="50">
+      <c r="D560" s="49">
         <v>259</v>
       </c>
-      <c r="E560" s="50">
+      <c r="E560" s="49">
         <v>2</v>
       </c>
-      <c r="F560" s="50" t="s">
+      <c r="F560" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="561" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A561" s="49" t="s">
+      <c r="A561" s="48" t="s">
         <v>944</v>
       </c>
       <c r="B561" s="26" t="s">
@@ -45337,18 +45328,18 @@
       <c r="C561" s="24" t="s">
         <v>960</v>
       </c>
-      <c r="D561" s="50">
+      <c r="D561" s="49">
         <v>25</v>
       </c>
-      <c r="E561" s="50">
+      <c r="E561" s="49">
         <v>0</v>
       </c>
-      <c r="F561" s="50" t="s">
+      <c r="F561" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="562" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A562" s="49" t="s">
+      <c r="A562" s="48" t="s">
         <v>944</v>
       </c>
       <c r="B562" s="26" t="s">
@@ -45357,18 +45348,18 @@
       <c r="C562" s="24" t="s">
         <v>961</v>
       </c>
-      <c r="D562" s="50">
+      <c r="D562" s="49">
         <v>19</v>
       </c>
-      <c r="E562" s="50">
+      <c r="E562" s="49">
         <v>1</v>
       </c>
-      <c r="F562" s="50" t="s">
+      <c r="F562" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="563" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A563" s="49" t="s">
+      <c r="A563" s="48" t="s">
         <v>949</v>
       </c>
       <c r="B563" s="26" t="s">
@@ -45377,18 +45368,18 @@
       <c r="C563" s="24" t="s">
         <v>962</v>
       </c>
-      <c r="D563" s="50">
+      <c r="D563" s="49">
         <v>129</v>
       </c>
-      <c r="E563" s="50">
+      <c r="E563" s="49">
         <v>19</v>
       </c>
-      <c r="F563" s="50" t="s">
+      <c r="F563" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="564" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A564" s="49" t="s">
+      <c r="A564" s="48" t="s">
         <v>949</v>
       </c>
       <c r="B564" s="26" t="s">
@@ -45397,18 +45388,18 @@
       <c r="C564" s="24" t="s">
         <v>963</v>
       </c>
-      <c r="D564" s="50">
+      <c r="D564" s="49">
         <v>80</v>
       </c>
-      <c r="E564" s="50">
+      <c r="E564" s="49">
         <v>11</v>
       </c>
-      <c r="F564" s="50" t="s">
+      <c r="F564" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="565" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A565" s="49" t="s">
+      <c r="A565" s="48" t="s">
         <v>949</v>
       </c>
       <c r="B565" s="26" t="s">
@@ -45417,18 +45408,18 @@
       <c r="C565" s="24" t="s">
         <v>964</v>
       </c>
-      <c r="D565" s="50">
+      <c r="D565" s="49">
         <v>111</v>
       </c>
-      <c r="E565" s="50">
+      <c r="E565" s="49">
         <v>49</v>
       </c>
-      <c r="F565" s="50" t="s">
+      <c r="F565" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="566" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A566" s="49" t="s">
+      <c r="A566" s="48" t="s">
         <v>949</v>
       </c>
       <c r="B566" s="26" t="s">
@@ -45437,18 +45428,18 @@
       <c r="C566" s="24" t="s">
         <v>965</v>
       </c>
-      <c r="D566" s="50">
+      <c r="D566" s="49">
         <v>46</v>
       </c>
-      <c r="E566" s="50">
+      <c r="E566" s="49">
         <v>2</v>
       </c>
-      <c r="F566" s="50" t="s">
+      <c r="F566" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="567" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A567" s="49" t="s">
+      <c r="A567" s="48" t="s">
         <v>949</v>
       </c>
       <c r="B567" s="26" t="s">
@@ -45457,18 +45448,18 @@
       <c r="C567" s="24" t="s">
         <v>966</v>
       </c>
-      <c r="D567" s="50">
+      <c r="D567" s="49">
         <v>86</v>
       </c>
-      <c r="E567" s="50">
+      <c r="E567" s="49">
         <v>4</v>
       </c>
-      <c r="F567" s="50" t="s">
+      <c r="F567" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="568" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A568" s="49" t="s">
+      <c r="A568" s="48" t="s">
         <v>949</v>
       </c>
       <c r="B568" s="26" t="s">
@@ -45477,18 +45468,18 @@
       <c r="C568" s="24" t="s">
         <v>967</v>
       </c>
-      <c r="D568" s="50">
+      <c r="D568" s="49">
         <v>98</v>
       </c>
-      <c r="E568" s="50">
+      <c r="E568" s="49">
         <v>7</v>
       </c>
-      <c r="F568" s="50" t="s">
+      <c r="F568" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="569" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A569" s="49" t="s">
+      <c r="A569" s="48" t="s">
         <v>949</v>
       </c>
       <c r="B569" s="26" t="s">
@@ -45497,18 +45488,18 @@
       <c r="C569" s="24" t="s">
         <v>963</v>
       </c>
-      <c r="D569" s="50">
+      <c r="D569" s="49">
         <v>59</v>
       </c>
-      <c r="E569" s="50">
+      <c r="E569" s="49">
         <v>3</v>
       </c>
-      <c r="F569" s="50" t="s">
+      <c r="F569" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="570" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A570" s="49" t="s">
+      <c r="A570" s="48" t="s">
         <v>949</v>
       </c>
       <c r="B570" s="26" t="s">
@@ -45517,18 +45508,18 @@
       <c r="C570" s="24" t="s">
         <v>968</v>
       </c>
-      <c r="D570" s="50">
+      <c r="D570" s="49">
         <v>79</v>
       </c>
-      <c r="E570" s="50">
+      <c r="E570" s="49">
         <v>11</v>
       </c>
-      <c r="F570" s="50" t="s">
+      <c r="F570" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="571" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A571" s="49" t="s">
+      <c r="A571" s="48" t="s">
         <v>969</v>
       </c>
       <c r="B571" s="26" t="s">
@@ -45537,18 +45528,18 @@
       <c r="C571" s="24" t="s">
         <v>974</v>
       </c>
-      <c r="D571" s="50">
+      <c r="D571" s="49">
         <v>234</v>
       </c>
-      <c r="E571" s="50">
+      <c r="E571" s="49">
         <v>6</v>
       </c>
-      <c r="F571" s="50" t="s">
+      <c r="F571" s="49" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="572" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A572" s="49" t="s">
+      <c r="A572" s="48" t="s">
         <v>969</v>
       </c>
       <c r="B572" s="26" t="s">
@@ -45557,18 +45548,18 @@
       <c r="C572" s="24" t="s">
         <v>974</v>
       </c>
-      <c r="D572" s="50">
+      <c r="D572" s="49">
         <v>170</v>
       </c>
-      <c r="E572" s="50">
+      <c r="E572" s="49">
         <v>0</v>
       </c>
-      <c r="F572" s="50" t="s">
+      <c r="F572" s="49" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="573" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A573" s="49" t="s">
+      <c r="A573" s="48" t="s">
         <v>969</v>
       </c>
       <c r="B573" s="26" t="s">
@@ -45577,18 +45568,18 @@
       <c r="C573" s="24" t="s">
         <v>972</v>
       </c>
-      <c r="D573" s="50">
+      <c r="D573" s="49">
         <v>360</v>
       </c>
-      <c r="E573" s="50">
+      <c r="E573" s="49">
         <v>4</v>
       </c>
-      <c r="F573" s="50" t="s">
+      <c r="F573" s="49" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="574" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A574" s="49" t="s">
+      <c r="A574" s="48" t="s">
         <v>969</v>
       </c>
       <c r="B574" s="26" t="s">
@@ -45597,18 +45588,18 @@
       <c r="C574" s="24" t="s">
         <v>973</v>
       </c>
-      <c r="D574" s="50">
+      <c r="D574" s="49">
         <v>437</v>
       </c>
-      <c r="E574" s="50">
+      <c r="E574" s="49">
         <v>12</v>
       </c>
-      <c r="F574" s="50" t="s">
+      <c r="F574" s="49" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="575" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A575" s="49" t="s">
+      <c r="A575" s="48" t="s">
         <v>969</v>
       </c>
       <c r="B575" s="24" t="s">
@@ -45617,18 +45608,18 @@
       <c r="C575" s="24" t="s">
         <v>973</v>
       </c>
-      <c r="D575" s="50">
+      <c r="D575" s="49">
         <v>289</v>
       </c>
-      <c r="E575" s="50">
+      <c r="E575" s="49">
         <v>13</v>
       </c>
-      <c r="F575" s="50" t="s">
+      <c r="F575" s="49" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="576" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A576" s="49" t="s">
+      <c r="A576" s="48" t="s">
         <v>975</v>
       </c>
       <c r="B576" s="26" t="s">
@@ -45637,18 +45628,18 @@
       <c r="C576" s="24" t="s">
         <v>1005</v>
       </c>
-      <c r="D576" s="50">
+      <c r="D576" s="49">
         <v>10</v>
       </c>
-      <c r="E576" s="50">
+      <c r="E576" s="49">
         <v>0</v>
       </c>
-      <c r="F576" s="50" t="s">
+      <c r="F576" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="577" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A577" s="49" t="s">
+      <c r="A577" s="48" t="s">
         <v>975</v>
       </c>
       <c r="B577" s="26" t="s">
@@ -45657,18 +45648,18 @@
       <c r="C577" s="24" t="s">
         <v>1006</v>
       </c>
-      <c r="D577" s="50">
+      <c r="D577" s="49">
         <v>19</v>
       </c>
-      <c r="E577" s="50">
+      <c r="E577" s="49">
         <v>1</v>
       </c>
-      <c r="F577" s="50" t="s">
+      <c r="F577" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="578" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A578" s="49" t="s">
+      <c r="A578" s="48" t="s">
         <v>975</v>
       </c>
       <c r="B578" s="26" t="s">
@@ -45677,18 +45668,18 @@
       <c r="C578" s="24" t="s">
         <v>1006</v>
       </c>
-      <c r="D578" s="50">
+      <c r="D578" s="49">
         <v>48</v>
       </c>
-      <c r="E578" s="50">
+      <c r="E578" s="49">
         <v>2</v>
       </c>
-      <c r="F578" s="50" t="s">
+      <c r="F578" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="579" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A579" s="49" t="s">
+      <c r="A579" s="48" t="s">
         <v>975</v>
       </c>
       <c r="B579" s="26" t="s">
@@ -45697,18 +45688,18 @@
       <c r="C579" s="24" t="s">
         <v>1006</v>
       </c>
-      <c r="D579" s="50">
+      <c r="D579" s="49">
         <v>141</v>
       </c>
-      <c r="E579" s="50">
+      <c r="E579" s="49">
         <v>2</v>
       </c>
-      <c r="F579" s="50" t="s">
+      <c r="F579" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="580" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A580" s="49" t="s">
+      <c r="A580" s="48" t="s">
         <v>975</v>
       </c>
       <c r="B580" s="26" t="s">
@@ -45717,18 +45708,18 @@
       <c r="C580" s="24" t="s">
         <v>1007</v>
       </c>
-      <c r="D580" s="50">
+      <c r="D580" s="49">
         <v>25</v>
       </c>
-      <c r="E580" s="50">
+      <c r="E580" s="49">
         <v>0</v>
       </c>
-      <c r="F580" s="50" t="s">
+      <c r="F580" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="581" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A581" s="49" t="s">
+      <c r="A581" s="48" t="s">
         <v>975</v>
       </c>
       <c r="B581" s="26" t="s">
@@ -45737,18 +45728,18 @@
       <c r="C581" s="24" t="s">
         <v>1007</v>
       </c>
-      <c r="D581" s="50">
+      <c r="D581" s="49">
         <v>9</v>
       </c>
-      <c r="E581" s="50">
+      <c r="E581" s="49">
         <v>0</v>
       </c>
-      <c r="F581" s="50" t="s">
+      <c r="F581" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="582" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A582" s="49" t="s">
+      <c r="A582" s="48" t="s">
         <v>975</v>
       </c>
       <c r="B582" s="26" t="s">
@@ -45757,18 +45748,18 @@
       <c r="C582" s="24" t="s">
         <v>981</v>
       </c>
-      <c r="D582" s="50">
+      <c r="D582" s="49">
         <v>9</v>
       </c>
-      <c r="E582" s="50">
+      <c r="E582" s="49">
         <v>0</v>
       </c>
-      <c r="F582" s="50" t="s">
+      <c r="F582" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="583" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A583" s="49" t="s">
+      <c r="A583" s="48" t="s">
         <v>975</v>
       </c>
       <c r="B583" s="26" t="s">
@@ -45777,36 +45768,36 @@
       <c r="C583" s="24" t="s">
         <v>1008</v>
       </c>
-      <c r="D583" s="50">
+      <c r="D583" s="49">
         <v>18</v>
       </c>
-      <c r="E583" s="50">
+      <c r="E583" s="49">
         <v>2</v>
       </c>
-      <c r="F583" s="50" t="s">
+      <c r="F583" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="584" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A584" s="49" t="s">
+      <c r="A584" s="48" t="s">
         <v>975</v>
       </c>
       <c r="B584" s="26" t="s">
         <v>982</v>
       </c>
       <c r="C584" s="24"/>
-      <c r="D584" s="50">
+      <c r="D584" s="49">
         <v>15</v>
       </c>
-      <c r="E584" s="50">
+      <c r="E584" s="49">
         <v>0</v>
       </c>
-      <c r="F584" s="50" t="s">
+      <c r="F584" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="585" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A585" s="49" t="s">
+      <c r="A585" s="48" t="s">
         <v>975</v>
       </c>
       <c r="B585" s="26" t="s">
@@ -45815,18 +45806,18 @@
       <c r="C585" s="24" t="s">
         <v>1009</v>
       </c>
-      <c r="D585" s="50">
+      <c r="D585" s="49">
         <v>9</v>
       </c>
-      <c r="E585" s="50">
+      <c r="E585" s="49">
         <v>0</v>
       </c>
-      <c r="F585" s="50" t="s">
+      <c r="F585" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="586" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A586" s="49" t="s">
+      <c r="A586" s="48" t="s">
         <v>975</v>
       </c>
       <c r="B586" s="26" t="s">
@@ -45835,18 +45826,18 @@
       <c r="C586" s="24" t="s">
         <v>1009</v>
       </c>
-      <c r="D586" s="50">
+      <c r="D586" s="49">
         <v>15</v>
       </c>
-      <c r="E586" s="50">
+      <c r="E586" s="49">
         <v>1</v>
       </c>
-      <c r="F586" s="50" t="s">
+      <c r="F586" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="587" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A587" s="49" t="s">
+      <c r="A587" s="48" t="s">
         <v>975</v>
       </c>
       <c r="B587" s="26" t="s">
@@ -45855,18 +45846,18 @@
       <c r="C587" s="24" t="s">
         <v>1010</v>
       </c>
-      <c r="D587" s="50">
+      <c r="D587" s="49">
         <v>86</v>
       </c>
-      <c r="E587" s="50">
+      <c r="E587" s="49">
         <v>12</v>
       </c>
-      <c r="F587" s="50" t="s">
+      <c r="F587" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="588" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A588" s="49" t="s">
+      <c r="A588" s="48" t="s">
         <v>975</v>
       </c>
       <c r="B588" s="26" t="s">
@@ -45875,36 +45866,36 @@
       <c r="C588" s="24" t="s">
         <v>1011</v>
       </c>
-      <c r="D588" s="50">
+      <c r="D588" s="49">
         <v>53</v>
       </c>
-      <c r="E588" s="50">
+      <c r="E588" s="49">
         <v>6</v>
       </c>
-      <c r="F588" s="50" t="s">
+      <c r="F588" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="589" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A589" s="49" t="s">
+      <c r="A589" s="48" t="s">
         <v>975</v>
       </c>
       <c r="B589" s="26" t="s">
         <v>986</v>
       </c>
       <c r="C589" s="24"/>
-      <c r="D589" s="50">
+      <c r="D589" s="49">
         <v>37</v>
       </c>
-      <c r="E589" s="50">
+      <c r="E589" s="49">
         <v>11</v>
       </c>
-      <c r="F589" s="50" t="s">
+      <c r="F589" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="590" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A590" s="49" t="s">
+      <c r="A590" s="48" t="s">
         <v>975</v>
       </c>
       <c r="B590" s="26" t="s">
@@ -45913,18 +45904,18 @@
       <c r="C590" s="24" t="s">
         <v>1012</v>
       </c>
-      <c r="D590" s="50">
+      <c r="D590" s="49">
         <v>60</v>
       </c>
-      <c r="E590" s="50">
+      <c r="E590" s="49">
         <v>5</v>
       </c>
-      <c r="F590" s="50" t="s">
+      <c r="F590" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="591" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A591" s="49" t="s">
+      <c r="A591" s="48" t="s">
         <v>988</v>
       </c>
       <c r="B591" s="26" t="s">
@@ -45933,18 +45924,18 @@
       <c r="C591" s="24" t="s">
         <v>1013</v>
       </c>
-      <c r="D591" s="50">
+      <c r="D591" s="49">
         <v>11</v>
       </c>
-      <c r="E591" s="50">
+      <c r="E591" s="49">
         <v>0</v>
       </c>
-      <c r="F591" s="50" t="s">
+      <c r="F591" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="592" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A592" s="49" t="s">
+      <c r="A592" s="48" t="s">
         <v>988</v>
       </c>
       <c r="B592" s="26" t="s">
@@ -45953,18 +45944,18 @@
       <c r="C592" s="26" t="s">
         <v>991</v>
       </c>
-      <c r="D592" s="50">
+      <c r="D592" s="49">
         <v>7</v>
       </c>
-      <c r="E592" s="50">
+      <c r="E592" s="49">
         <v>1</v>
       </c>
-      <c r="F592" s="50" t="s">
+      <c r="F592" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="593" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A593" s="49" t="s">
+      <c r="A593" s="48" t="s">
         <v>988</v>
       </c>
       <c r="B593" s="26" t="s">
@@ -45973,18 +45964,18 @@
       <c r="C593" s="26" t="s">
         <v>992</v>
       </c>
-      <c r="D593" s="50">
+      <c r="D593" s="49">
         <v>51</v>
       </c>
-      <c r="E593" s="50">
+      <c r="E593" s="49">
         <v>10</v>
       </c>
-      <c r="F593" s="50" t="s">
+      <c r="F593" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="594" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A594" s="49" t="s">
+      <c r="A594" s="48" t="s">
         <v>988</v>
       </c>
       <c r="B594" s="26" t="s">
@@ -45993,18 +45984,18 @@
       <c r="C594" s="24" t="s">
         <v>995</v>
       </c>
-      <c r="D594" s="50">
+      <c r="D594" s="49">
         <v>10</v>
       </c>
-      <c r="E594" s="50">
+      <c r="E594" s="49">
         <v>3</v>
       </c>
-      <c r="F594" s="50" t="s">
+      <c r="F594" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="595" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A595" s="49" t="s">
+      <c r="A595" s="48" t="s">
         <v>988</v>
       </c>
       <c r="B595" s="26" t="s">
@@ -46013,18 +46004,18 @@
       <c r="C595" s="24" t="s">
         <v>995</v>
       </c>
-      <c r="D595" s="50">
+      <c r="D595" s="49">
         <v>10</v>
       </c>
-      <c r="E595" s="50">
+      <c r="E595" s="49">
         <v>1</v>
       </c>
-      <c r="F595" s="50" t="s">
+      <c r="F595" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="596" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A596" s="49" t="s">
+      <c r="A596" s="48" t="s">
         <v>988</v>
       </c>
       <c r="B596" s="26" t="s">
@@ -46033,18 +46024,18 @@
       <c r="C596" s="24" t="s">
         <v>998</v>
       </c>
-      <c r="D596" s="50">
+      <c r="D596" s="49">
         <v>25</v>
       </c>
-      <c r="E596" s="50">
+      <c r="E596" s="49">
         <v>2</v>
       </c>
-      <c r="F596" s="50" t="s">
+      <c r="F596" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="597" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A597" s="49" t="s">
+      <c r="A597" s="48" t="s">
         <v>988</v>
       </c>
       <c r="B597" s="26" t="s">
@@ -46053,18 +46044,18 @@
       <c r="C597" s="24" t="s">
         <v>998</v>
       </c>
-      <c r="D597" s="50">
+      <c r="D597" s="49">
         <v>6</v>
       </c>
-      <c r="E597" s="50">
+      <c r="E597" s="49">
         <v>0</v>
       </c>
-      <c r="F597" s="50" t="s">
+      <c r="F597" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="598" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A598" s="49" t="s">
+      <c r="A598" s="48" t="s">
         <v>988</v>
       </c>
       <c r="B598" s="26" t="s">
@@ -46073,18 +46064,18 @@
       <c r="C598" s="24" t="s">
         <v>998</v>
       </c>
-      <c r="D598" s="50">
+      <c r="D598" s="49">
         <v>5</v>
       </c>
-      <c r="E598" s="50">
+      <c r="E598" s="49">
         <v>0</v>
       </c>
-      <c r="F598" s="50" t="s">
+      <c r="F598" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="599" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A599" s="49" t="s">
+      <c r="A599" s="48" t="s">
         <v>988</v>
       </c>
       <c r="B599" s="26" t="s">
@@ -46093,18 +46084,18 @@
       <c r="C599" s="24" t="s">
         <v>1001</v>
       </c>
-      <c r="D599" s="50">
+      <c r="D599" s="49">
         <v>6</v>
       </c>
-      <c r="E599" s="50">
+      <c r="E599" s="49">
         <v>2</v>
       </c>
-      <c r="F599" s="50" t="s">
+      <c r="F599" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="600" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A600" s="49" t="s">
+      <c r="A600" s="48" t="s">
         <v>988</v>
       </c>
       <c r="B600" s="26" t="s">
@@ -46113,18 +46104,18 @@
       <c r="C600" s="24" t="s">
         <v>1004</v>
       </c>
-      <c r="D600" s="50">
+      <c r="D600" s="49">
         <v>5</v>
       </c>
-      <c r="E600" s="50">
+      <c r="E600" s="49">
         <v>2</v>
       </c>
-      <c r="F600" s="50" t="s">
+      <c r="F600" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="601" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A601" s="49" t="s">
+      <c r="A601" s="48" t="s">
         <v>1014</v>
       </c>
       <c r="B601" s="26" t="s">
@@ -46133,18 +46124,18 @@
       <c r="C601" s="24" t="s">
         <v>1034</v>
       </c>
-      <c r="D601" s="50">
+      <c r="D601" s="49">
         <v>6</v>
       </c>
-      <c r="E601" s="50">
+      <c r="E601" s="49">
         <v>0</v>
       </c>
-      <c r="F601" s="50" t="s">
+      <c r="F601" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="602" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A602" s="49" t="s">
+      <c r="A602" s="48" t="s">
         <v>1014</v>
       </c>
       <c r="B602" s="26" t="s">
@@ -46153,18 +46144,18 @@
       <c r="C602" s="24" t="s">
         <v>1034</v>
       </c>
-      <c r="D602" s="50">
+      <c r="D602" s="49">
         <v>11</v>
       </c>
-      <c r="E602" s="50">
+      <c r="E602" s="49">
         <v>0</v>
       </c>
-      <c r="F602" s="50" t="s">
+      <c r="F602" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="603" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A603" s="49" t="s">
+      <c r="A603" s="48" t="s">
         <v>1014</v>
       </c>
       <c r="B603" s="26" t="s">
@@ -46173,18 +46164,18 @@
       <c r="C603" s="24" t="s">
         <v>1034</v>
       </c>
-      <c r="D603" s="50">
+      <c r="D603" s="49">
         <v>13</v>
       </c>
-      <c r="E603" s="50">
+      <c r="E603" s="49">
         <v>2</v>
       </c>
-      <c r="F603" s="50" t="s">
+      <c r="F603" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="604" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A604" s="49" t="s">
+      <c r="A604" s="48" t="s">
         <v>1014</v>
       </c>
       <c r="B604" s="26" t="s">
@@ -46193,18 +46184,18 @@
       <c r="C604" s="24" t="s">
         <v>1034</v>
       </c>
-      <c r="D604" s="50">
+      <c r="D604" s="49">
         <v>2</v>
       </c>
-      <c r="E604" s="50">
+      <c r="E604" s="49">
         <v>0</v>
       </c>
-      <c r="F604" s="50" t="s">
+      <c r="F604" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="605" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A605" s="49" t="s">
+      <c r="A605" s="48" t="s">
         <v>1014</v>
       </c>
       <c r="B605" s="26" t="s">
@@ -46213,18 +46204,18 @@
       <c r="C605" s="24" t="s">
         <v>1034</v>
       </c>
-      <c r="D605" s="50">
+      <c r="D605" s="49">
         <v>19</v>
       </c>
-      <c r="E605" s="50">
+      <c r="E605" s="49">
         <v>2</v>
       </c>
-      <c r="F605" s="50" t="s">
+      <c r="F605" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="606" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A606" s="49" t="s">
+      <c r="A606" s="48" t="s">
         <v>1014</v>
       </c>
       <c r="B606" s="26" t="s">
@@ -46233,18 +46224,18 @@
       <c r="C606" s="24" t="s">
         <v>1034</v>
       </c>
-      <c r="D606" s="50">
+      <c r="D606" s="49">
         <v>10</v>
       </c>
-      <c r="E606" s="50">
+      <c r="E606" s="49">
         <v>3</v>
       </c>
-      <c r="F606" s="50" t="s">
+      <c r="F606" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="607" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A607" s="49" t="s">
+      <c r="A607" s="48" t="s">
         <v>1014</v>
       </c>
       <c r="B607" s="26" t="s">
@@ -46253,18 +46244,18 @@
       <c r="C607" s="24" t="s">
         <v>1034</v>
       </c>
-      <c r="D607" s="50">
+      <c r="D607" s="49">
         <v>7</v>
       </c>
-      <c r="E607" s="50">
+      <c r="E607" s="49">
         <v>2</v>
       </c>
-      <c r="F607" s="50" t="s">
+      <c r="F607" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="608" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A608" s="49" t="s">
+      <c r="A608" s="48" t="s">
         <v>1014</v>
       </c>
       <c r="B608" s="26" t="s">
@@ -46273,18 +46264,18 @@
       <c r="C608" s="24" t="s">
         <v>1034</v>
       </c>
-      <c r="D608" s="50">
+      <c r="D608" s="49">
         <v>6</v>
       </c>
-      <c r="E608" s="50">
+      <c r="E608" s="49">
         <v>0</v>
       </c>
-      <c r="F608" s="50" t="s">
+      <c r="F608" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="609" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A609" s="49" t="s">
+      <c r="A609" s="48" t="s">
         <v>1014</v>
       </c>
       <c r="B609" s="26" t="s">
@@ -46293,18 +46284,18 @@
       <c r="C609" s="24" t="s">
         <v>1034</v>
       </c>
-      <c r="D609" s="50">
+      <c r="D609" s="49">
         <v>10</v>
       </c>
-      <c r="E609" s="50">
+      <c r="E609" s="49">
         <v>0</v>
       </c>
-      <c r="F609" s="50" t="s">
+      <c r="F609" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="610" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A610" s="49" t="s">
+      <c r="A610" s="48" t="s">
         <v>1014</v>
       </c>
       <c r="B610" s="26" t="s">
@@ -46313,18 +46304,18 @@
       <c r="C610" s="24" t="s">
         <v>1034</v>
       </c>
-      <c r="D610" s="50">
+      <c r="D610" s="49">
         <v>6</v>
       </c>
-      <c r="E610" s="50">
+      <c r="E610" s="49">
         <v>0</v>
       </c>
-      <c r="F610" s="50" t="s">
+      <c r="F610" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="611" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A611" s="49" t="s">
+      <c r="A611" s="48" t="s">
         <v>1014</v>
       </c>
       <c r="B611" s="26" t="s">
@@ -46333,18 +46324,18 @@
       <c r="C611" s="24" t="s">
         <v>1034</v>
       </c>
-      <c r="D611" s="50">
+      <c r="D611" s="49">
         <v>7</v>
       </c>
-      <c r="E611" s="50">
+      <c r="E611" s="49">
         <v>1</v>
       </c>
-      <c r="F611" s="50" t="s">
+      <c r="F611" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="612" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A612" s="49" t="s">
+      <c r="A612" s="48" t="s">
         <v>1014</v>
       </c>
       <c r="B612" s="26" t="s">
@@ -46353,18 +46344,18 @@
       <c r="C612" s="24" t="s">
         <v>1034</v>
       </c>
-      <c r="D612" s="50">
+      <c r="D612" s="49">
         <v>5</v>
       </c>
-      <c r="E612" s="50">
+      <c r="E612" s="49">
         <v>0</v>
       </c>
-      <c r="F612" s="50" t="s">
+      <c r="F612" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="613" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A613" s="49" t="s">
+      <c r="A613" s="48" t="s">
         <v>1014</v>
       </c>
       <c r="B613" s="26" t="s">
@@ -46373,18 +46364,18 @@
       <c r="C613" s="24" t="s">
         <v>1034</v>
       </c>
-      <c r="D613" s="50">
+      <c r="D613" s="49">
         <v>12</v>
       </c>
-      <c r="E613" s="50">
+      <c r="E613" s="49">
         <v>2</v>
       </c>
-      <c r="F613" s="50" t="s">
+      <c r="F613" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="614" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A614" s="49" t="s">
+      <c r="A614" s="48" t="s">
         <v>1014</v>
       </c>
       <c r="B614" s="26" t="s">
@@ -46393,18 +46384,18 @@
       <c r="C614" s="24" t="s">
         <v>1034</v>
       </c>
-      <c r="D614" s="50">
+      <c r="D614" s="49">
         <v>26</v>
       </c>
-      <c r="E614" s="50">
+      <c r="E614" s="49">
         <v>6</v>
       </c>
-      <c r="F614" s="50" t="s">
+      <c r="F614" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="615" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A615" s="49" t="s">
+      <c r="A615" s="48" t="s">
         <v>1014</v>
       </c>
       <c r="B615" s="26" t="s">
@@ -46413,18 +46404,18 @@
       <c r="C615" s="24" t="s">
         <v>1034</v>
       </c>
-      <c r="D615" s="50">
+      <c r="D615" s="49">
         <v>5</v>
       </c>
-      <c r="E615" s="50">
+      <c r="E615" s="49">
         <v>2</v>
       </c>
-      <c r="F615" s="50" t="s">
+      <c r="F615" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="616" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A616" s="49" t="s">
+      <c r="A616" s="48" t="s">
         <v>1014</v>
       </c>
       <c r="B616" s="26" t="s">
@@ -46433,18 +46424,18 @@
       <c r="C616" s="24" t="s">
         <v>1034</v>
       </c>
-      <c r="D616" s="50">
+      <c r="D616" s="49">
         <v>3</v>
       </c>
-      <c r="E616" s="50">
+      <c r="E616" s="49">
         <v>0</v>
       </c>
-      <c r="F616" s="50" t="s">
+      <c r="F616" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="617" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A617" s="49" t="s">
+      <c r="A617" s="48" t="s">
         <v>1014</v>
       </c>
       <c r="B617" s="26" t="s">
@@ -46453,18 +46444,18 @@
       <c r="C617" s="24" t="s">
         <v>1034</v>
       </c>
-      <c r="D617" s="50">
+      <c r="D617" s="49">
         <v>17</v>
       </c>
-      <c r="E617" s="50">
+      <c r="E617" s="49">
         <v>0</v>
       </c>
-      <c r="F617" s="50" t="s">
+      <c r="F617" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="618" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A618" s="49" t="s">
+      <c r="A618" s="48" t="s">
         <v>1014</v>
       </c>
       <c r="B618" s="26" t="s">
@@ -46473,18 +46464,18 @@
       <c r="C618" s="24" t="s">
         <v>1034</v>
       </c>
-      <c r="D618" s="50">
+      <c r="D618" s="49">
         <v>20</v>
       </c>
-      <c r="E618" s="50">
+      <c r="E618" s="49">
         <v>0</v>
       </c>
-      <c r="F618" s="50" t="s">
+      <c r="F618" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="619" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A619" s="49" t="s">
+      <c r="A619" s="48" t="s">
         <v>1014</v>
       </c>
       <c r="B619" s="26" t="s">
@@ -46493,18 +46484,18 @@
       <c r="C619" s="24" t="s">
         <v>1034</v>
       </c>
-      <c r="D619" s="50">
+      <c r="D619" s="49">
         <v>50</v>
       </c>
-      <c r="E619" s="50">
+      <c r="E619" s="49">
         <v>2</v>
       </c>
-      <c r="F619" s="50" t="s">
+      <c r="F619" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="620" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A620" s="49" t="s">
+      <c r="A620" s="48" t="s">
         <v>1014</v>
       </c>
       <c r="B620" s="26" t="s">
@@ -46513,18 +46504,18 @@
       <c r="C620" s="24" t="s">
         <v>1034</v>
       </c>
-      <c r="D620" s="50">
+      <c r="D620" s="49">
         <v>17</v>
       </c>
-      <c r="E620" s="50">
+      <c r="E620" s="49">
         <v>0</v>
       </c>
-      <c r="F620" s="50" t="s">
+      <c r="F620" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="621" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A621" s="49" t="s">
+      <c r="A621" s="48" t="s">
         <v>1035</v>
       </c>
       <c r="B621" s="26" t="s">
@@ -46533,18 +46524,18 @@
       <c r="C621" s="24" t="s">
         <v>1153</v>
       </c>
-      <c r="D621" s="50">
+      <c r="D621" s="49">
         <v>6969</v>
       </c>
-      <c r="E621" s="50">
+      <c r="E621" s="49">
         <v>232</v>
       </c>
-      <c r="F621" s="50" t="s">
+      <c r="F621" s="49" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="622" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A622" s="49" t="s">
+      <c r="A622" s="48" t="s">
         <v>1035</v>
       </c>
       <c r="B622" s="26" t="s">
@@ -46553,18 +46544,18 @@
       <c r="C622" s="24" t="s">
         <v>1154</v>
       </c>
-      <c r="D622" s="50">
+      <c r="D622" s="49">
         <v>7896</v>
       </c>
-      <c r="E622" s="50">
+      <c r="E622" s="49">
         <v>289</v>
       </c>
-      <c r="F622" s="50" t="s">
+      <c r="F622" s="49" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="623" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A623" s="49" t="s">
+      <c r="A623" s="48" t="s">
         <v>1035</v>
       </c>
       <c r="B623" s="26" t="s">
@@ -46573,18 +46564,18 @@
       <c r="C623" s="24" t="s">
         <v>1155</v>
       </c>
-      <c r="D623" s="50">
+      <c r="D623" s="49">
         <v>10141</v>
       </c>
-      <c r="E623" s="50">
+      <c r="E623" s="49">
         <v>375</v>
       </c>
-      <c r="F623" s="50" t="s">
+      <c r="F623" s="49" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="624" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A624" s="49" t="s">
+      <c r="A624" s="48" t="s">
         <v>1035</v>
       </c>
       <c r="B624" s="31" t="s">
@@ -46593,18 +46584,18 @@
       <c r="C624" s="24" t="s">
         <v>1156</v>
       </c>
-      <c r="D624" s="50">
+      <c r="D624" s="49">
         <v>11287</v>
       </c>
-      <c r="E624" s="50">
+      <c r="E624" s="49">
         <v>212</v>
       </c>
-      <c r="F624" s="50" t="s">
+      <c r="F624" s="49" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="625" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A625" s="49" t="s">
+      <c r="A625" s="48" t="s">
         <v>1035</v>
       </c>
       <c r="B625" s="26" t="s">
@@ -46613,18 +46604,18 @@
       <c r="C625" s="24" t="s">
         <v>1041</v>
       </c>
-      <c r="D625" s="50">
+      <c r="D625" s="49">
         <v>20087</v>
       </c>
-      <c r="E625" s="50">
+      <c r="E625" s="49">
         <v>280</v>
       </c>
-      <c r="F625" s="50" t="s">
+      <c r="F625" s="49" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="626" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A626" s="49" t="s">
+      <c r="A626" s="48" t="s">
         <v>1035</v>
       </c>
       <c r="B626" s="26" t="s">
@@ -46633,18 +46624,18 @@
       <c r="C626" s="24" t="s">
         <v>1157</v>
       </c>
-      <c r="D626" s="50">
+      <c r="D626" s="49">
         <v>18026</v>
       </c>
-      <c r="E626" s="50">
+      <c r="E626" s="49">
         <v>467</v>
       </c>
-      <c r="F626" s="50" t="s">
+      <c r="F626" s="49" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="627" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A627" s="49" t="s">
+      <c r="A627" s="48" t="s">
         <v>1035</v>
       </c>
       <c r="B627" s="26" t="s">
@@ -46653,18 +46644,18 @@
       <c r="C627" s="24" t="s">
         <v>1158</v>
       </c>
-      <c r="D627" s="50">
+      <c r="D627" s="49">
         <v>13563</v>
       </c>
-      <c r="E627" s="50">
+      <c r="E627" s="49">
         <v>219</v>
       </c>
-      <c r="F627" s="50" t="s">
+      <c r="F627" s="49" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="628" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A628" s="49" t="s">
+      <c r="A628" s="48" t="s">
         <v>1035</v>
       </c>
       <c r="B628" s="26" t="s">
@@ -46673,18 +46664,18 @@
       <c r="C628" s="26" t="s">
         <v>1159</v>
       </c>
-      <c r="D628" s="50">
+      <c r="D628" s="49">
         <v>7444</v>
       </c>
-      <c r="E628" s="50">
+      <c r="E628" s="49">
         <v>160</v>
       </c>
-      <c r="F628" s="50" t="s">
+      <c r="F628" s="49" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="629" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A629" s="49" t="s">
+      <c r="A629" s="48" t="s">
         <v>1035</v>
       </c>
       <c r="B629" s="26" t="s">
@@ -46693,18 +46684,18 @@
       <c r="C629" s="24" t="s">
         <v>1161</v>
       </c>
-      <c r="D629" s="50">
+      <c r="D629" s="49">
         <v>16241</v>
       </c>
-      <c r="E629" s="50">
+      <c r="E629" s="49">
         <v>547</v>
       </c>
-      <c r="F629" s="50" t="s">
+      <c r="F629" s="49" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="630" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A630" s="49" t="s">
+      <c r="A630" s="48" t="s">
         <v>1035</v>
       </c>
       <c r="B630" s="26" t="s">
@@ -46713,13 +46704,13 @@
       <c r="C630" s="24" t="s">
         <v>1046</v>
       </c>
-      <c r="D630" s="50">
+      <c r="D630" s="49">
         <v>11580</v>
       </c>
-      <c r="E630" s="50">
+      <c r="E630" s="49">
         <v>411</v>
       </c>
-      <c r="F630" s="50" t="s">
+      <c r="F630" s="49" t="s">
         <v>377</v>
       </c>
     </row>
@@ -47084,7 +47075,9 @@
       </c>
     </row>
     <row r="649" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A649" s="35"/>
+      <c r="A649" s="33" t="s">
+        <v>1067</v>
+      </c>
       <c r="B649" s="32" t="s">
         <v>1066</v>
       </c>
@@ -48702,7 +48695,7 @@
       </c>
     </row>
     <row r="731" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A731" s="37" t="s">
+      <c r="A731" s="36" t="s">
         <v>1210</v>
       </c>
       <c r="B731" s="26" t="s">
@@ -48711,10 +48704,10 @@
       <c r="C731" s="24" t="s">
         <v>1280</v>
       </c>
-      <c r="D731" s="37">
+      <c r="D731" s="36">
         <v>30</v>
       </c>
-      <c r="E731" s="37">
+      <c r="E731" s="36">
         <v>1</v>
       </c>
       <c r="F731" s="33" t="s">
@@ -48722,7 +48715,7 @@
       </c>
     </row>
     <row r="732" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A732" s="37" t="s">
+      <c r="A732" s="36" t="s">
         <v>1210</v>
       </c>
       <c r="B732" s="26" t="s">
@@ -48731,10 +48724,10 @@
       <c r="C732" s="24" t="s">
         <v>1280</v>
       </c>
-      <c r="D732" s="37">
+      <c r="D732" s="36">
         <v>68</v>
       </c>
-      <c r="E732" s="37">
+      <c r="E732" s="36">
         <v>1</v>
       </c>
       <c r="F732" s="33" t="s">
@@ -48742,7 +48735,7 @@
       </c>
     </row>
     <row r="733" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A733" s="37" t="s">
+      <c r="A733" s="36" t="s">
         <v>1210</v>
       </c>
       <c r="B733" s="26" t="s">
@@ -48751,10 +48744,10 @@
       <c r="C733" s="24" t="s">
         <v>1280</v>
       </c>
-      <c r="D733" s="37">
+      <c r="D733" s="36">
         <v>337</v>
       </c>
-      <c r="E733" s="37">
+      <c r="E733" s="36">
         <v>1</v>
       </c>
       <c r="F733" s="33" t="s">
@@ -48762,7 +48755,7 @@
       </c>
     </row>
     <row r="734" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A734" s="37" t="s">
+      <c r="A734" s="36" t="s">
         <v>1210</v>
       </c>
       <c r="B734" s="26" t="s">
@@ -48771,10 +48764,10 @@
       <c r="C734" s="24" t="s">
         <v>1280</v>
       </c>
-      <c r="D734" s="37">
+      <c r="D734" s="36">
         <v>35</v>
       </c>
-      <c r="E734" s="37">
+      <c r="E734" s="36">
         <v>2</v>
       </c>
       <c r="F734" s="33" t="s">
@@ -48782,7 +48775,7 @@
       </c>
     </row>
     <row r="735" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A735" s="37" t="s">
+      <c r="A735" s="36" t="s">
         <v>1210</v>
       </c>
       <c r="B735" s="26" t="s">
@@ -48791,10 +48784,10 @@
       <c r="C735" s="24" t="s">
         <v>1280</v>
       </c>
-      <c r="D735" s="37">
+      <c r="D735" s="36">
         <v>58</v>
       </c>
-      <c r="E735" s="37">
+      <c r="E735" s="36">
         <v>1</v>
       </c>
       <c r="F735" s="33" t="s">
@@ -48802,7 +48795,7 @@
       </c>
     </row>
     <row r="736" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A736" s="37" t="s">
+      <c r="A736" s="36" t="s">
         <v>1210</v>
       </c>
       <c r="B736" s="26" t="s">
@@ -48811,10 +48804,10 @@
       <c r="C736" s="24" t="s">
         <v>1280</v>
       </c>
-      <c r="D736" s="37">
+      <c r="D736" s="36">
         <v>32</v>
       </c>
-      <c r="E736" s="37">
+      <c r="E736" s="36">
         <v>2</v>
       </c>
       <c r="F736" s="33" t="s">
@@ -48822,7 +48815,7 @@
       </c>
     </row>
     <row r="737" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A737" s="37" t="s">
+      <c r="A737" s="36" t="s">
         <v>1210</v>
       </c>
       <c r="B737" s="26" t="s">
@@ -48831,10 +48824,10 @@
       <c r="C737" s="24" t="s">
         <v>1280</v>
       </c>
-      <c r="D737" s="37">
+      <c r="D737" s="36">
         <v>106</v>
       </c>
-      <c r="E737" s="37">
+      <c r="E737" s="36">
         <v>0</v>
       </c>
       <c r="F737" s="33" t="s">
@@ -48842,7 +48835,7 @@
       </c>
     </row>
     <row r="738" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A738" s="37" t="s">
+      <c r="A738" s="36" t="s">
         <v>1210</v>
       </c>
       <c r="B738" s="26" t="s">
@@ -48851,10 +48844,10 @@
       <c r="C738" s="24" t="s">
         <v>1280</v>
       </c>
-      <c r="D738" s="37">
+      <c r="D738" s="36">
         <v>25</v>
       </c>
-      <c r="E738" s="37">
+      <c r="E738" s="36">
         <v>3</v>
       </c>
       <c r="F738" s="33" t="s">
@@ -48862,7 +48855,7 @@
       </c>
     </row>
     <row r="739" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A739" s="37" t="s">
+      <c r="A739" s="36" t="s">
         <v>1210</v>
       </c>
       <c r="B739" s="26" t="s">
@@ -48871,10 +48864,10 @@
       <c r="C739" s="24" t="s">
         <v>1280</v>
       </c>
-      <c r="D739" s="37">
+      <c r="D739" s="36">
         <v>42</v>
       </c>
-      <c r="E739" s="37">
+      <c r="E739" s="36">
         <v>3</v>
       </c>
       <c r="F739" s="33" t="s">
@@ -48882,7 +48875,7 @@
       </c>
     </row>
     <row r="740" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A740" s="37" t="s">
+      <c r="A740" s="36" t="s">
         <v>1210</v>
       </c>
       <c r="B740" s="26" t="s">
@@ -48891,10 +48884,10 @@
       <c r="C740" s="24" t="s">
         <v>1281</v>
       </c>
-      <c r="D740" s="37">
+      <c r="D740" s="36">
         <v>394</v>
       </c>
-      <c r="E740" s="37">
+      <c r="E740" s="36">
         <v>4</v>
       </c>
       <c r="F740" s="33" t="s">
@@ -48902,7 +48895,7 @@
       </c>
     </row>
     <row r="741" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A741" s="37" t="s">
+      <c r="A741" s="36" t="s">
         <v>1220</v>
       </c>
       <c r="B741" s="26" t="s">
@@ -48911,18 +48904,18 @@
       <c r="C741" s="24" t="s">
         <v>1282</v>
       </c>
-      <c r="D741" s="37">
+      <c r="D741" s="36">
         <v>377</v>
       </c>
-      <c r="E741" s="37">
+      <c r="E741" s="36">
         <v>2</v>
       </c>
-      <c r="F741" s="37" t="s">
+      <c r="F741" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="742" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A742" s="37" t="s">
+      <c r="A742" s="36" t="s">
         <v>1220</v>
       </c>
       <c r="B742" s="26" t="s">
@@ -48931,18 +48924,18 @@
       <c r="C742" s="24" t="s">
         <v>1283</v>
       </c>
-      <c r="D742" s="37">
+      <c r="D742" s="36">
         <v>667</v>
       </c>
-      <c r="E742" s="37">
+      <c r="E742" s="36">
         <v>0</v>
       </c>
-      <c r="F742" s="37" t="s">
+      <c r="F742" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="743" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A743" s="37" t="s">
+      <c r="A743" s="36" t="s">
         <v>1220</v>
       </c>
       <c r="B743" s="26" t="s">
@@ -48951,18 +48944,18 @@
       <c r="C743" s="24" t="s">
         <v>1282</v>
       </c>
-      <c r="D743" s="37">
+      <c r="D743" s="36">
         <v>360</v>
       </c>
-      <c r="E743" s="37">
+      <c r="E743" s="36">
         <v>3</v>
       </c>
-      <c r="F743" s="37" t="s">
+      <c r="F743" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="744" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A744" s="37" t="s">
+      <c r="A744" s="36" t="s">
         <v>1220</v>
       </c>
       <c r="B744" s="26" t="s">
@@ -48971,18 +48964,18 @@
       <c r="C744" s="24" t="s">
         <v>1282</v>
       </c>
-      <c r="D744" s="37">
+      <c r="D744" s="36">
         <v>342</v>
       </c>
-      <c r="E744" s="37">
+      <c r="E744" s="36">
         <v>7</v>
       </c>
-      <c r="F744" s="37" t="s">
+      <c r="F744" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="745" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A745" s="37" t="s">
+      <c r="A745" s="36" t="s">
         <v>1220</v>
       </c>
       <c r="B745" s="26" t="s">
@@ -48991,18 +48984,18 @@
       <c r="C745" s="24" t="s">
         <v>1282</v>
       </c>
-      <c r="D745" s="37">
+      <c r="D745" s="36">
         <v>419</v>
       </c>
-      <c r="E745" s="37">
+      <c r="E745" s="36">
         <v>7</v>
       </c>
-      <c r="F745" s="37" t="s">
+      <c r="F745" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="746" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A746" s="37" t="s">
+      <c r="A746" s="36" t="s">
         <v>1220</v>
       </c>
       <c r="B746" s="26" t="s">
@@ -49011,18 +49004,18 @@
       <c r="C746" s="24" t="s">
         <v>1282</v>
       </c>
-      <c r="D746" s="37">
+      <c r="D746" s="36">
         <v>1077</v>
       </c>
-      <c r="E746" s="37">
+      <c r="E746" s="36">
         <v>3</v>
       </c>
-      <c r="F746" s="37" t="s">
+      <c r="F746" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="747" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A747" s="37" t="s">
+      <c r="A747" s="36" t="s">
         <v>1220</v>
       </c>
       <c r="B747" s="26" t="s">
@@ -49031,18 +49024,18 @@
       <c r="C747" s="24" t="s">
         <v>1282</v>
       </c>
-      <c r="D747" s="37">
+      <c r="D747" s="36">
         <v>1318</v>
       </c>
-      <c r="E747" s="37">
+      <c r="E747" s="36">
         <v>15</v>
       </c>
-      <c r="F747" s="37" t="s">
+      <c r="F747" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="748" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A748" s="37" t="s">
+      <c r="A748" s="36" t="s">
         <v>1220</v>
       </c>
       <c r="B748" s="26" t="s">
@@ -49051,18 +49044,18 @@
       <c r="C748" s="24" t="s">
         <v>1284</v>
       </c>
-      <c r="D748" s="37">
+      <c r="D748" s="36">
         <v>223</v>
       </c>
-      <c r="E748" s="37">
+      <c r="E748" s="36">
         <v>2</v>
       </c>
-      <c r="F748" s="37" t="s">
+      <c r="F748" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="749" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A749" s="37" t="s">
+      <c r="A749" s="36" t="s">
         <v>1220</v>
       </c>
       <c r="B749" s="26" t="s">
@@ -49071,18 +49064,18 @@
       <c r="C749" s="24" t="s">
         <v>1285</v>
       </c>
-      <c r="D749" s="37">
+      <c r="D749" s="36">
         <v>164</v>
       </c>
-      <c r="E749" s="37">
+      <c r="E749" s="36">
         <v>1</v>
       </c>
-      <c r="F749" s="37" t="s">
+      <c r="F749" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="750" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A750" s="37" t="s">
+      <c r="A750" s="36" t="s">
         <v>1220</v>
       </c>
       <c r="B750" s="26" t="s">
@@ -49091,18 +49084,18 @@
       <c r="C750" s="24" t="s">
         <v>1286</v>
       </c>
-      <c r="D750" s="37">
+      <c r="D750" s="36">
         <v>489</v>
       </c>
-      <c r="E750" s="37">
+      <c r="E750" s="36">
         <v>23</v>
       </c>
-      <c r="F750" s="37" t="s">
+      <c r="F750" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="751" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A751" s="37" t="s">
+      <c r="A751" s="36" t="s">
         <v>1220</v>
       </c>
       <c r="B751" s="26" t="s">
@@ -49111,18 +49104,18 @@
       <c r="C751" s="24" t="s">
         <v>1287</v>
       </c>
-      <c r="D751" s="37">
+      <c r="D751" s="36">
         <v>649</v>
       </c>
-      <c r="E751" s="37">
+      <c r="E751" s="36">
         <v>11</v>
       </c>
-      <c r="F751" s="37" t="s">
+      <c r="F751" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="752" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A752" s="37" t="s">
+      <c r="A752" s="36" t="s">
         <v>1220</v>
       </c>
       <c r="B752" s="26" t="s">
@@ -49131,18 +49124,18 @@
       <c r="C752" s="24" t="s">
         <v>1288</v>
       </c>
-      <c r="D752" s="37">
+      <c r="D752" s="36">
         <v>2256</v>
       </c>
-      <c r="E752" s="37">
+      <c r="E752" s="36">
         <v>16</v>
       </c>
-      <c r="F752" s="37" t="s">
+      <c r="F752" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="753" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A753" s="37" t="s">
+      <c r="A753" s="36" t="s">
         <v>1220</v>
       </c>
       <c r="B753" s="26" t="s">
@@ -49151,18 +49144,18 @@
       <c r="C753" s="26" t="s">
         <v>1289</v>
       </c>
-      <c r="D753" s="37">
+      <c r="D753" s="36">
         <v>1435</v>
       </c>
-      <c r="E753" s="37">
+      <c r="E753" s="36">
         <v>18</v>
       </c>
-      <c r="F753" s="37" t="s">
+      <c r="F753" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="754" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A754" s="37" t="s">
+      <c r="A754" s="36" t="s">
         <v>1220</v>
       </c>
       <c r="B754" s="26" t="s">
@@ -49171,18 +49164,18 @@
       <c r="C754" s="24" t="s">
         <v>1290</v>
       </c>
-      <c r="D754" s="37">
+      <c r="D754" s="36">
         <v>1886</v>
       </c>
-      <c r="E754" s="37">
+      <c r="E754" s="36">
         <v>8</v>
       </c>
-      <c r="F754" s="37" t="s">
+      <c r="F754" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="755" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A755" s="37" t="s">
+      <c r="A755" s="36" t="s">
         <v>1220</v>
       </c>
       <c r="B755" s="26" t="s">
@@ -49191,18 +49184,18 @@
       <c r="C755" s="24" t="s">
         <v>1291</v>
       </c>
-      <c r="D755" s="37">
+      <c r="D755" s="36">
         <v>746</v>
       </c>
-      <c r="E755" s="37">
+      <c r="E755" s="36">
         <v>10</v>
       </c>
-      <c r="F755" s="37" t="s">
+      <c r="F755" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="756" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A756" s="37" t="s">
+      <c r="A756" s="36" t="s">
         <v>1220</v>
       </c>
       <c r="B756" s="26" t="s">
@@ -49211,18 +49204,18 @@
       <c r="C756" s="24" t="s">
         <v>1292</v>
       </c>
-      <c r="D756" s="37">
+      <c r="D756" s="36">
         <v>1987</v>
       </c>
-      <c r="E756" s="37">
+      <c r="E756" s="36">
         <v>4</v>
       </c>
-      <c r="F756" s="37" t="s">
+      <c r="F756" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="757" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A757" s="37" t="s">
+      <c r="A757" s="36" t="s">
         <v>1220</v>
       </c>
       <c r="B757" s="26" t="s">
@@ -49231,18 +49224,18 @@
       <c r="C757" s="24" t="s">
         <v>1293</v>
       </c>
-      <c r="D757" s="37">
+      <c r="D757" s="36">
         <v>540</v>
       </c>
-      <c r="E757" s="37">
+      <c r="E757" s="36">
         <v>4</v>
       </c>
-      <c r="F757" s="37" t="s">
+      <c r="F757" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="758" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A758" s="37" t="s">
+      <c r="A758" s="36" t="s">
         <v>1220</v>
       </c>
       <c r="B758" s="26" t="s">
@@ -49251,18 +49244,18 @@
       <c r="C758" s="24" t="s">
         <v>1293</v>
       </c>
-      <c r="D758" s="37">
+      <c r="D758" s="36">
         <v>1074</v>
       </c>
-      <c r="E758" s="37">
+      <c r="E758" s="36">
         <v>4</v>
       </c>
-      <c r="F758" s="37" t="s">
+      <c r="F758" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="759" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A759" s="37" t="s">
+      <c r="A759" s="36" t="s">
         <v>1220</v>
       </c>
       <c r="B759" s="26" t="s">
@@ -49271,18 +49264,18 @@
       <c r="C759" s="24" t="s">
         <v>1283</v>
       </c>
-      <c r="D759" s="37">
+      <c r="D759" s="36">
         <v>1470</v>
       </c>
-      <c r="E759" s="37">
+      <c r="E759" s="36">
         <v>7</v>
       </c>
-      <c r="F759" s="37" t="s">
+      <c r="F759" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="760" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A760" s="37" t="s">
+      <c r="A760" s="36" t="s">
         <v>1220</v>
       </c>
       <c r="B760" s="26" t="s">
@@ -49291,18 +49284,18 @@
       <c r="C760" s="24" t="s">
         <v>1283</v>
       </c>
-      <c r="D760" s="37">
+      <c r="D760" s="36">
         <v>2467</v>
       </c>
-      <c r="E760" s="37">
+      <c r="E760" s="36">
         <v>7</v>
       </c>
-      <c r="F760" s="37" t="s">
+      <c r="F760" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="761" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A761" s="37" t="s">
+      <c r="A761" s="36" t="s">
         <v>1239</v>
       </c>
       <c r="B761" s="26" t="s">
@@ -49311,18 +49304,18 @@
       <c r="C761" s="24" t="s">
         <v>1294</v>
       </c>
-      <c r="D761" s="37">
+      <c r="D761" s="36">
         <v>1510</v>
       </c>
-      <c r="E761" s="37">
+      <c r="E761" s="36">
         <v>71</v>
       </c>
-      <c r="F761" s="37" t="s">
+      <c r="F761" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="762" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A762" s="37" t="s">
+      <c r="A762" s="36" t="s">
         <v>1239</v>
       </c>
       <c r="B762" s="26" t="s">
@@ -49331,18 +49324,18 @@
       <c r="C762" s="24" t="s">
         <v>1294</v>
       </c>
-      <c r="D762" s="37">
+      <c r="D762" s="36">
         <v>422</v>
       </c>
-      <c r="E762" s="37">
+      <c r="E762" s="36">
         <v>19</v>
       </c>
-      <c r="F762" s="37" t="s">
+      <c r="F762" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="763" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A763" s="37" t="s">
+      <c r="A763" s="36" t="s">
         <v>1239</v>
       </c>
       <c r="B763" s="26" t="s">
@@ -49351,18 +49344,18 @@
       <c r="C763" s="24" t="s">
         <v>1294</v>
       </c>
-      <c r="D763" s="37">
+      <c r="D763" s="36">
         <v>1807</v>
       </c>
-      <c r="E763" s="37">
+      <c r="E763" s="36">
         <v>120</v>
       </c>
-      <c r="F763" s="37" t="s">
+      <c r="F763" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="764" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A764" s="37" t="s">
+      <c r="A764" s="36" t="s">
         <v>1239</v>
       </c>
       <c r="B764" s="26" t="s">
@@ -49371,18 +49364,18 @@
       <c r="C764" s="24" t="s">
         <v>1294</v>
       </c>
-      <c r="D764" s="37">
+      <c r="D764" s="36">
         <v>2</v>
       </c>
-      <c r="E764" s="37">
+      <c r="E764" s="36">
         <v>0</v>
       </c>
-      <c r="F764" s="37" t="s">
+      <c r="F764" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="765" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A765" s="37" t="s">
+      <c r="A765" s="36" t="s">
         <v>1239</v>
       </c>
       <c r="B765" s="26" t="s">
@@ -49391,18 +49384,18 @@
       <c r="C765" s="24" t="s">
         <v>1295</v>
       </c>
-      <c r="D765" s="37">
+      <c r="D765" s="36">
         <v>1</v>
       </c>
-      <c r="E765" s="37">
+      <c r="E765" s="36">
         <v>0</v>
       </c>
-      <c r="F765" s="37" t="s">
+      <c r="F765" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="766" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A766" s="37" t="s">
+      <c r="A766" s="36" t="s">
         <v>1239</v>
       </c>
       <c r="B766" s="26" t="s">
@@ -49411,18 +49404,18 @@
       <c r="C766" s="24" t="s">
         <v>1294</v>
       </c>
-      <c r="D766" s="37">
+      <c r="D766" s="36">
         <v>1</v>
       </c>
-      <c r="E766" s="37">
+      <c r="E766" s="36">
         <v>0</v>
       </c>
-      <c r="F766" s="37" t="s">
+      <c r="F766" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="767" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A767" s="37" t="s">
+      <c r="A767" s="36" t="s">
         <v>1239</v>
       </c>
       <c r="B767" s="26" t="s">
@@ -49431,18 +49424,18 @@
       <c r="C767" s="24" t="s">
         <v>1294</v>
       </c>
-      <c r="D767" s="37">
+      <c r="D767" s="36">
         <v>3</v>
       </c>
-      <c r="E767" s="37">
+      <c r="E767" s="36">
         <v>2</v>
       </c>
-      <c r="F767" s="37" t="s">
+      <c r="F767" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="768" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A768" s="37" t="s">
+      <c r="A768" s="36" t="s">
         <v>1239</v>
       </c>
       <c r="B768" s="26" t="s">
@@ -49451,18 +49444,18 @@
       <c r="C768" s="24" t="s">
         <v>1294</v>
       </c>
-      <c r="D768" s="37">
+      <c r="D768" s="36">
         <v>1</v>
       </c>
-      <c r="E768" s="37">
+      <c r="E768" s="36">
         <v>0</v>
       </c>
-      <c r="F768" s="37" t="s">
+      <c r="F768" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="769" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A769" s="37" t="s">
+      <c r="A769" s="36" t="s">
         <v>1239</v>
       </c>
       <c r="B769" s="26" t="s">
@@ -49471,18 +49464,18 @@
       <c r="C769" s="24" t="s">
         <v>1294</v>
       </c>
-      <c r="D769" s="37">
+      <c r="D769" s="36">
         <v>3</v>
       </c>
-      <c r="E769" s="37">
+      <c r="E769" s="36">
         <v>1</v>
       </c>
-      <c r="F769" s="37" t="s">
+      <c r="F769" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="770" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A770" s="37" t="s">
+      <c r="A770" s="36" t="s">
         <v>1239</v>
       </c>
       <c r="B770" s="26" t="s">
@@ -49491,18 +49484,18 @@
       <c r="C770" s="24" t="s">
         <v>1294</v>
       </c>
-      <c r="D770" s="37">
+      <c r="D770" s="36">
         <v>3</v>
       </c>
-      <c r="E770" s="37">
+      <c r="E770" s="36">
         <v>0</v>
       </c>
-      <c r="F770" s="37" t="s">
+      <c r="F770" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="771" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A771" s="37" t="s">
+      <c r="A771" s="36" t="s">
         <v>1239</v>
       </c>
       <c r="B771" s="26" t="s">
@@ -49511,18 +49504,18 @@
       <c r="C771" s="24" t="s">
         <v>1294</v>
       </c>
-      <c r="D771" s="37">
+      <c r="D771" s="36">
         <v>4</v>
       </c>
-      <c r="E771" s="37">
+      <c r="E771" s="36">
         <v>0</v>
       </c>
-      <c r="F771" s="37" t="s">
+      <c r="F771" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="772" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A772" s="37" t="s">
+      <c r="A772" s="36" t="s">
         <v>1239</v>
       </c>
       <c r="B772" s="26" t="s">
@@ -49531,18 +49524,18 @@
       <c r="C772" s="24" t="s">
         <v>1294</v>
       </c>
-      <c r="D772" s="37">
+      <c r="D772" s="36">
         <v>14</v>
       </c>
-      <c r="E772" s="37">
+      <c r="E772" s="36">
         <v>0</v>
       </c>
-      <c r="F772" s="37" t="s">
+      <c r="F772" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="773" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A773" s="37" t="s">
+      <c r="A773" s="36" t="s">
         <v>1239</v>
       </c>
       <c r="B773" s="26" t="s">
@@ -49551,18 +49544,18 @@
       <c r="C773" s="24" t="s">
         <v>1294</v>
       </c>
-      <c r="D773" s="37">
+      <c r="D773" s="36">
         <v>3</v>
       </c>
-      <c r="E773" s="37">
+      <c r="E773" s="36">
         <v>0</v>
       </c>
-      <c r="F773" s="37" t="s">
+      <c r="F773" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="774" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A774" s="37" t="s">
+      <c r="A774" s="36" t="s">
         <v>1239</v>
       </c>
       <c r="B774" s="26" t="s">
@@ -49571,18 +49564,18 @@
       <c r="C774" s="24" t="s">
         <v>1294</v>
       </c>
-      <c r="D774" s="37">
+      <c r="D774" s="36">
         <v>8</v>
       </c>
-      <c r="E774" s="37">
+      <c r="E774" s="36">
         <v>0</v>
       </c>
-      <c r="F774" s="37" t="s">
+      <c r="F774" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="775" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A775" s="37" t="s">
+      <c r="A775" s="36" t="s">
         <v>1239</v>
       </c>
       <c r="B775" s="26" t="s">
@@ -49591,18 +49584,18 @@
       <c r="C775" s="24" t="s">
         <v>1294</v>
       </c>
-      <c r="D775" s="37">
+      <c r="D775" s="36">
         <v>5</v>
       </c>
-      <c r="E775" s="37">
+      <c r="E775" s="36">
         <v>0</v>
       </c>
-      <c r="F775" s="37" t="s">
+      <c r="F775" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="776" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A776" s="37" t="s">
+      <c r="A776" s="36" t="s">
         <v>1239</v>
       </c>
       <c r="B776" s="24" t="s">
@@ -49611,18 +49604,18 @@
       <c r="C776" s="24" t="s">
         <v>1294</v>
       </c>
-      <c r="D776" s="37">
+      <c r="D776" s="36">
         <v>4</v>
       </c>
-      <c r="E776" s="37">
+      <c r="E776" s="36">
         <v>1</v>
       </c>
-      <c r="F776" s="37" t="s">
+      <c r="F776" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="777" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A777" s="37" t="s">
+      <c r="A777" s="36" t="s">
         <v>1239</v>
       </c>
       <c r="B777" s="26" t="s">
@@ -49631,18 +49624,18 @@
       <c r="C777" s="24" t="s">
         <v>1294</v>
       </c>
-      <c r="D777" s="37">
+      <c r="D777" s="36">
         <v>12</v>
       </c>
-      <c r="E777" s="37">
+      <c r="E777" s="36">
         <v>2</v>
       </c>
-      <c r="F777" s="37" t="s">
+      <c r="F777" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="778" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A778" s="37" t="s">
+      <c r="A778" s="36" t="s">
         <v>1239</v>
       </c>
       <c r="B778" s="26" t="s">
@@ -49651,18 +49644,18 @@
       <c r="C778" s="24" t="s">
         <v>1294</v>
       </c>
-      <c r="D778" s="37">
+      <c r="D778" s="36">
         <v>2</v>
       </c>
-      <c r="E778" s="37">
+      <c r="E778" s="36">
         <v>0</v>
       </c>
-      <c r="F778" s="37" t="s">
+      <c r="F778" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="779" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A779" s="37" t="s">
+      <c r="A779" s="36" t="s">
         <v>1239</v>
       </c>
       <c r="B779" s="26" t="s">
@@ -49671,18 +49664,18 @@
       <c r="C779" s="24" t="s">
         <v>1294</v>
       </c>
-      <c r="D779" s="37">
+      <c r="D779" s="36">
         <v>2</v>
       </c>
-      <c r="E779" s="37">
+      <c r="E779" s="36">
         <v>1</v>
       </c>
-      <c r="F779" s="37" t="s">
+      <c r="F779" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="780" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A780" s="37" t="s">
+      <c r="A780" s="36" t="s">
         <v>1239</v>
       </c>
       <c r="B780" s="26" t="s">
@@ -49691,18 +49684,18 @@
       <c r="C780" s="24" t="s">
         <v>1294</v>
       </c>
-      <c r="D780" s="37">
+      <c r="D780" s="36">
         <v>2</v>
       </c>
-      <c r="E780" s="37">
+      <c r="E780" s="36">
         <v>0</v>
       </c>
-      <c r="F780" s="37" t="s">
+      <c r="F780" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="781" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A781" s="37" t="s">
+      <c r="A781" s="36" t="s">
         <v>1260</v>
       </c>
       <c r="B781" s="26" t="s">
@@ -49711,18 +49704,18 @@
       <c r="C781" s="24" t="s">
         <v>1296</v>
       </c>
-      <c r="D781" s="37">
+      <c r="D781" s="36">
         <v>4421</v>
       </c>
-      <c r="E781" s="37">
+      <c r="E781" s="36">
         <v>22</v>
       </c>
-      <c r="F781" s="37" t="s">
+      <c r="F781" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="782" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A782" s="37" t="s">
+      <c r="A782" s="36" t="s">
         <v>1260</v>
       </c>
       <c r="B782" s="26" t="s">
@@ -49731,18 +49724,18 @@
       <c r="C782" s="24" t="s">
         <v>1262</v>
       </c>
-      <c r="D782" s="37">
+      <c r="D782" s="36">
         <v>386</v>
       </c>
-      <c r="E782" s="37">
+      <c r="E782" s="36">
         <v>0</v>
       </c>
-      <c r="F782" s="37" t="s">
+      <c r="F782" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="783" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A783" s="37" t="s">
+      <c r="A783" s="36" t="s">
         <v>1260</v>
       </c>
       <c r="B783" s="26" t="s">
@@ -49751,18 +49744,18 @@
       <c r="C783" s="24" t="s">
         <v>1262</v>
       </c>
-      <c r="D783" s="37">
+      <c r="D783" s="36">
         <v>336</v>
       </c>
-      <c r="E783" s="37">
+      <c r="E783" s="36">
         <v>6</v>
       </c>
-      <c r="F783" s="37" t="s">
+      <c r="F783" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="784" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A784" s="37" t="s">
+      <c r="A784" s="36" t="s">
         <v>1260</v>
       </c>
       <c r="B784" s="26" t="s">
@@ -49771,18 +49764,18 @@
       <c r="C784" s="24" t="s">
         <v>1262</v>
       </c>
-      <c r="D784" s="37">
+      <c r="D784" s="36">
         <v>1782</v>
       </c>
-      <c r="E784" s="37">
+      <c r="E784" s="36">
         <v>23</v>
       </c>
-      <c r="F784" s="37" t="s">
+      <c r="F784" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="785" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A785" s="37" t="s">
+      <c r="A785" s="36" t="s">
         <v>1260</v>
       </c>
       <c r="B785" s="26" t="s">
@@ -49791,18 +49784,18 @@
       <c r="C785" s="24" t="s">
         <v>1262</v>
       </c>
-      <c r="D785" s="37">
+      <c r="D785" s="36">
         <v>984</v>
       </c>
-      <c r="E785" s="37">
+      <c r="E785" s="36">
         <v>11</v>
       </c>
-      <c r="F785" s="37" t="s">
+      <c r="F785" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="786" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A786" s="37" t="s">
+      <c r="A786" s="36" t="s">
         <v>1260</v>
       </c>
       <c r="B786" s="26" t="s">
@@ -49811,18 +49804,18 @@
       <c r="C786" s="24" t="s">
         <v>1262</v>
       </c>
-      <c r="D786" s="37">
+      <c r="D786" s="36">
         <v>772</v>
       </c>
-      <c r="E786" s="37">
+      <c r="E786" s="36">
         <v>11</v>
       </c>
-      <c r="F786" s="37" t="s">
+      <c r="F786" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="787" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A787" s="37" t="s">
+      <c r="A787" s="36" t="s">
         <v>1260</v>
       </c>
       <c r="B787" s="26" t="s">
@@ -49831,18 +49824,18 @@
       <c r="C787" s="24" t="s">
         <v>1262</v>
       </c>
-      <c r="D787" s="37">
+      <c r="D787" s="36">
         <v>393</v>
       </c>
-      <c r="E787" s="37">
+      <c r="E787" s="36">
         <v>5</v>
       </c>
-      <c r="F787" s="37" t="s">
+      <c r="F787" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="788" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A788" s="37" t="s">
+      <c r="A788" s="36" t="s">
         <v>1260</v>
       </c>
       <c r="B788" s="26" t="s">
@@ -49851,18 +49844,18 @@
       <c r="C788" s="24" t="s">
         <v>1262</v>
       </c>
-      <c r="D788" s="37">
+      <c r="D788" s="36">
         <v>369</v>
       </c>
-      <c r="E788" s="37">
+      <c r="E788" s="36">
         <v>5</v>
       </c>
-      <c r="F788" s="37" t="s">
+      <c r="F788" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="789" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A789" s="37" t="s">
+      <c r="A789" s="36" t="s">
         <v>1260</v>
       </c>
       <c r="B789" s="26" t="s">
@@ -49871,18 +49864,18 @@
       <c r="C789" s="24" t="s">
         <v>1262</v>
       </c>
-      <c r="D789" s="37">
+      <c r="D789" s="36">
         <v>484</v>
       </c>
-      <c r="E789" s="37">
+      <c r="E789" s="36">
         <v>10</v>
       </c>
-      <c r="F789" s="37" t="s">
+      <c r="F789" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="790" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A790" s="37" t="s">
+      <c r="A790" s="36" t="s">
         <v>1260</v>
       </c>
       <c r="B790" s="26" t="s">
@@ -49891,18 +49884,18 @@
       <c r="C790" s="24" t="s">
         <v>1262</v>
       </c>
-      <c r="D790" s="37">
+      <c r="D790" s="36">
         <v>396</v>
       </c>
-      <c r="E790" s="37">
+      <c r="E790" s="36">
         <v>0</v>
       </c>
-      <c r="F790" s="37" t="s">
+      <c r="F790" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="791" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A791" s="37" t="s">
+      <c r="A791" s="36" t="s">
         <v>1260</v>
       </c>
       <c r="B791" s="26" t="s">
@@ -49911,18 +49904,18 @@
       <c r="C791" s="24" t="s">
         <v>1262</v>
       </c>
-      <c r="D791" s="37">
+      <c r="D791" s="36">
         <v>1847</v>
       </c>
-      <c r="E791" s="37">
+      <c r="E791" s="36">
         <v>41</v>
       </c>
-      <c r="F791" s="37" t="s">
+      <c r="F791" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="792" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A792" s="37" t="s">
+      <c r="A792" s="36" t="s">
         <v>1260</v>
       </c>
       <c r="B792" s="26" t="s">
@@ -49931,18 +49924,18 @@
       <c r="C792" s="24" t="s">
         <v>1262</v>
       </c>
-      <c r="D792" s="37">
+      <c r="D792" s="36">
         <v>2711</v>
       </c>
-      <c r="E792" s="37">
+      <c r="E792" s="36">
         <v>21</v>
       </c>
-      <c r="F792" s="37" t="s">
+      <c r="F792" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="793" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A793" s="37" t="s">
+      <c r="A793" s="36" t="s">
         <v>1260</v>
       </c>
       <c r="B793" s="26" t="s">
@@ -49951,18 +49944,18 @@
       <c r="C793" s="24" t="s">
         <v>1262</v>
       </c>
-      <c r="D793" s="37">
+      <c r="D793" s="36">
         <v>504</v>
       </c>
-      <c r="E793" s="37">
+      <c r="E793" s="36">
         <v>11</v>
       </c>
-      <c r="F793" s="37" t="s">
+      <c r="F793" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="794" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A794" s="37" t="s">
+      <c r="A794" s="36" t="s">
         <v>1260</v>
       </c>
       <c r="B794" s="26" t="s">
@@ -49971,18 +49964,18 @@
       <c r="C794" s="24" t="s">
         <v>1262</v>
       </c>
-      <c r="D794" s="37">
+      <c r="D794" s="36">
         <v>424</v>
       </c>
-      <c r="E794" s="37">
+      <c r="E794" s="36">
         <v>13</v>
       </c>
-      <c r="F794" s="37" t="s">
+      <c r="F794" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="795" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A795" s="37" t="s">
+      <c r="A795" s="36" t="s">
         <v>1260</v>
       </c>
       <c r="B795" s="26" t="s">
@@ -49991,18 +49984,18 @@
       <c r="C795" s="24" t="s">
         <v>1262</v>
       </c>
-      <c r="D795" s="37">
+      <c r="D795" s="36">
         <v>1137</v>
       </c>
-      <c r="E795" s="37">
+      <c r="E795" s="36">
         <v>16</v>
       </c>
-      <c r="F795" s="37" t="s">
+      <c r="F795" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="796" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A796" s="37" t="s">
+      <c r="A796" s="36" t="s">
         <v>1260</v>
       </c>
       <c r="B796" s="26" t="s">
@@ -50011,18 +50004,18 @@
       <c r="C796" s="24" t="s">
         <v>1262</v>
       </c>
-      <c r="D796" s="37">
+      <c r="D796" s="36">
         <v>67080</v>
       </c>
-      <c r="E796" s="37">
+      <c r="E796" s="36">
         <v>159</v>
       </c>
-      <c r="F796" s="37" t="s">
+      <c r="F796" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="797" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A797" s="37" t="s">
+      <c r="A797" s="36" t="s">
         <v>1260</v>
       </c>
       <c r="B797" s="26" t="s">
@@ -50031,18 +50024,18 @@
       <c r="C797" s="24" t="s">
         <v>1262</v>
       </c>
-      <c r="D797" s="37">
+      <c r="D797" s="36">
         <v>384</v>
       </c>
-      <c r="E797" s="37">
+      <c r="E797" s="36">
         <v>3</v>
       </c>
-      <c r="F797" s="37" t="s">
+      <c r="F797" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="798" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A798" s="37" t="s">
+      <c r="A798" s="36" t="s">
         <v>1260</v>
       </c>
       <c r="B798" s="26" t="s">
@@ -50051,18 +50044,18 @@
       <c r="C798" s="24" t="s">
         <v>1262</v>
       </c>
-      <c r="D798" s="37">
+      <c r="D798" s="36">
         <v>239</v>
       </c>
-      <c r="E798" s="37">
+      <c r="E798" s="36">
         <v>6</v>
       </c>
-      <c r="F798" s="37" t="s">
+      <c r="F798" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="799" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A799" s="37" t="s">
+      <c r="A799" s="36" t="s">
         <v>1260</v>
       </c>
       <c r="B799" s="26" t="s">
@@ -50071,18 +50064,18 @@
       <c r="C799" s="24" t="s">
         <v>1262</v>
       </c>
-      <c r="D799" s="37">
+      <c r="D799" s="36">
         <v>585</v>
       </c>
-      <c r="E799" s="37">
+      <c r="E799" s="36">
         <v>3</v>
       </c>
-      <c r="F799" s="37" t="s">
+      <c r="F799" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="800" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A800" s="37" t="s">
+      <c r="A800" s="36" t="s">
         <v>1260</v>
       </c>
       <c r="B800" s="26" t="s">
@@ -50091,13 +50084,13 @@
       <c r="C800" s="24" t="s">
         <v>1262</v>
       </c>
-      <c r="D800" s="37">
+      <c r="D800" s="36">
         <v>1259</v>
       </c>
-      <c r="E800" s="37">
+      <c r="E800" s="36">
         <v>5</v>
       </c>
-      <c r="F800" s="37" t="s">
+      <c r="F800" s="36" t="s">
         <v>213</v>
       </c>
     </row>
@@ -51011,10 +51004,10 @@
       <c r="C846" s="24" t="s">
         <v>1577</v>
       </c>
-      <c r="D846" s="37">
+      <c r="D846" s="36">
         <v>95</v>
       </c>
-      <c r="E846" s="37">
+      <c r="E846" s="36">
         <v>1</v>
       </c>
       <c r="F846" s="33" t="s">
@@ -51031,10 +51024,10 @@
       <c r="C847" s="24" t="s">
         <v>1578</v>
       </c>
-      <c r="D847" s="37">
+      <c r="D847" s="36">
         <v>21</v>
       </c>
-      <c r="E847" s="37">
+      <c r="E847" s="36">
         <v>0</v>
       </c>
       <c r="F847" s="33" t="s">
@@ -51051,10 +51044,10 @@
       <c r="C848" s="24" t="s">
         <v>1577</v>
       </c>
-      <c r="D848" s="37">
+      <c r="D848" s="36">
         <v>12</v>
       </c>
-      <c r="E848" s="37">
+      <c r="E848" s="36">
         <v>0</v>
       </c>
       <c r="F848" s="33" t="s">
@@ -51071,10 +51064,10 @@
       <c r="C849" s="24" t="s">
         <v>1577</v>
       </c>
-      <c r="D849" s="37">
+      <c r="D849" s="36">
         <v>14</v>
       </c>
-      <c r="E849" s="37">
+      <c r="E849" s="36">
         <v>0</v>
       </c>
       <c r="F849" s="33" t="s">
@@ -51091,10 +51084,10 @@
       <c r="C850" s="24" t="s">
         <v>1579</v>
       </c>
-      <c r="D850" s="37">
+      <c r="D850" s="36">
         <v>59</v>
       </c>
-      <c r="E850" s="37">
+      <c r="E850" s="36">
         <v>1</v>
       </c>
       <c r="F850" s="33" t="s">
@@ -51102,2980 +51095,2980 @@
       </c>
     </row>
     <row r="851" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A851" s="38" t="s">
+      <c r="A851" s="37" t="s">
         <v>1360</v>
       </c>
-      <c r="B851" s="39" t="s">
+      <c r="B851" s="38" t="s">
         <v>1361</v>
       </c>
-      <c r="C851" s="38" t="s">
+      <c r="C851" s="37" t="s">
         <v>1362</v>
       </c>
-      <c r="D851" s="38">
+      <c r="D851" s="37">
         <v>32</v>
       </c>
-      <c r="E851" s="38">
+      <c r="E851" s="37">
         <v>0</v>
       </c>
-      <c r="F851" s="38" t="s">
+      <c r="F851" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="852" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A852" s="38" t="s">
+      <c r="A852" s="37" t="s">
         <v>1360</v>
       </c>
-      <c r="B852" s="39" t="s">
+      <c r="B852" s="38" t="s">
         <v>1363</v>
       </c>
-      <c r="C852" s="39" t="s">
+      <c r="C852" s="38" t="s">
         <v>1580</v>
       </c>
-      <c r="D852" s="38">
+      <c r="D852" s="37">
         <v>266</v>
       </c>
-      <c r="E852" s="38">
+      <c r="E852" s="37">
         <v>7</v>
       </c>
-      <c r="F852" s="38" t="s">
+      <c r="F852" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="853" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A853" s="38" t="s">
+      <c r="A853" s="37" t="s">
         <v>1360</v>
       </c>
-      <c r="B853" s="39" t="s">
+      <c r="B853" s="38" t="s">
         <v>1364</v>
       </c>
-      <c r="C853" s="39" t="s">
+      <c r="C853" s="38" t="s">
         <v>1365</v>
       </c>
-      <c r="D853" s="38">
+      <c r="D853" s="37">
         <v>63</v>
       </c>
-      <c r="E853" s="38">
+      <c r="E853" s="37">
         <v>2</v>
       </c>
-      <c r="F853" s="38" t="s">
+      <c r="F853" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="854" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A854" s="38" t="s">
+      <c r="A854" s="37" t="s">
         <v>1360</v>
       </c>
-      <c r="B854" s="39" t="s">
+      <c r="B854" s="38" t="s">
         <v>1366</v>
       </c>
-      <c r="C854" s="39" t="s">
+      <c r="C854" s="38" t="s">
         <v>1367</v>
       </c>
-      <c r="D854" s="38">
+      <c r="D854" s="37">
         <v>666</v>
       </c>
-      <c r="E854" s="38">
+      <c r="E854" s="37">
         <v>20</v>
       </c>
-      <c r="F854" s="38" t="s">
+      <c r="F854" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="855" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A855" s="38" t="s">
+      <c r="A855" s="37" t="s">
         <v>1360</v>
       </c>
-      <c r="B855" s="39" t="s">
+      <c r="B855" s="38" t="s">
         <v>1368</v>
       </c>
-      <c r="C855" s="39" t="s">
+      <c r="C855" s="38" t="s">
         <v>1369</v>
       </c>
-      <c r="D855" s="38">
+      <c r="D855" s="37">
         <v>46</v>
       </c>
-      <c r="E855" s="38">
+      <c r="E855" s="37">
         <v>1</v>
       </c>
-      <c r="F855" s="38" t="s">
+      <c r="F855" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="856" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A856" s="38" t="s">
+      <c r="A856" s="37" t="s">
         <v>1360</v>
       </c>
-      <c r="B856" s="39" t="s">
+      <c r="B856" s="38" t="s">
         <v>1370</v>
       </c>
-      <c r="C856" s="39" t="s">
+      <c r="C856" s="38" t="s">
         <v>1581</v>
       </c>
-      <c r="D856" s="38">
+      <c r="D856" s="37">
         <v>52</v>
       </c>
-      <c r="E856" s="38">
+      <c r="E856" s="37">
         <v>0</v>
       </c>
-      <c r="F856" s="38" t="s">
+      <c r="F856" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="857" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A857" s="38" t="s">
+      <c r="A857" s="37" t="s">
         <v>1360</v>
       </c>
-      <c r="B857" s="39" t="s">
+      <c r="B857" s="38" t="s">
         <v>1371</v>
       </c>
-      <c r="C857" s="39" t="s">
+      <c r="C857" s="38" t="s">
         <v>1594</v>
       </c>
-      <c r="D857" s="38">
+      <c r="D857" s="37">
         <v>176</v>
       </c>
-      <c r="E857" s="38">
+      <c r="E857" s="37">
         <v>6</v>
       </c>
-      <c r="F857" s="38" t="s">
+      <c r="F857" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="858" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A858" s="38" t="s">
+      <c r="A858" s="37" t="s">
         <v>1360</v>
       </c>
-      <c r="B858" s="39" t="s">
+      <c r="B858" s="38" t="s">
         <v>1372</v>
       </c>
-      <c r="C858" s="38" t="s">
+      <c r="C858" s="37" t="s">
         <v>1373</v>
       </c>
-      <c r="D858" s="38">
+      <c r="D858" s="37">
         <v>31</v>
       </c>
-      <c r="E858" s="38">
+      <c r="E858" s="37">
         <v>2</v>
       </c>
-      <c r="F858" s="38" t="s">
+      <c r="F858" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="859" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A859" s="38" t="s">
+      <c r="A859" s="37" t="s">
         <v>1360</v>
       </c>
-      <c r="B859" s="39" t="s">
+      <c r="B859" s="38" t="s">
         <v>1374</v>
       </c>
-      <c r="C859" s="39" t="s">
+      <c r="C859" s="38" t="s">
         <v>1375</v>
       </c>
-      <c r="D859" s="38">
+      <c r="D859" s="37">
         <v>50</v>
       </c>
-      <c r="E859" s="38">
+      <c r="E859" s="37">
         <v>0</v>
       </c>
-      <c r="F859" s="38" t="s">
+      <c r="F859" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="860" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A860" s="38" t="s">
+      <c r="A860" s="37" t="s">
         <v>1360</v>
       </c>
-      <c r="B860" s="39" t="s">
+      <c r="B860" s="38" t="s">
         <v>1376</v>
       </c>
-      <c r="C860" s="39" t="s">
+      <c r="C860" s="38" t="s">
         <v>1582</v>
       </c>
-      <c r="D860" s="38">
+      <c r="D860" s="37">
         <v>64</v>
       </c>
-      <c r="E860" s="38">
+      <c r="E860" s="37">
         <v>16</v>
       </c>
-      <c r="F860" s="38" t="s">
+      <c r="F860" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="861" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A861" s="38" t="s">
+      <c r="A861" s="37" t="s">
         <v>1360</v>
       </c>
-      <c r="B861" s="39" t="s">
+      <c r="B861" s="38" t="s">
         <v>1377</v>
       </c>
-      <c r="C861" s="38" t="s">
+      <c r="C861" s="37" t="s">
         <v>1378</v>
       </c>
-      <c r="D861" s="38">
+      <c r="D861" s="37">
         <v>675</v>
       </c>
-      <c r="E861" s="38">
+      <c r="E861" s="37">
         <v>34</v>
       </c>
-      <c r="F861" s="38" t="s">
+      <c r="F861" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="862" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A862" s="38" t="s">
+      <c r="A862" s="37" t="s">
         <v>1360</v>
       </c>
-      <c r="B862" s="39" t="s">
+      <c r="B862" s="38" t="s">
         <v>1379</v>
       </c>
-      <c r="C862" s="38" t="s">
+      <c r="C862" s="37" t="s">
         <v>1380</v>
       </c>
-      <c r="D862" s="38">
+      <c r="D862" s="37">
         <v>70</v>
       </c>
-      <c r="E862" s="38">
+      <c r="E862" s="37">
         <v>2</v>
       </c>
-      <c r="F862" s="38" t="s">
+      <c r="F862" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="863" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A863" s="38" t="s">
+      <c r="A863" s="37" t="s">
         <v>1360</v>
       </c>
-      <c r="B863" s="39" t="s">
+      <c r="B863" s="38" t="s">
         <v>1381</v>
       </c>
-      <c r="C863" s="39" t="s">
+      <c r="C863" s="38" t="s">
         <v>1583</v>
       </c>
-      <c r="D863" s="38">
+      <c r="D863" s="37">
         <v>76</v>
       </c>
-      <c r="E863" s="38">
+      <c r="E863" s="37">
         <v>3</v>
       </c>
-      <c r="F863" s="38" t="s">
+      <c r="F863" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="864" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A864" s="38" t="s">
+      <c r="A864" s="37" t="s">
         <v>1360</v>
       </c>
-      <c r="B864" s="39" t="s">
+      <c r="B864" s="38" t="s">
         <v>1382</v>
       </c>
-      <c r="C864" s="39" t="s">
+      <c r="C864" s="38" t="s">
         <v>1383</v>
       </c>
-      <c r="D864" s="38">
+      <c r="D864" s="37">
         <v>176</v>
       </c>
-      <c r="E864" s="38">
+      <c r="E864" s="37">
         <v>14</v>
       </c>
-      <c r="F864" s="38" t="s">
+      <c r="F864" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="865" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A865" s="38" t="s">
+      <c r="A865" s="37" t="s">
         <v>1360</v>
       </c>
-      <c r="B865" s="39" t="s">
+      <c r="B865" s="38" t="s">
         <v>1384</v>
       </c>
-      <c r="C865" s="38" t="s">
+      <c r="C865" s="37" t="s">
         <v>1385</v>
       </c>
-      <c r="D865" s="38">
+      <c r="D865" s="37">
         <v>87</v>
       </c>
-      <c r="E865" s="38">
+      <c r="E865" s="37">
         <v>3</v>
       </c>
-      <c r="F865" s="38" t="s">
+      <c r="F865" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="866" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A866" s="38" t="s">
+      <c r="A866" s="37" t="s">
         <v>1360</v>
       </c>
-      <c r="B866" s="38" t="s">
+      <c r="B866" s="37" t="s">
         <v>1386</v>
       </c>
-      <c r="C866" s="38" t="s">
+      <c r="C866" s="37" t="s">
         <v>1387</v>
       </c>
-      <c r="D866" s="38">
+      <c r="D866" s="37">
         <v>43</v>
       </c>
-      <c r="E866" s="38">
+      <c r="E866" s="37">
         <v>2</v>
       </c>
-      <c r="F866" s="38" t="s">
+      <c r="F866" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="867" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A867" s="38" t="s">
+      <c r="A867" s="37" t="s">
         <v>1360</v>
       </c>
-      <c r="B867" s="39" t="s">
+      <c r="B867" s="38" t="s">
         <v>1388</v>
       </c>
-      <c r="C867" s="39" t="s">
+      <c r="C867" s="38" t="s">
         <v>1584</v>
       </c>
-      <c r="D867" s="38">
+      <c r="D867" s="37">
         <v>35</v>
       </c>
-      <c r="E867" s="38">
+      <c r="E867" s="37">
         <v>0</v>
       </c>
-      <c r="F867" s="38" t="s">
+      <c r="F867" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="868" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A868" s="38" t="s">
+      <c r="A868" s="37" t="s">
         <v>1360</v>
       </c>
-      <c r="B868" s="39" t="s">
+      <c r="B868" s="38" t="s">
         <v>1389</v>
       </c>
-      <c r="C868" s="38" t="s">
+      <c r="C868" s="37" t="s">
         <v>1390</v>
       </c>
-      <c r="D868" s="38">
+      <c r="D868" s="37">
         <v>152</v>
       </c>
-      <c r="E868" s="38">
+      <c r="E868" s="37">
         <v>9</v>
       </c>
-      <c r="F868" s="38" t="s">
+      <c r="F868" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="869" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A869" s="38" t="s">
+      <c r="A869" s="37" t="s">
         <v>1360</v>
       </c>
-      <c r="B869" s="39" t="s">
+      <c r="B869" s="38" t="s">
         <v>1391</v>
       </c>
-      <c r="C869" s="38" t="s">
+      <c r="C869" s="37" t="s">
         <v>1392</v>
       </c>
-      <c r="D869" s="38">
+      <c r="D869" s="37">
         <v>142</v>
       </c>
-      <c r="E869" s="38">
+      <c r="E869" s="37">
         <v>21</v>
       </c>
-      <c r="F869" s="38" t="s">
+      <c r="F869" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="870" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A870" s="38" t="s">
+      <c r="A870" s="37" t="s">
         <v>1360</v>
       </c>
-      <c r="B870" s="39" t="s">
+      <c r="B870" s="38" t="s">
         <v>1393</v>
       </c>
-      <c r="C870" s="39" t="s">
+      <c r="C870" s="38" t="s">
         <v>1585</v>
       </c>
-      <c r="D870" s="38">
+      <c r="D870" s="37">
         <v>56</v>
       </c>
-      <c r="E870" s="38">
+      <c r="E870" s="37">
         <v>7</v>
       </c>
-      <c r="F870" s="38" t="s">
+      <c r="F870" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="871" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A871" s="38" t="s">
+      <c r="A871" s="37" t="s">
         <v>1360</v>
       </c>
-      <c r="B871" s="39" t="s">
+      <c r="B871" s="38" t="s">
         <v>1394</v>
       </c>
-      <c r="C871" s="39" t="s">
+      <c r="C871" s="38" t="s">
         <v>1595</v>
       </c>
-      <c r="D871" s="38">
+      <c r="D871" s="37">
         <v>46</v>
       </c>
-      <c r="E871" s="38">
+      <c r="E871" s="37">
         <v>0</v>
       </c>
-      <c r="F871" s="38" t="s">
+      <c r="F871" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="872" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A872" s="38" t="s">
+      <c r="A872" s="37" t="s">
         <v>1360</v>
       </c>
-      <c r="B872" s="39" t="s">
+      <c r="B872" s="38" t="s">
         <v>1395</v>
       </c>
-      <c r="C872" s="39" t="s">
+      <c r="C872" s="38" t="s">
         <v>1586</v>
       </c>
-      <c r="D872" s="38">
+      <c r="D872" s="37">
         <v>62</v>
       </c>
-      <c r="E872" s="38">
+      <c r="E872" s="37">
         <v>13</v>
       </c>
-      <c r="F872" s="38" t="s">
+      <c r="F872" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="873" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A873" s="38" t="s">
+      <c r="A873" s="37" t="s">
         <v>1360</v>
       </c>
-      <c r="B873" s="39" t="s">
+      <c r="B873" s="38" t="s">
         <v>1396</v>
       </c>
-      <c r="C873" s="39" t="s">
+      <c r="C873" s="38" t="s">
         <v>1587</v>
       </c>
-      <c r="D873" s="38">
+      <c r="D873" s="37">
         <v>176</v>
       </c>
-      <c r="E873" s="38">
+      <c r="E873" s="37">
         <v>16</v>
       </c>
-      <c r="F873" s="38" t="s">
+      <c r="F873" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="874" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A874" s="38" t="s">
+      <c r="A874" s="37" t="s">
         <v>1360</v>
       </c>
-      <c r="B874" s="39" t="s">
+      <c r="B874" s="38" t="s">
         <v>1397</v>
       </c>
-      <c r="C874" s="39" t="s">
+      <c r="C874" s="38" t="s">
         <v>1398</v>
       </c>
-      <c r="D874" s="38">
+      <c r="D874" s="37">
         <v>242</v>
       </c>
-      <c r="E874" s="38">
+      <c r="E874" s="37">
         <v>4</v>
       </c>
-      <c r="F874" s="38" t="s">
+      <c r="F874" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="875" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A875" s="38" t="s">
+      <c r="A875" s="37" t="s">
         <v>1360</v>
       </c>
-      <c r="B875" s="39" t="s">
+      <c r="B875" s="38" t="s">
         <v>1399</v>
       </c>
-      <c r="C875" s="38" t="s">
+      <c r="C875" s="37" t="s">
         <v>1400</v>
       </c>
-      <c r="D875" s="38">
+      <c r="D875" s="37">
         <v>199</v>
       </c>
-      <c r="E875" s="38">
+      <c r="E875" s="37">
         <v>27</v>
       </c>
-      <c r="F875" s="38" t="s">
+      <c r="F875" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="876" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A876" s="38" t="s">
+      <c r="A876" s="37" t="s">
         <v>1401</v>
       </c>
-      <c r="B876" s="39" t="s">
+      <c r="B876" s="38" t="s">
         <v>1402</v>
       </c>
-      <c r="C876" s="38" t="s">
+      <c r="C876" s="37" t="s">
         <v>1403</v>
       </c>
-      <c r="D876" s="38">
+      <c r="D876" s="37">
         <v>64</v>
       </c>
-      <c r="E876" s="38">
+      <c r="E876" s="37">
         <v>7</v>
       </c>
-      <c r="F876" s="38" t="s">
+      <c r="F876" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="877" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A877" s="38" t="s">
+      <c r="A877" s="37" t="s">
         <v>1401</v>
       </c>
-      <c r="B877" s="39" t="s">
+      <c r="B877" s="38" t="s">
         <v>1404</v>
       </c>
-      <c r="C877" s="39" t="s">
+      <c r="C877" s="38" t="s">
         <v>1596</v>
       </c>
-      <c r="D877" s="38">
+      <c r="D877" s="37">
         <v>137</v>
       </c>
-      <c r="E877" s="38">
+      <c r="E877" s="37">
         <v>9</v>
       </c>
-      <c r="F877" s="38" t="s">
+      <c r="F877" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="878" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A878" s="38" t="s">
+      <c r="A878" s="37" t="s">
         <v>1401</v>
       </c>
-      <c r="B878" s="39" t="s">
+      <c r="B878" s="38" t="s">
         <v>1405</v>
       </c>
-      <c r="C878" s="39" t="s">
+      <c r="C878" s="38" t="s">
         <v>1588</v>
       </c>
-      <c r="D878" s="38">
+      <c r="D878" s="37">
         <v>125</v>
       </c>
-      <c r="E878" s="38">
+      <c r="E878" s="37">
         <v>17</v>
       </c>
-      <c r="F878" s="38" t="s">
+      <c r="F878" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="879" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A879" s="38" t="s">
+      <c r="A879" s="37" t="s">
         <v>1401</v>
       </c>
-      <c r="B879" s="39" t="s">
+      <c r="B879" s="38" t="s">
         <v>1406</v>
       </c>
-      <c r="C879" s="39" t="s">
+      <c r="C879" s="38" t="s">
         <v>1588</v>
       </c>
-      <c r="D879" s="38">
+      <c r="D879" s="37">
         <v>72</v>
       </c>
-      <c r="E879" s="38">
+      <c r="E879" s="37">
         <v>5</v>
       </c>
-      <c r="F879" s="38" t="s">
+      <c r="F879" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="880" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A880" s="38" t="s">
+      <c r="A880" s="37" t="s">
         <v>1401</v>
       </c>
-      <c r="B880" s="39" t="s">
+      <c r="B880" s="38" t="s">
         <v>1407</v>
       </c>
-      <c r="C880" s="39" t="s">
+      <c r="C880" s="38" t="s">
         <v>1588</v>
       </c>
-      <c r="D880" s="38">
+      <c r="D880" s="37">
         <v>111</v>
       </c>
-      <c r="E880" s="38">
+      <c r="E880" s="37">
         <v>7</v>
       </c>
-      <c r="F880" s="38" t="s">
+      <c r="F880" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="881" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A881" s="38" t="s">
+      <c r="A881" s="37" t="s">
         <v>1401</v>
       </c>
-      <c r="B881" s="39" t="s">
+      <c r="B881" s="38" t="s">
         <v>1408</v>
       </c>
-      <c r="C881" s="39" t="s">
+      <c r="C881" s="38" t="s">
         <v>1588</v>
       </c>
-      <c r="D881" s="38">
+      <c r="D881" s="37">
         <v>206</v>
       </c>
-      <c r="E881" s="38">
+      <c r="E881" s="37">
         <v>41</v>
       </c>
-      <c r="F881" s="38" t="s">
+      <c r="F881" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="882" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A882" s="38" t="s">
+      <c r="A882" s="37" t="s">
         <v>1401</v>
       </c>
-      <c r="B882" s="39" t="s">
+      <c r="B882" s="38" t="s">
         <v>1409</v>
       </c>
-      <c r="C882" s="38" t="s">
+      <c r="C882" s="37" t="s">
         <v>1410</v>
       </c>
-      <c r="D882" s="38">
+      <c r="D882" s="37">
         <v>300</v>
       </c>
-      <c r="E882" s="38">
+      <c r="E882" s="37">
         <v>53</v>
       </c>
-      <c r="F882" s="38" t="s">
+      <c r="F882" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="883" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A883" s="38" t="s">
+      <c r="A883" s="37" t="s">
         <v>1401</v>
       </c>
-      <c r="B883" s="39" t="s">
+      <c r="B883" s="38" t="s">
         <v>1411</v>
       </c>
-      <c r="C883" s="38" t="s">
+      <c r="C883" s="37" t="s">
         <v>1412</v>
       </c>
-      <c r="D883" s="38">
+      <c r="D883" s="37">
         <v>190</v>
       </c>
-      <c r="E883" s="38">
+      <c r="E883" s="37">
         <v>22</v>
       </c>
-      <c r="F883" s="38" t="s">
+      <c r="F883" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="884" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A884" s="38" t="s">
+      <c r="A884" s="37" t="s">
         <v>1401</v>
       </c>
-      <c r="B884" s="39" t="s">
+      <c r="B884" s="38" t="s">
         <v>1413</v>
       </c>
-      <c r="C884" s="38" t="s">
+      <c r="C884" s="37" t="s">
         <v>1414</v>
       </c>
-      <c r="D884" s="38">
+      <c r="D884" s="37">
         <v>107</v>
       </c>
-      <c r="E884" s="38">
+      <c r="E884" s="37">
         <v>32</v>
       </c>
-      <c r="F884" s="38" t="s">
+      <c r="F884" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="885" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A885" s="38" t="s">
+      <c r="A885" s="37" t="s">
         <v>1401</v>
       </c>
-      <c r="B885" s="39" t="s">
+      <c r="B885" s="38" t="s">
         <v>1415</v>
       </c>
-      <c r="C885" s="39" t="s">
+      <c r="C885" s="38" t="s">
         <v>1589</v>
       </c>
-      <c r="D885" s="38">
+      <c r="D885" s="37">
         <v>182</v>
       </c>
-      <c r="E885" s="38">
+      <c r="E885" s="37">
         <v>37</v>
       </c>
-      <c r="F885" s="38" t="s">
+      <c r="F885" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="886" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A886" s="38" t="s">
+      <c r="A886" s="37" t="s">
         <v>1401</v>
       </c>
-      <c r="B886" s="39" t="s">
+      <c r="B886" s="38" t="s">
         <v>1416</v>
       </c>
-      <c r="C886" s="38" t="s">
+      <c r="C886" s="37" t="s">
         <v>1417</v>
       </c>
-      <c r="D886" s="38">
+      <c r="D886" s="37">
         <v>290</v>
       </c>
-      <c r="E886" s="38">
+      <c r="E886" s="37">
         <v>40</v>
       </c>
-      <c r="F886" s="38" t="s">
+      <c r="F886" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="887" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A887" s="38" t="s">
+      <c r="A887" s="37" t="s">
         <v>1401</v>
       </c>
-      <c r="B887" s="39" t="s">
+      <c r="B887" s="38" t="s">
         <v>1418</v>
       </c>
-      <c r="C887" s="38" t="s">
+      <c r="C887" s="37" t="s">
         <v>1419</v>
       </c>
-      <c r="D887" s="38">
+      <c r="D887" s="37">
         <v>126</v>
       </c>
-      <c r="E887" s="38">
+      <c r="E887" s="37">
         <v>24</v>
       </c>
-      <c r="F887" s="38" t="s">
+      <c r="F887" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="888" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A888" s="38" t="s">
+      <c r="A888" s="37" t="s">
         <v>1401</v>
       </c>
-      <c r="B888" s="39" t="s">
+      <c r="B888" s="38" t="s">
         <v>1420</v>
       </c>
-      <c r="C888" s="38" t="s">
+      <c r="C888" s="37" t="s">
         <v>1421</v>
       </c>
-      <c r="D888" s="38">
+      <c r="D888" s="37">
         <v>107</v>
       </c>
-      <c r="E888" s="38">
+      <c r="E888" s="37">
         <v>49</v>
       </c>
-      <c r="F888" s="38" t="s">
+      <c r="F888" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="889" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A889" s="38" t="s">
+      <c r="A889" s="37" t="s">
         <v>1401</v>
       </c>
-      <c r="B889" s="39" t="s">
+      <c r="B889" s="38" t="s">
         <v>1422</v>
       </c>
-      <c r="C889" s="38" t="s">
+      <c r="C889" s="37" t="s">
         <v>1423</v>
       </c>
-      <c r="D889" s="38">
+      <c r="D889" s="37">
         <v>1160</v>
       </c>
-      <c r="E889" s="38">
+      <c r="E889" s="37">
         <v>121</v>
       </c>
-      <c r="F889" s="38" t="s">
+      <c r="F889" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="890" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A890" s="38" t="s">
+      <c r="A890" s="37" t="s">
         <v>1401</v>
       </c>
-      <c r="B890" s="39" t="s">
+      <c r="B890" s="38" t="s">
         <v>1424</v>
       </c>
-      <c r="C890" s="39" t="s">
+      <c r="C890" s="38" t="s">
         <v>1424</v>
       </c>
-      <c r="D890" s="38">
+      <c r="D890" s="37">
         <v>401</v>
       </c>
-      <c r="E890" s="38">
+      <c r="E890" s="37">
         <v>61</v>
       </c>
-      <c r="F890" s="38" t="s">
+      <c r="F890" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="891" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A891" s="38" t="s">
+      <c r="A891" s="37" t="s">
         <v>1401</v>
       </c>
-      <c r="B891" s="39" t="s">
+      <c r="B891" s="38" t="s">
         <v>1425</v>
       </c>
-      <c r="C891" s="39" t="s">
+      <c r="C891" s="38" t="s">
         <v>1597</v>
       </c>
-      <c r="D891" s="38">
+      <c r="D891" s="37">
         <v>162</v>
       </c>
-      <c r="E891" s="38">
+      <c r="E891" s="37">
         <v>15</v>
       </c>
-      <c r="F891" s="38" t="s">
+      <c r="F891" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="892" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A892" s="38" t="s">
+      <c r="A892" s="37" t="s">
         <v>1401</v>
       </c>
-      <c r="B892" s="39" t="s">
+      <c r="B892" s="38" t="s">
         <v>1426</v>
       </c>
-      <c r="C892" s="38" t="s">
+      <c r="C892" s="37" t="s">
         <v>1427</v>
       </c>
-      <c r="D892" s="38">
+      <c r="D892" s="37">
         <v>167</v>
       </c>
-      <c r="E892" s="38">
+      <c r="E892" s="37">
         <v>26</v>
       </c>
-      <c r="F892" s="38" t="s">
+      <c r="F892" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="893" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A893" s="38" t="s">
+      <c r="A893" s="37" t="s">
         <v>1401</v>
       </c>
-      <c r="B893" s="39" t="s">
+      <c r="B893" s="38" t="s">
         <v>1428</v>
       </c>
-      <c r="C893" s="38" t="s">
+      <c r="C893" s="37" t="s">
         <v>1427</v>
       </c>
-      <c r="D893" s="38">
+      <c r="D893" s="37">
         <v>372</v>
       </c>
-      <c r="E893" s="38">
+      <c r="E893" s="37">
         <v>75</v>
       </c>
-      <c r="F893" s="38" t="s">
+      <c r="F893" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="894" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A894" s="38" t="s">
+      <c r="A894" s="37" t="s">
         <v>1401</v>
       </c>
-      <c r="B894" s="39" t="s">
+      <c r="B894" s="38" t="s">
         <v>1429</v>
       </c>
-      <c r="C894" s="38" t="s">
+      <c r="C894" s="37" t="s">
         <v>1430</v>
       </c>
-      <c r="D894" s="38">
+      <c r="D894" s="37">
         <v>95</v>
       </c>
-      <c r="E894" s="38">
+      <c r="E894" s="37">
         <v>6</v>
       </c>
-      <c r="F894" s="38" t="s">
+      <c r="F894" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="895" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A895" s="38" t="s">
+      <c r="A895" s="37" t="s">
         <v>1401</v>
       </c>
-      <c r="B895" s="39" t="s">
+      <c r="B895" s="38" t="s">
         <v>1431</v>
       </c>
-      <c r="C895" s="38" t="s">
+      <c r="C895" s="37" t="s">
         <v>1432</v>
       </c>
-      <c r="D895" s="38">
+      <c r="D895" s="37">
         <v>119</v>
       </c>
-      <c r="E895" s="38">
+      <c r="E895" s="37">
         <v>9</v>
       </c>
-      <c r="F895" s="38" t="s">
+      <c r="F895" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="896" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A896" s="38" t="s">
+      <c r="A896" s="37" t="s">
         <v>1401</v>
       </c>
-      <c r="B896" s="39" t="s">
+      <c r="B896" s="38" t="s">
         <v>1433</v>
       </c>
-      <c r="C896" s="38" t="s">
+      <c r="C896" s="37" t="s">
         <v>1434</v>
       </c>
-      <c r="D896" s="38">
+      <c r="D896" s="37">
         <v>119</v>
       </c>
-      <c r="E896" s="38">
+      <c r="E896" s="37">
         <v>13</v>
       </c>
-      <c r="F896" s="38" t="s">
+      <c r="F896" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="897" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A897" s="38" t="s">
+      <c r="A897" s="37" t="s">
         <v>1401</v>
       </c>
-      <c r="B897" s="39" t="s">
+      <c r="B897" s="38" t="s">
         <v>1435</v>
       </c>
-      <c r="C897" s="38" t="s">
+      <c r="C897" s="37" t="s">
         <v>1436</v>
       </c>
-      <c r="D897" s="38">
+      <c r="D897" s="37">
         <v>106</v>
       </c>
-      <c r="E897" s="38">
+      <c r="E897" s="37">
         <v>12</v>
       </c>
-      <c r="F897" s="38" t="s">
+      <c r="F897" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="898" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A898" s="38" t="s">
+      <c r="A898" s="37" t="s">
         <v>1401</v>
       </c>
-      <c r="B898" s="39" t="s">
+      <c r="B898" s="38" t="s">
         <v>1437</v>
       </c>
-      <c r="C898" s="39" t="s">
+      <c r="C898" s="38" t="s">
         <v>1598</v>
       </c>
-      <c r="D898" s="38">
+      <c r="D898" s="37">
         <v>101</v>
       </c>
-      <c r="E898" s="38">
+      <c r="E898" s="37">
         <v>9</v>
       </c>
-      <c r="F898" s="38" t="s">
+      <c r="F898" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="899" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A899" s="38" t="s">
+      <c r="A899" s="37" t="s">
         <v>1401</v>
       </c>
-      <c r="B899" s="39" t="s">
+      <c r="B899" s="38" t="s">
         <v>1438</v>
       </c>
-      <c r="C899" s="38" t="s">
+      <c r="C899" s="37" t="s">
         <v>1439</v>
       </c>
-      <c r="D899" s="38">
+      <c r="D899" s="37">
         <v>79</v>
       </c>
-      <c r="E899" s="38">
+      <c r="E899" s="37">
         <v>6</v>
       </c>
-      <c r="F899" s="38" t="s">
+      <c r="F899" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="900" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A900" s="38" t="s">
+      <c r="A900" s="37" t="s">
         <v>1401</v>
       </c>
-      <c r="B900" s="39" t="s">
+      <c r="B900" s="38" t="s">
         <v>1440</v>
       </c>
-      <c r="C900" s="38" t="s">
+      <c r="C900" s="37" t="s">
         <v>1441</v>
       </c>
-      <c r="D900" s="38">
+      <c r="D900" s="37">
         <v>1066</v>
       </c>
-      <c r="E900" s="38">
+      <c r="E900" s="37">
         <v>10</v>
       </c>
-      <c r="F900" s="38" t="s">
+      <c r="F900" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="901" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A901" s="38" t="s">
+      <c r="A901" s="37" t="s">
         <v>1401</v>
       </c>
-      <c r="B901" s="39" t="s">
+      <c r="B901" s="38" t="s">
         <v>1442</v>
       </c>
-      <c r="C901" s="38" t="s">
+      <c r="C901" s="37" t="s">
         <v>1443</v>
       </c>
-      <c r="D901" s="38">
+      <c r="D901" s="37">
         <v>90</v>
       </c>
-      <c r="E901" s="38">
+      <c r="E901" s="37">
         <v>13</v>
       </c>
-      <c r="F901" s="38" t="s">
+      <c r="F901" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="902" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A902" s="38" t="s">
+      <c r="A902" s="37" t="s">
         <v>1401</v>
       </c>
-      <c r="B902" s="39" t="s">
+      <c r="B902" s="38" t="s">
         <v>1444</v>
       </c>
-      <c r="C902" s="39"/>
-      <c r="D902" s="38">
+      <c r="C902" s="38"/>
+      <c r="D902" s="37">
         <v>43</v>
       </c>
-      <c r="E902" s="38">
+      <c r="E902" s="37">
         <v>2</v>
       </c>
-      <c r="F902" s="38" t="s">
+      <c r="F902" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="903" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A903" s="38" t="s">
+      <c r="A903" s="37" t="s">
         <v>1401</v>
       </c>
-      <c r="B903" s="39" t="s">
+      <c r="B903" s="38" t="s">
         <v>1445</v>
       </c>
-      <c r="C903" s="39" t="s">
+      <c r="C903" s="38" t="s">
         <v>1593</v>
       </c>
-      <c r="D903" s="38">
+      <c r="D903" s="37">
         <v>70</v>
       </c>
-      <c r="E903" s="38">
+      <c r="E903" s="37">
         <v>6</v>
       </c>
-      <c r="F903" s="38" t="s">
+      <c r="F903" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="904" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A904" s="38" t="s">
+      <c r="A904" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B904" s="38" t="s">
+      <c r="B904" s="37" t="s">
         <v>1447</v>
       </c>
-      <c r="C904" s="38" t="s">
+      <c r="C904" s="37" t="s">
         <v>1448</v>
       </c>
-      <c r="D904" s="38">
+      <c r="D904" s="37">
         <v>71</v>
       </c>
-      <c r="E904" s="38">
+      <c r="E904" s="37">
         <v>4</v>
       </c>
-      <c r="F904" s="38" t="s">
+      <c r="F904" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="905" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A905" s="38" t="s">
+      <c r="A905" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B905" s="38" t="s">
+      <c r="B905" s="37" t="s">
         <v>1447</v>
       </c>
-      <c r="C905" s="38" t="s">
+      <c r="C905" s="37" t="s">
         <v>1448</v>
       </c>
-      <c r="D905" s="38">
+      <c r="D905" s="37">
         <v>64</v>
       </c>
-      <c r="E905" s="38">
+      <c r="E905" s="37">
         <v>1</v>
       </c>
-      <c r="F905" s="38" t="s">
+      <c r="F905" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="906" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A906" s="38" t="s">
+      <c r="A906" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B906" s="39" t="s">
+      <c r="B906" s="38" t="s">
         <v>1591</v>
       </c>
-      <c r="C906" s="39" t="s">
+      <c r="C906" s="38" t="s">
         <v>1592</v>
       </c>
-      <c r="D906" s="38">
+      <c r="D906" s="37">
         <v>25</v>
       </c>
-      <c r="E906" s="38">
+      <c r="E906" s="37">
         <v>1</v>
       </c>
-      <c r="F906" s="38" t="s">
+      <c r="F906" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="907" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A907" s="38" t="s">
+      <c r="A907" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B907" s="39" t="s">
+      <c r="B907" s="38" t="s">
         <v>1449</v>
       </c>
-      <c r="C907" s="38" t="s">
+      <c r="C907" s="37" t="s">
         <v>1450</v>
       </c>
-      <c r="D907" s="38">
+      <c r="D907" s="37">
         <v>283</v>
       </c>
-      <c r="E907" s="38">
+      <c r="E907" s="37">
         <v>17</v>
       </c>
-      <c r="F907" s="38" t="s">
+      <c r="F907" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="908" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A908" s="38" t="s">
+      <c r="A908" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B908" s="38" t="s">
+      <c r="B908" s="37" t="s">
         <v>1451</v>
       </c>
-      <c r="C908" s="39" t="s">
+      <c r="C908" s="38" t="s">
         <v>1599</v>
       </c>
-      <c r="D908" s="38">
+      <c r="D908" s="37">
         <v>20</v>
       </c>
-      <c r="E908" s="38">
+      <c r="E908" s="37">
         <v>0</v>
       </c>
-      <c r="F908" s="38" t="s">
+      <c r="F908" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="909" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A909" s="38" t="s">
+      <c r="A909" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B909" s="39" t="s">
+      <c r="B909" s="38" t="s">
         <v>1452</v>
       </c>
-      <c r="C909" s="38" t="s">
+      <c r="C909" s="37" t="s">
         <v>1453</v>
       </c>
-      <c r="D909" s="38">
+      <c r="D909" s="37">
         <v>18</v>
       </c>
-      <c r="E909" s="38">
+      <c r="E909" s="37">
         <v>0</v>
       </c>
-      <c r="F909" s="38" t="s">
+      <c r="F909" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="910" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A910" s="38" t="s">
+      <c r="A910" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B910" s="39" t="s">
+      <c r="B910" s="38" t="s">
         <v>1454</v>
       </c>
-      <c r="C910" s="39" t="s">
+      <c r="C910" s="38" t="s">
         <v>1453</v>
       </c>
-      <c r="D910" s="38">
+      <c r="D910" s="37">
         <v>14</v>
       </c>
-      <c r="E910" s="38">
+      <c r="E910" s="37">
         <v>0</v>
       </c>
-      <c r="F910" s="38" t="s">
+      <c r="F910" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="911" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A911" s="38" t="s">
+      <c r="A911" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B911" s="38" t="s">
+      <c r="B911" s="37" t="s">
         <v>1455</v>
       </c>
-      <c r="C911" s="39" t="s">
+      <c r="C911" s="38" t="s">
         <v>1600</v>
       </c>
-      <c r="D911" s="38">
+      <c r="D911" s="37">
         <v>25</v>
       </c>
-      <c r="E911" s="38">
+      <c r="E911" s="37">
         <v>4</v>
       </c>
-      <c r="F911" s="38" t="s">
+      <c r="F911" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="912" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A912" s="38" t="s">
+      <c r="A912" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B912" s="39" t="s">
+      <c r="B912" s="38" t="s">
         <v>1456</v>
       </c>
-      <c r="C912" s="38" t="s">
+      <c r="C912" s="37" t="s">
         <v>1457</v>
       </c>
-      <c r="D912" s="38">
+      <c r="D912" s="37">
         <v>38</v>
       </c>
-      <c r="E912" s="38">
+      <c r="E912" s="37">
         <v>0</v>
       </c>
-      <c r="F912" s="38" t="s">
+      <c r="F912" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="913" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A913" s="38" t="s">
+      <c r="A913" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B913" s="39" t="s">
+      <c r="B913" s="38" t="s">
         <v>1458</v>
       </c>
-      <c r="C913" s="38" t="s">
+      <c r="C913" s="37" t="s">
         <v>1459</v>
       </c>
-      <c r="D913" s="38">
+      <c r="D913" s="37">
         <v>31</v>
       </c>
-      <c r="E913" s="38">
+      <c r="E913" s="37">
         <v>4</v>
       </c>
-      <c r="F913" s="38" t="s">
+      <c r="F913" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="914" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A914" s="38" t="s">
+      <c r="A914" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B914" s="39" t="s">
+      <c r="B914" s="38" t="s">
         <v>1601</v>
       </c>
-      <c r="C914" s="39" t="s">
+      <c r="C914" s="38" t="s">
         <v>1602</v>
       </c>
-      <c r="D914" s="38">
+      <c r="D914" s="37">
         <v>28</v>
       </c>
-      <c r="E914" s="38">
+      <c r="E914" s="37">
         <v>0</v>
       </c>
-      <c r="F914" s="38" t="s">
+      <c r="F914" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="915" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A915" s="38" t="s">
+      <c r="A915" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B915" s="38" t="s">
+      <c r="B915" s="37" t="s">
         <v>1460</v>
       </c>
-      <c r="C915" s="38" t="s">
+      <c r="C915" s="37" t="s">
         <v>1461</v>
       </c>
-      <c r="D915" s="38">
+      <c r="D915" s="37">
         <v>25</v>
       </c>
-      <c r="E915" s="38">
+      <c r="E915" s="37">
         <v>0</v>
       </c>
-      <c r="F915" s="38" t="s">
+      <c r="F915" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="916" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A916" s="38" t="s">
+      <c r="A916" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B916" s="38" t="s">
+      <c r="B916" s="37" t="s">
         <v>1462</v>
       </c>
-      <c r="C916" s="38" t="s">
+      <c r="C916" s="37" t="s">
         <v>1463</v>
       </c>
-      <c r="D916" s="38">
+      <c r="D916" s="37">
         <v>20</v>
       </c>
-      <c r="E916" s="38">
+      <c r="E916" s="37">
         <v>2</v>
       </c>
-      <c r="F916" s="38" t="s">
+      <c r="F916" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="917" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A917" s="38" t="s">
+      <c r="A917" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B917" s="39" t="s">
+      <c r="B917" s="38" t="s">
         <v>1464</v>
       </c>
-      <c r="C917" s="38" t="s">
+      <c r="C917" s="37" t="s">
         <v>1465</v>
       </c>
-      <c r="D917" s="38">
+      <c r="D917" s="37">
         <v>47</v>
       </c>
-      <c r="E917" s="38">
+      <c r="E917" s="37">
         <v>0</v>
       </c>
-      <c r="F917" s="38" t="s">
+      <c r="F917" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="918" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A918" s="38" t="s">
+      <c r="A918" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B918" s="38" t="s">
+      <c r="B918" s="37" t="s">
         <v>1466</v>
       </c>
-      <c r="C918" s="38" t="s">
+      <c r="C918" s="37" t="s">
         <v>1467</v>
       </c>
-      <c r="D918" s="38">
+      <c r="D918" s="37">
         <v>40</v>
       </c>
-      <c r="E918" s="38">
+      <c r="E918" s="37">
         <v>4</v>
       </c>
-      <c r="F918" s="38" t="s">
+      <c r="F918" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="919" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A919" s="38" t="s">
+      <c r="A919" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B919" s="38" t="s">
+      <c r="B919" s="37" t="s">
         <v>1468</v>
       </c>
-      <c r="C919" s="39" t="s">
+      <c r="C919" s="38" t="s">
         <v>1603</v>
       </c>
-      <c r="D919" s="38">
+      <c r="D919" s="37">
         <v>36</v>
       </c>
-      <c r="E919" s="38">
+      <c r="E919" s="37">
         <v>1</v>
       </c>
-      <c r="F919" s="38" t="s">
+      <c r="F919" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="920" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A920" s="38" t="s">
+      <c r="A920" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B920" s="39" t="s">
+      <c r="B920" s="38" t="s">
         <v>1605</v>
       </c>
-      <c r="C920" s="39" t="s">
+      <c r="C920" s="38" t="s">
         <v>1604</v>
       </c>
-      <c r="D920" s="38">
+      <c r="D920" s="37">
         <v>34</v>
       </c>
-      <c r="E920" s="38">
+      <c r="E920" s="37">
         <v>1</v>
       </c>
-      <c r="F920" s="38" t="s">
+      <c r="F920" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="921" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A921" s="38" t="s">
+      <c r="A921" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B921" s="39" t="s">
+      <c r="B921" s="38" t="s">
         <v>1469</v>
       </c>
-      <c r="C921" s="38" t="s">
+      <c r="C921" s="37" t="s">
         <v>1470</v>
       </c>
-      <c r="D921" s="38">
+      <c r="D921" s="37">
         <v>41</v>
       </c>
-      <c r="E921" s="38">
+      <c r="E921" s="37">
         <v>4</v>
       </c>
-      <c r="F921" s="38" t="s">
+      <c r="F921" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="922" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A922" s="38" t="s">
+      <c r="A922" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B922" s="38" t="s">
+      <c r="B922" s="37" t="s">
         <v>1471</v>
       </c>
-      <c r="C922" s="38" t="s">
+      <c r="C922" s="37" t="s">
         <v>1472</v>
       </c>
-      <c r="D922" s="38">
+      <c r="D922" s="37">
         <v>207</v>
       </c>
-      <c r="E922" s="38">
+      <c r="E922" s="37">
         <v>7</v>
       </c>
-      <c r="F922" s="38" t="s">
+      <c r="F922" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="923" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A923" s="38" t="s">
+      <c r="A923" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B923" s="39" t="s">
+      <c r="B923" s="38" t="s">
         <v>1473</v>
       </c>
-      <c r="C923" s="38" t="s">
+      <c r="C923" s="37" t="s">
         <v>1474</v>
       </c>
-      <c r="D923" s="38">
+      <c r="D923" s="37">
         <v>37</v>
       </c>
-      <c r="E923" s="38">
+      <c r="E923" s="37">
         <v>2</v>
       </c>
-      <c r="F923" s="38" t="s">
+      <c r="F923" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="924" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A924" s="38" t="s">
+      <c r="A924" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B924" s="38" t="s">
+      <c r="B924" s="37" t="s">
         <v>1475</v>
       </c>
-      <c r="C924" s="38" t="s">
+      <c r="C924" s="37" t="s">
         <v>1476</v>
       </c>
-      <c r="D924" s="38">
+      <c r="D924" s="37">
         <v>43</v>
       </c>
-      <c r="E924" s="38">
+      <c r="E924" s="37">
         <v>6</v>
       </c>
-      <c r="F924" s="38" t="s">
+      <c r="F924" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="925" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A925" s="38" t="s">
+      <c r="A925" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B925" s="39" t="s">
+      <c r="B925" s="38" t="s">
         <v>1477</v>
       </c>
-      <c r="C925" s="39" t="s">
+      <c r="C925" s="38" t="s">
         <v>1479</v>
       </c>
-      <c r="D925" s="38">
+      <c r="D925" s="37">
         <v>95</v>
       </c>
-      <c r="E925" s="38">
+      <c r="E925" s="37">
         <v>0</v>
       </c>
-      <c r="F925" s="38" t="s">
+      <c r="F925" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="926" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A926" s="38" t="s">
+      <c r="A926" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B926" s="39" t="s">
+      <c r="B926" s="38" t="s">
         <v>1478</v>
       </c>
-      <c r="C926" s="38" t="s">
+      <c r="C926" s="37" t="s">
         <v>1479</v>
       </c>
-      <c r="D926" s="38">
+      <c r="D926" s="37">
         <v>117</v>
       </c>
-      <c r="E926" s="38">
+      <c r="E926" s="37">
         <v>2</v>
       </c>
-      <c r="F926" s="38" t="s">
+      <c r="F926" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="927" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A927" s="38" t="s">
+      <c r="A927" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B927" s="39" t="s">
+      <c r="B927" s="38" t="s">
         <v>1480</v>
       </c>
-      <c r="C927" s="38" t="s">
+      <c r="C927" s="37" t="s">
         <v>1481</v>
       </c>
-      <c r="D927" s="38">
+      <c r="D927" s="37">
         <v>164</v>
       </c>
-      <c r="E927" s="38">
+      <c r="E927" s="37">
         <v>0</v>
       </c>
-      <c r="F927" s="38" t="s">
+      <c r="F927" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="928" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A928" s="38" t="s">
+      <c r="A928" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B928" s="39" t="s">
+      <c r="B928" s="38" t="s">
         <v>1482</v>
       </c>
-      <c r="C928" s="39" t="s">
+      <c r="C928" s="38" t="s">
         <v>1483</v>
       </c>
-      <c r="D928" s="38">
+      <c r="D928" s="37">
         <v>187</v>
       </c>
-      <c r="E928" s="38">
+      <c r="E928" s="37">
         <v>2</v>
       </c>
-      <c r="F928" s="38" t="s">
+      <c r="F928" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="929" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A929" s="38" t="s">
+      <c r="A929" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B929" s="39" t="s">
+      <c r="B929" s="38" t="s">
         <v>1484</v>
       </c>
-      <c r="C929" s="38" t="s">
+      <c r="C929" s="37" t="s">
         <v>1481</v>
       </c>
-      <c r="D929" s="38">
+      <c r="D929" s="37">
         <v>1441</v>
       </c>
-      <c r="E929" s="38">
+      <c r="E929" s="37">
         <v>12</v>
       </c>
-      <c r="F929" s="38" t="s">
+      <c r="F929" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="930" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A930" s="38" t="s">
+      <c r="A930" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B930" s="39" t="s">
+      <c r="B930" s="38" t="s">
         <v>1485</v>
       </c>
-      <c r="C930" s="38" t="s">
+      <c r="C930" s="37" t="s">
         <v>1481</v>
       </c>
-      <c r="D930" s="38">
+      <c r="D930" s="37">
         <v>395</v>
       </c>
-      <c r="E930" s="38">
+      <c r="E930" s="37">
         <v>8</v>
       </c>
-      <c r="F930" s="38" t="s">
+      <c r="F930" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="931" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A931" s="38" t="s">
+      <c r="A931" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B931" s="39" t="s">
+      <c r="B931" s="38" t="s">
         <v>1486</v>
       </c>
-      <c r="C931" s="38" t="s">
+      <c r="C931" s="37" t="s">
         <v>1487</v>
       </c>
-      <c r="D931" s="38">
+      <c r="D931" s="37">
         <v>948</v>
       </c>
-      <c r="E931" s="38">
+      <c r="E931" s="37">
         <v>17</v>
       </c>
-      <c r="F931" s="38" t="s">
+      <c r="F931" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="932" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A932" s="38" t="s">
+      <c r="A932" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B932" s="39" t="s">
+      <c r="B932" s="38" t="s">
         <v>1488</v>
       </c>
-      <c r="C932" s="39" t="s">
+      <c r="C932" s="38" t="s">
         <v>1606</v>
       </c>
-      <c r="D932" s="38">
+      <c r="D932" s="37">
         <v>1569</v>
       </c>
-      <c r="E932" s="38">
+      <c r="E932" s="37">
         <v>27</v>
       </c>
-      <c r="F932" s="38" t="s">
+      <c r="F932" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="933" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A933" s="38" t="s">
+      <c r="A933" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B933" s="39" t="s">
+      <c r="B933" s="38" t="s">
         <v>1489</v>
       </c>
-      <c r="C933" s="39" t="s">
+      <c r="C933" s="38" t="s">
         <v>1607</v>
       </c>
-      <c r="D933" s="38">
+      <c r="D933" s="37">
         <v>211</v>
       </c>
-      <c r="E933" s="38">
+      <c r="E933" s="37">
         <v>4</v>
       </c>
-      <c r="F933" s="38" t="s">
+      <c r="F933" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="934" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A934" s="38" t="s">
+      <c r="A934" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B934" s="39" t="s">
+      <c r="B934" s="38" t="s">
         <v>1490</v>
       </c>
-      <c r="C934" s="38" t="s">
+      <c r="C934" s="37" t="s">
         <v>1491</v>
       </c>
-      <c r="D934" s="38">
+      <c r="D934" s="37">
         <v>622</v>
       </c>
-      <c r="E934" s="38">
+      <c r="E934" s="37">
         <v>4</v>
       </c>
-      <c r="F934" s="38" t="s">
+      <c r="F934" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="935" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A935" s="38" t="s">
+      <c r="A935" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B935" s="39" t="s">
+      <c r="B935" s="38" t="s">
         <v>1492</v>
       </c>
-      <c r="C935" s="39" t="s">
+      <c r="C935" s="38" t="s">
         <v>1495</v>
       </c>
-      <c r="D935" s="38">
+      <c r="D935" s="37">
         <v>432</v>
       </c>
-      <c r="E935" s="38">
+      <c r="E935" s="37">
         <v>8</v>
       </c>
-      <c r="F935" s="38" t="s">
+      <c r="F935" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="936" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A936" s="38" t="s">
+      <c r="A936" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B936" s="39" t="s">
+      <c r="B936" s="38" t="s">
         <v>1493</v>
       </c>
-      <c r="C936" s="39" t="s">
+      <c r="C936" s="38" t="s">
         <v>1608</v>
       </c>
-      <c r="D936" s="38">
+      <c r="D936" s="37">
         <v>378</v>
       </c>
-      <c r="E936" s="38">
+      <c r="E936" s="37">
         <v>18</v>
       </c>
-      <c r="F936" s="38" t="s">
+      <c r="F936" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="937" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A937" s="38" t="s">
+      <c r="A937" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B937" s="39" t="s">
+      <c r="B937" s="38" t="s">
         <v>1494</v>
       </c>
-      <c r="C937" s="38" t="s">
+      <c r="C937" s="37" t="s">
         <v>1495</v>
       </c>
-      <c r="D937" s="38">
+      <c r="D937" s="37">
         <v>574</v>
       </c>
-      <c r="E937" s="38">
+      <c r="E937" s="37">
         <v>8</v>
       </c>
-      <c r="F937" s="38" t="s">
+      <c r="F937" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="938" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A938" s="38" t="s">
+      <c r="A938" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B938" s="39" t="s">
+      <c r="B938" s="38" t="s">
         <v>1496</v>
       </c>
-      <c r="C938" s="38" t="s">
+      <c r="C938" s="37" t="s">
         <v>1491</v>
       </c>
-      <c r="D938" s="38">
+      <c r="D938" s="37">
         <v>1355</v>
       </c>
-      <c r="E938" s="38">
+      <c r="E938" s="37">
         <v>6</v>
       </c>
-      <c r="F938" s="38" t="s">
+      <c r="F938" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="939" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A939" s="38" t="s">
+      <c r="A939" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B939" s="39" t="s">
+      <c r="B939" s="38" t="s">
         <v>1497</v>
       </c>
-      <c r="C939" s="38" t="s">
+      <c r="C939" s="37" t="s">
         <v>1498</v>
       </c>
-      <c r="D939" s="38">
+      <c r="D939" s="37">
         <v>1369</v>
       </c>
-      <c r="E939" s="38">
+      <c r="E939" s="37">
         <v>8</v>
       </c>
-      <c r="F939" s="38" t="s">
+      <c r="F939" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="940" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A940" s="38" t="s">
+      <c r="A940" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B940" s="39" t="s">
+      <c r="B940" s="38" t="s">
         <v>1499</v>
       </c>
-      <c r="C940" s="38" t="s">
+      <c r="C940" s="37" t="s">
         <v>1495</v>
       </c>
-      <c r="D940" s="38">
+      <c r="D940" s="37">
         <v>362</v>
       </c>
-      <c r="E940" s="38">
+      <c r="E940" s="37">
         <v>6</v>
       </c>
-      <c r="F940" s="38" t="s">
+      <c r="F940" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="941" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A941" s="38" t="s">
+      <c r="A941" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B941" s="39" t="s">
+      <c r="B941" s="38" t="s">
         <v>1500</v>
       </c>
-      <c r="C941" s="38" t="s">
+      <c r="C941" s="37" t="s">
         <v>1495</v>
       </c>
-      <c r="D941" s="38">
+      <c r="D941" s="37">
         <v>1478</v>
       </c>
-      <c r="E941" s="38">
+      <c r="E941" s="37">
         <v>10</v>
       </c>
-      <c r="F941" s="38" t="s">
+      <c r="F941" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="942" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A942" s="38" t="s">
+      <c r="A942" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B942" s="39" t="s">
+      <c r="B942" s="38" t="s">
         <v>1501</v>
       </c>
-      <c r="C942" s="38" t="s">
+      <c r="C942" s="37" t="s">
         <v>1502</v>
       </c>
-      <c r="D942" s="38">
+      <c r="D942" s="37">
         <v>3546</v>
       </c>
-      <c r="E942" s="38">
+      <c r="E942" s="37">
         <v>56</v>
       </c>
-      <c r="F942" s="38" t="s">
+      <c r="F942" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="943" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A943" s="38" t="s">
+      <c r="A943" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B943" s="39" t="s">
+      <c r="B943" s="38" t="s">
         <v>1503</v>
       </c>
-      <c r="C943" s="38" t="s">
+      <c r="C943" s="37" t="s">
         <v>1502</v>
       </c>
-      <c r="D943" s="38">
+      <c r="D943" s="37">
         <v>775</v>
       </c>
-      <c r="E943" s="38">
+      <c r="E943" s="37">
         <v>6</v>
       </c>
-      <c r="F943" s="38" t="s">
+      <c r="F943" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="944" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A944" s="38" t="s">
+      <c r="A944" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B944" s="39" t="s">
+      <c r="B944" s="38" t="s">
         <v>1504</v>
       </c>
-      <c r="C944" s="38" t="s">
+      <c r="C944" s="37" t="s">
         <v>1502</v>
       </c>
-      <c r="D944" s="38">
+      <c r="D944" s="37">
         <v>843</v>
       </c>
-      <c r="E944" s="38">
+      <c r="E944" s="37">
         <v>17</v>
       </c>
-      <c r="F944" s="38" t="s">
+      <c r="F944" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="945" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A945" s="38" t="s">
+      <c r="A945" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B945" s="39" t="s">
+      <c r="B945" s="38" t="s">
         <v>1505</v>
       </c>
-      <c r="C945" s="38" t="s">
+      <c r="C945" s="37" t="s">
         <v>1502</v>
       </c>
-      <c r="D945" s="38">
+      <c r="D945" s="37">
         <v>1449</v>
       </c>
-      <c r="E945" s="38">
+      <c r="E945" s="37">
         <v>36</v>
       </c>
-      <c r="F945" s="38" t="s">
+      <c r="F945" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="946" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A946" s="38" t="s">
+      <c r="A946" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B946" s="39" t="s">
+      <c r="B946" s="38" t="s">
         <v>1506</v>
       </c>
-      <c r="C946" s="38" t="s">
+      <c r="C946" s="37" t="s">
         <v>1502</v>
       </c>
-      <c r="D946" s="38">
+      <c r="D946" s="37">
         <v>560</v>
       </c>
-      <c r="E946" s="38">
+      <c r="E946" s="37">
         <v>4</v>
       </c>
-      <c r="F946" s="38" t="s">
+      <c r="F946" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="947" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A947" s="38" t="s">
+      <c r="A947" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B947" s="39" t="s">
+      <c r="B947" s="38" t="s">
         <v>1507</v>
       </c>
-      <c r="C947" s="38" t="s">
+      <c r="C947" s="37" t="s">
         <v>1502</v>
       </c>
-      <c r="D947" s="38">
+      <c r="D947" s="37">
         <v>3602</v>
       </c>
-      <c r="E947" s="38">
+      <c r="E947" s="37">
         <v>138</v>
       </c>
-      <c r="F947" s="38" t="s">
+      <c r="F947" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="948" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A948" s="38" t="s">
+      <c r="A948" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B948" s="39" t="s">
+      <c r="B948" s="38" t="s">
         <v>1508</v>
       </c>
-      <c r="C948" s="38" t="s">
+      <c r="C948" s="37" t="s">
         <v>1502</v>
       </c>
-      <c r="D948" s="38">
+      <c r="D948" s="37">
         <v>1552</v>
       </c>
-      <c r="E948" s="38">
+      <c r="E948" s="37">
         <v>25</v>
       </c>
-      <c r="F948" s="38" t="s">
+      <c r="F948" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="949" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A949" s="38" t="s">
+      <c r="A949" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B949" s="39" t="s">
+      <c r="B949" s="38" t="s">
         <v>1509</v>
       </c>
-      <c r="C949" s="39" t="s">
+      <c r="C949" s="38" t="s">
         <v>1510</v>
       </c>
-      <c r="D949" s="38">
+      <c r="D949" s="37">
         <v>2815</v>
       </c>
-      <c r="E949" s="38">
+      <c r="E949" s="37">
         <v>43</v>
       </c>
-      <c r="F949" s="38" t="s">
+      <c r="F949" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="950" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A950" s="38" t="s">
+      <c r="A950" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B950" s="39" t="s">
+      <c r="B950" s="38" t="s">
         <v>1511</v>
       </c>
-      <c r="C950" s="38" t="s">
+      <c r="C950" s="37" t="s">
         <v>1502</v>
       </c>
-      <c r="D950" s="38">
+      <c r="D950" s="37">
         <v>1279</v>
       </c>
-      <c r="E950" s="38">
+      <c r="E950" s="37">
         <v>17</v>
       </c>
-      <c r="F950" s="38" t="s">
+      <c r="F950" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="951" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A951" s="38" t="s">
+      <c r="A951" s="37" t="s">
         <v>1446</v>
       </c>
-      <c r="B951" s="39" t="s">
+      <c r="B951" s="38" t="s">
         <v>1512</v>
       </c>
-      <c r="C951" s="39" t="s">
+      <c r="C951" s="38" t="s">
         <v>1481</v>
       </c>
-      <c r="D951" s="38">
+      <c r="D951" s="37">
         <v>484</v>
       </c>
-      <c r="E951" s="38">
+      <c r="E951" s="37">
         <v>19</v>
       </c>
-      <c r="F951" s="38" t="s">
+      <c r="F951" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="952" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A952" s="38" t="s">
+      <c r="A952" s="37" t="s">
         <v>1515</v>
       </c>
-      <c r="B952" s="39" t="s">
+      <c r="B952" s="38" t="s">
         <v>1513</v>
       </c>
-      <c r="C952" s="38" t="s">
+      <c r="C952" s="37" t="s">
         <v>1514</v>
       </c>
-      <c r="D952" s="38">
+      <c r="D952" s="37">
         <v>59</v>
       </c>
-      <c r="E952" s="38">
+      <c r="E952" s="37">
         <v>0</v>
       </c>
-      <c r="F952" s="38" t="s">
+      <c r="F952" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="953" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A953" s="38" t="s">
+      <c r="A953" s="37" t="s">
         <v>1515</v>
       </c>
-      <c r="B953" s="39" t="s">
+      <c r="B953" s="38" t="s">
         <v>1516</v>
       </c>
-      <c r="C953" s="38" t="s">
+      <c r="C953" s="37" t="s">
         <v>1514</v>
       </c>
-      <c r="D953" s="38">
+      <c r="D953" s="37">
         <v>23</v>
       </c>
-      <c r="E953" s="38">
+      <c r="E953" s="37">
         <v>0</v>
       </c>
-      <c r="F953" s="50" t="s">
+      <c r="F953" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="954" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A954" s="39" t="s">
+      <c r="A954" s="38" t="s">
         <v>1517</v>
       </c>
-      <c r="B954" s="38" t="s">
+      <c r="B954" s="37" t="s">
         <v>1518</v>
       </c>
-      <c r="C954" s="39" t="s">
+      <c r="C954" s="38" t="s">
         <v>1520</v>
       </c>
-      <c r="D954" s="38">
+      <c r="D954" s="37">
         <v>47</v>
       </c>
-      <c r="E954" s="38">
+      <c r="E954" s="37">
         <v>0</v>
       </c>
-      <c r="F954" s="50" t="s">
+      <c r="F954" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="955" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A955" s="39" t="s">
+      <c r="A955" s="38" t="s">
         <v>1517</v>
       </c>
-      <c r="B955" s="39" t="s">
+      <c r="B955" s="38" t="s">
         <v>1519</v>
       </c>
-      <c r="C955" s="39" t="s">
+      <c r="C955" s="38" t="s">
         <v>1520</v>
       </c>
-      <c r="D955" s="38">
+      <c r="D955" s="37">
         <v>37</v>
       </c>
-      <c r="E955" s="38">
+      <c r="E955" s="37">
         <v>0</v>
       </c>
-      <c r="F955" s="50" t="s">
+      <c r="F955" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="956" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A956" s="39" t="s">
+      <c r="A956" s="38" t="s">
         <v>1517</v>
       </c>
-      <c r="B956" s="38" t="s">
+      <c r="B956" s="37" t="s">
         <v>1518</v>
       </c>
-      <c r="C956" s="38" t="s">
+      <c r="C956" s="37" t="s">
         <v>1520</v>
       </c>
-      <c r="D956" s="38">
+      <c r="D956" s="37">
         <v>82</v>
       </c>
-      <c r="E956" s="38">
+      <c r="E956" s="37">
         <v>0</v>
       </c>
-      <c r="F956" s="50" t="s">
+      <c r="F956" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="957" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A957" s="39" t="s">
+      <c r="A957" s="38" t="s">
         <v>1517</v>
       </c>
-      <c r="B957" s="38" t="s">
+      <c r="B957" s="37" t="s">
         <v>1518</v>
       </c>
-      <c r="C957" s="38" t="s">
+      <c r="C957" s="37" t="s">
         <v>1520</v>
       </c>
-      <c r="D957" s="38">
+      <c r="D957" s="37">
         <v>56</v>
       </c>
-      <c r="E957" s="38">
+      <c r="E957" s="37">
         <v>0</v>
       </c>
-      <c r="F957" s="50" t="s">
+      <c r="F957" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="958" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A958" s="39" t="s">
+      <c r="A958" s="38" t="s">
         <v>1517</v>
       </c>
-      <c r="B958" s="38" t="s">
+      <c r="B958" s="37" t="s">
         <v>1518</v>
       </c>
-      <c r="C958" s="38" t="s">
+      <c r="C958" s="37" t="s">
         <v>1520</v>
       </c>
-      <c r="D958" s="38">
+      <c r="D958" s="37">
         <v>176</v>
       </c>
-      <c r="E958" s="38">
+      <c r="E958" s="37">
         <v>1</v>
       </c>
-      <c r="F958" s="50" t="s">
+      <c r="F958" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="959" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A959" s="39" t="s">
+      <c r="A959" s="38" t="s">
         <v>1517</v>
       </c>
-      <c r="B959" s="38" t="s">
+      <c r="B959" s="37" t="s">
         <v>1518</v>
       </c>
-      <c r="C959" s="38" t="s">
+      <c r="C959" s="37" t="s">
         <v>1520</v>
       </c>
-      <c r="D959" s="38">
+      <c r="D959" s="37">
         <v>468</v>
       </c>
-      <c r="E959" s="38">
+      <c r="E959" s="37">
         <v>0</v>
       </c>
-      <c r="F959" s="50" t="s">
+      <c r="F959" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="960" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A960" s="39" t="s">
+      <c r="A960" s="38" t="s">
         <v>1517</v>
       </c>
-      <c r="B960" s="39" t="s">
+      <c r="B960" s="38" t="s">
         <v>1521</v>
       </c>
-      <c r="C960" s="38" t="s">
+      <c r="C960" s="37" t="s">
         <v>1522</v>
       </c>
-      <c r="D960" s="38">
+      <c r="D960" s="37">
         <v>64</v>
       </c>
-      <c r="E960" s="38">
+      <c r="E960" s="37">
         <v>1</v>
       </c>
-      <c r="F960" s="50" t="s">
+      <c r="F960" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="961" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A961" s="39" t="s">
+      <c r="A961" s="38" t="s">
         <v>1517</v>
       </c>
-      <c r="B961" s="39" t="s">
+      <c r="B961" s="38" t="s">
         <v>1523</v>
       </c>
-      <c r="C961" s="39" t="s">
+      <c r="C961" s="38" t="s">
         <v>1522</v>
       </c>
-      <c r="D961" s="38">
+      <c r="D961" s="37">
         <v>1274</v>
       </c>
-      <c r="E961" s="38">
+      <c r="E961" s="37">
         <v>22</v>
       </c>
-      <c r="F961" s="50" t="s">
+      <c r="F961" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="962" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A962" s="39" t="s">
+      <c r="A962" s="38" t="s">
         <v>1517</v>
       </c>
-      <c r="B962" s="39" t="s">
+      <c r="B962" s="38" t="s">
         <v>1524</v>
       </c>
-      <c r="C962" s="38" t="s">
+      <c r="C962" s="37" t="s">
         <v>1522</v>
       </c>
-      <c r="D962" s="38">
+      <c r="D962" s="37">
         <v>69</v>
       </c>
-      <c r="E962" s="38">
+      <c r="E962" s="37">
         <v>1</v>
       </c>
-      <c r="F962" s="50" t="s">
+      <c r="F962" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="963" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A963" s="39" t="s">
+      <c r="A963" s="38" t="s">
         <v>1517</v>
       </c>
-      <c r="B963" s="39" t="s">
+      <c r="B963" s="38" t="s">
         <v>1525</v>
       </c>
-      <c r="C963" s="38" t="s">
+      <c r="C963" s="37" t="s">
         <v>1522</v>
       </c>
-      <c r="D963" s="38">
+      <c r="D963" s="37">
         <v>121</v>
       </c>
-      <c r="E963" s="38">
+      <c r="E963" s="37">
         <v>0</v>
       </c>
-      <c r="F963" s="50" t="s">
+      <c r="F963" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="964" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A964" s="39" t="s">
+      <c r="A964" s="38" t="s">
         <v>1517</v>
       </c>
-      <c r="B964" s="39" t="s">
+      <c r="B964" s="38" t="s">
         <v>1526</v>
       </c>
-      <c r="C964" s="38" t="s">
+      <c r="C964" s="37" t="s">
         <v>1522</v>
       </c>
-      <c r="D964" s="38">
+      <c r="D964" s="37">
         <v>186</v>
       </c>
-      <c r="E964" s="38">
+      <c r="E964" s="37">
         <v>0</v>
       </c>
-      <c r="F964" s="50" t="s">
+      <c r="F964" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="965" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A965" s="39" t="s">
+      <c r="A965" s="38" t="s">
         <v>1517</v>
       </c>
-      <c r="B965" s="39" t="s">
+      <c r="B965" s="38" t="s">
         <v>1527</v>
       </c>
-      <c r="C965" s="38" t="s">
+      <c r="C965" s="37" t="s">
         <v>1522</v>
       </c>
-      <c r="D965" s="38">
+      <c r="D965" s="37">
         <v>370</v>
       </c>
-      <c r="E965" s="38">
+      <c r="E965" s="37">
         <v>1</v>
       </c>
-      <c r="F965" s="50" t="s">
+      <c r="F965" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="966" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A966" s="39" t="s">
+      <c r="A966" s="38" t="s">
         <v>1517</v>
       </c>
-      <c r="B966" s="39" t="s">
+      <c r="B966" s="38" t="s">
         <v>1528</v>
       </c>
-      <c r="C966" s="38" t="s">
+      <c r="C966" s="37" t="s">
         <v>1522</v>
       </c>
-      <c r="D966" s="38">
+      <c r="D966" s="37">
         <v>109</v>
       </c>
-      <c r="E966" s="38">
+      <c r="E966" s="37">
         <v>1</v>
       </c>
-      <c r="F966" s="50" t="s">
+      <c r="F966" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="967" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A967" s="39" t="s">
+      <c r="A967" s="38" t="s">
         <v>1517</v>
       </c>
-      <c r="B967" s="39" t="s">
+      <c r="B967" s="38" t="s">
         <v>1528</v>
       </c>
-      <c r="C967" s="38" t="s">
+      <c r="C967" s="37" t="s">
         <v>1522</v>
       </c>
-      <c r="D967" s="38">
+      <c r="D967" s="37">
         <v>387</v>
       </c>
-      <c r="E967" s="38">
+      <c r="E967" s="37">
         <v>1</v>
       </c>
-      <c r="F967" s="50" t="s">
+      <c r="F967" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="968" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A968" s="39" t="s">
+      <c r="A968" s="38" t="s">
         <v>1517</v>
       </c>
-      <c r="B968" s="39" t="s">
+      <c r="B968" s="38" t="s">
         <v>1529</v>
       </c>
-      <c r="C968" s="39" t="s">
+      <c r="C968" s="38" t="s">
         <v>1530</v>
       </c>
-      <c r="D968" s="38">
+      <c r="D968" s="37">
         <v>463</v>
       </c>
-      <c r="E968" s="38">
+      <c r="E968" s="37">
         <v>3</v>
       </c>
-      <c r="F968" s="50" t="s">
+      <c r="F968" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="969" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A969" s="39" t="s">
+      <c r="A969" s="38" t="s">
         <v>1517</v>
       </c>
-      <c r="B969" s="39" t="s">
+      <c r="B969" s="38" t="s">
         <v>1531</v>
       </c>
-      <c r="C969" s="38" t="s">
+      <c r="C969" s="37" t="s">
         <v>1532</v>
       </c>
-      <c r="D969" s="38">
+      <c r="D969" s="37">
         <v>240</v>
       </c>
-      <c r="E969" s="38">
+      <c r="E969" s="37">
         <v>1</v>
       </c>
-      <c r="F969" s="50" t="s">
+      <c r="F969" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="970" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A970" s="39" t="s">
+      <c r="A970" s="38" t="s">
         <v>1517</v>
       </c>
-      <c r="B970" s="39" t="s">
+      <c r="B970" s="38" t="s">
         <v>1533</v>
       </c>
-      <c r="C970" s="38" t="s">
+      <c r="C970" s="37" t="s">
         <v>1532</v>
       </c>
-      <c r="D970" s="38">
+      <c r="D970" s="37">
         <v>208</v>
       </c>
-      <c r="E970" s="38">
+      <c r="E970" s="37">
         <v>0</v>
       </c>
-      <c r="F970" s="50" t="s">
+      <c r="F970" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="971" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A971" s="39" t="s">
+      <c r="A971" s="38" t="s">
         <v>1517</v>
       </c>
-      <c r="B971" s="39" t="s">
+      <c r="B971" s="38" t="s">
         <v>1533</v>
       </c>
-      <c r="C971" s="38" t="s">
+      <c r="C971" s="37" t="s">
         <v>1532</v>
       </c>
-      <c r="D971" s="38">
+      <c r="D971" s="37">
         <v>159</v>
       </c>
-      <c r="E971" s="38">
+      <c r="E971" s="37">
         <v>1</v>
       </c>
-      <c r="F971" s="50" t="s">
+      <c r="F971" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="972" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A972" s="39" t="s">
+      <c r="A972" s="38" t="s">
         <v>1517</v>
       </c>
-      <c r="B972" s="39" t="s">
+      <c r="B972" s="38" t="s">
         <v>1533</v>
       </c>
-      <c r="C972" s="38" t="s">
+      <c r="C972" s="37" t="s">
         <v>1532</v>
       </c>
-      <c r="D972" s="38">
+      <c r="D972" s="37">
         <v>318</v>
       </c>
-      <c r="E972" s="38">
+      <c r="E972" s="37">
         <v>2</v>
       </c>
-      <c r="F972" s="50" t="s">
+      <c r="F972" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="973" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A973" s="39" t="s">
+      <c r="A973" s="38" t="s">
         <v>1517</v>
       </c>
-      <c r="B973" s="39" t="s">
+      <c r="B973" s="38" t="s">
         <v>1534</v>
       </c>
-      <c r="C973" s="39" t="s">
+      <c r="C973" s="38" t="s">
         <v>1536</v>
       </c>
-      <c r="D973" s="38">
+      <c r="D973" s="37">
         <v>252</v>
       </c>
-      <c r="E973" s="38">
+      <c r="E973" s="37">
         <v>9</v>
       </c>
-      <c r="F973" s="50" t="s">
+      <c r="F973" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="974" spans="1:6" ht="15" customHeight="1">
-      <c r="A974" s="39" t="s">
+      <c r="A974" s="38" t="s">
         <v>1517</v>
       </c>
-      <c r="B974" s="39" t="s">
+      <c r="B974" s="38" t="s">
         <v>1535</v>
       </c>
-      <c r="C974" s="38" t="s">
+      <c r="C974" s="37" t="s">
         <v>1536</v>
       </c>
-      <c r="D974" s="38">
+      <c r="D974" s="37">
         <v>216</v>
       </c>
-      <c r="E974" s="38">
+      <c r="E974" s="37">
         <v>3</v>
       </c>
-      <c r="F974" s="50" t="s">
+      <c r="F974" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="975" spans="1:6" ht="15" customHeight="1">
-      <c r="A975" s="39" t="s">
+      <c r="A975" s="38" t="s">
         <v>1517</v>
       </c>
-      <c r="B975" s="39" t="s">
+      <c r="B975" s="38" t="s">
         <v>1535</v>
       </c>
-      <c r="C975" s="38" t="s">
+      <c r="C975" s="37" t="s">
         <v>1536</v>
       </c>
-      <c r="D975" s="38">
+      <c r="D975" s="37">
         <v>183</v>
       </c>
-      <c r="E975" s="38">
+      <c r="E975" s="37">
         <v>0</v>
       </c>
-      <c r="F975" s="50" t="s">
+      <c r="F975" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="976" spans="1:6" ht="15" customHeight="1">
-      <c r="A976" s="39" t="s">
+      <c r="A976" s="38" t="s">
         <v>1517</v>
       </c>
-      <c r="B976" s="39" t="s">
+      <c r="B976" s="38" t="s">
         <v>1537</v>
       </c>
-      <c r="C976" s="38" t="s">
+      <c r="C976" s="37" t="s">
         <v>1536</v>
       </c>
-      <c r="D976" s="38">
+      <c r="D976" s="37">
         <v>137</v>
       </c>
-      <c r="E976" s="38">
+      <c r="E976" s="37">
         <v>0</v>
       </c>
-      <c r="F976" s="50" t="s">
+      <c r="F976" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="977" spans="1:6" ht="15" customHeight="1">
-      <c r="A977" s="39" t="s">
+      <c r="A977" s="38" t="s">
         <v>1517</v>
       </c>
-      <c r="B977" s="38" t="s">
+      <c r="B977" s="37" t="s">
         <v>1538</v>
       </c>
-      <c r="C977" s="39" t="s">
+      <c r="C977" s="38" t="s">
         <v>1539</v>
       </c>
-      <c r="D977" s="38">
+      <c r="D977" s="37">
         <v>58</v>
       </c>
-      <c r="E977" s="38">
+      <c r="E977" s="37">
         <v>0</v>
       </c>
-      <c r="F977" s="50" t="s">
+      <c r="F977" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="978" spans="1:6" ht="15" customHeight="1">
-      <c r="A978" s="39" t="s">
+      <c r="A978" s="38" t="s">
         <v>1517</v>
       </c>
-      <c r="B978" s="39" t="s">
+      <c r="B978" s="38" t="s">
         <v>1540</v>
       </c>
-      <c r="C978" s="38" t="s">
+      <c r="C978" s="37" t="s">
         <v>1541</v>
       </c>
-      <c r="D978" s="38">
+      <c r="D978" s="37">
         <v>11263</v>
       </c>
-      <c r="E978" s="38">
+      <c r="E978" s="37">
         <v>300</v>
       </c>
-      <c r="F978" s="50" t="s">
+      <c r="F978" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="979" spans="1:6" ht="15" customHeight="1">
-      <c r="A979" s="39" t="s">
+      <c r="A979" s="38" t="s">
         <v>1542</v>
       </c>
-      <c r="B979" s="38" t="s">
+      <c r="B979" s="37" t="s">
         <v>1543</v>
       </c>
-      <c r="C979" s="38" t="s">
+      <c r="C979" s="37" t="s">
         <v>1544</v>
       </c>
-      <c r="D979" s="38">
+      <c r="D979" s="37">
         <v>4</v>
       </c>
-      <c r="E979" s="38">
+      <c r="E979" s="37">
         <v>2</v>
       </c>
-      <c r="F979" s="50" t="s">
+      <c r="F979" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="980" spans="1:6" ht="15" customHeight="1">
-      <c r="A980" s="39" t="s">
+      <c r="A980" s="38" t="s">
         <v>1542</v>
       </c>
-      <c r="B980" s="38" t="s">
+      <c r="B980" s="37" t="s">
         <v>1545</v>
       </c>
-      <c r="C980" s="39" t="s">
+      <c r="C980" s="38" t="s">
         <v>1590</v>
       </c>
-      <c r="D980" s="38">
+      <c r="D980" s="37">
         <v>0</v>
       </c>
-      <c r="E980" s="38">
+      <c r="E980" s="37">
         <v>1</v>
       </c>
-      <c r="F980" s="50" t="s">
+      <c r="F980" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="981" spans="1:6" ht="15" customHeight="1">
-      <c r="A981" s="39" t="s">
+      <c r="A981" s="38" t="s">
         <v>1542</v>
       </c>
-      <c r="B981" s="39" t="s">
+      <c r="B981" s="38" t="s">
         <v>1546</v>
       </c>
-      <c r="C981" s="38" t="s">
+      <c r="C981" s="37" t="s">
         <v>1544</v>
       </c>
-      <c r="D981" s="38">
+      <c r="D981" s="37">
         <v>0</v>
       </c>
-      <c r="E981" s="38">
+      <c r="E981" s="37">
         <v>0</v>
       </c>
-      <c r="F981" s="50" t="s">
+      <c r="F981" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="982" spans="1:6" ht="15" customHeight="1">
-      <c r="A982" s="39" t="s">
+      <c r="A982" s="38" t="s">
         <v>1542</v>
       </c>
-      <c r="B982" s="39" t="s">
+      <c r="B982" s="38" t="s">
         <v>1547</v>
       </c>
-      <c r="C982" s="38" t="s">
+      <c r="C982" s="37" t="s">
         <v>1544</v>
       </c>
-      <c r="D982" s="38">
+      <c r="D982" s="37">
         <v>3</v>
       </c>
-      <c r="E982" s="38">
+      <c r="E982" s="37">
         <v>1</v>
       </c>
-      <c r="F982" s="50" t="s">
+      <c r="F982" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="983" spans="1:6" ht="15" customHeight="1">
-      <c r="A983" s="39" t="s">
+      <c r="A983" s="38" t="s">
         <v>1542</v>
       </c>
-      <c r="B983" s="39" t="s">
+      <c r="B983" s="38" t="s">
         <v>1548</v>
       </c>
-      <c r="C983" s="38" t="s">
+      <c r="C983" s="37" t="s">
         <v>1544</v>
       </c>
-      <c r="D983" s="38">
+      <c r="D983" s="37">
         <v>1</v>
       </c>
-      <c r="E983" s="38">
+      <c r="E983" s="37">
         <v>0</v>
       </c>
-      <c r="F983" s="50" t="s">
+      <c r="F983" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="984" spans="1:6" ht="15" customHeight="1">
-      <c r="A984" s="39" t="s">
+      <c r="A984" s="38" t="s">
         <v>1542</v>
       </c>
-      <c r="B984" s="39" t="s">
+      <c r="B984" s="38" t="s">
         <v>1549</v>
       </c>
-      <c r="C984" s="38" t="s">
+      <c r="C984" s="37" t="s">
         <v>1544</v>
       </c>
-      <c r="D984" s="38">
+      <c r="D984" s="37">
         <v>2</v>
       </c>
-      <c r="E984" s="38">
+      <c r="E984" s="37">
         <v>0</v>
       </c>
-      <c r="F984" s="50" t="s">
+      <c r="F984" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="985" spans="1:6" ht="15" customHeight="1">
-      <c r="A985" s="39" t="s">
+      <c r="A985" s="38" t="s">
         <v>1542</v>
       </c>
-      <c r="B985" s="39" t="s">
+      <c r="B985" s="38" t="s">
         <v>1550</v>
       </c>
-      <c r="C985" s="38" t="s">
+      <c r="C985" s="37" t="s">
         <v>1551</v>
       </c>
-      <c r="D985" s="38">
+      <c r="D985" s="37">
         <v>4</v>
       </c>
-      <c r="E985" s="38">
+      <c r="E985" s="37">
         <v>1</v>
       </c>
-      <c r="F985" s="50" t="s">
+      <c r="F985" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="986" spans="1:6" ht="15" customHeight="1">
-      <c r="A986" s="39" t="s">
+      <c r="A986" s="38" t="s">
         <v>1542</v>
       </c>
-      <c r="B986" s="39" t="s">
+      <c r="B986" s="38" t="s">
         <v>1610</v>
       </c>
-      <c r="C986" s="38" t="s">
+      <c r="C986" s="37" t="s">
         <v>1551</v>
       </c>
-      <c r="D986" s="38">
+      <c r="D986" s="37">
         <v>3</v>
       </c>
-      <c r="E986" s="38">
+      <c r="E986" s="37">
         <v>3</v>
       </c>
-      <c r="F986" s="50" t="s">
+      <c r="F986" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="987" spans="1:6" ht="15" customHeight="1">
-      <c r="A987" s="39" t="s">
+      <c r="A987" s="38" t="s">
         <v>1542</v>
       </c>
-      <c r="B987" s="39" t="s">
+      <c r="B987" s="38" t="s">
         <v>1552</v>
       </c>
-      <c r="C987" s="38" t="s">
+      <c r="C987" s="37" t="s">
         <v>1553</v>
       </c>
-      <c r="D987" s="38">
+      <c r="D987" s="37">
         <v>1</v>
       </c>
-      <c r="E987" s="38">
+      <c r="E987" s="37">
         <v>0</v>
       </c>
-      <c r="F987" s="50" t="s">
+      <c r="F987" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="988" spans="1:6" ht="15" customHeight="1">
-      <c r="A988" s="39" t="s">
+      <c r="A988" s="38" t="s">
         <v>1542</v>
       </c>
-      <c r="B988" s="39" t="s">
+      <c r="B988" s="38" t="s">
         <v>1554</v>
       </c>
-      <c r="C988" s="39" t="s">
+      <c r="C988" s="38" t="s">
         <v>1553</v>
       </c>
-      <c r="D988" s="38">
+      <c r="D988" s="37">
         <v>2</v>
       </c>
-      <c r="E988" s="38">
+      <c r="E988" s="37">
         <v>0</v>
       </c>
-      <c r="F988" s="50" t="s">
+      <c r="F988" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="989" spans="1:6" ht="15" customHeight="1">
-      <c r="A989" s="39" t="s">
+      <c r="A989" s="38" t="s">
         <v>1542</v>
       </c>
-      <c r="B989" s="39" t="s">
+      <c r="B989" s="38" t="s">
         <v>1555</v>
       </c>
-      <c r="C989" s="38" t="s">
+      <c r="C989" s="37" t="s">
         <v>1553</v>
       </c>
-      <c r="D989" s="38">
+      <c r="D989" s="37">
         <v>1</v>
       </c>
-      <c r="E989" s="38">
+      <c r="E989" s="37">
         <v>0</v>
       </c>
-      <c r="F989" s="50" t="s">
+      <c r="F989" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="990" spans="1:6" ht="15" customHeight="1">
-      <c r="A990" s="39" t="s">
+      <c r="A990" s="38" t="s">
         <v>1542</v>
       </c>
-      <c r="B990" s="38" t="s">
+      <c r="B990" s="37" t="s">
         <v>1556</v>
       </c>
-      <c r="C990" s="38" t="s">
+      <c r="C990" s="37" t="s">
         <v>1557</v>
       </c>
-      <c r="D990" s="38">
+      <c r="D990" s="37">
         <v>0</v>
       </c>
-      <c r="E990" s="38">
+      <c r="E990" s="37">
         <v>0</v>
       </c>
-      <c r="F990" s="50" t="s">
+      <c r="F990" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="991" spans="1:6" ht="15" customHeight="1">
-      <c r="A991" s="39" t="s">
+      <c r="A991" s="38" t="s">
         <v>1558</v>
       </c>
-      <c r="B991" s="39" t="s">
+      <c r="B991" s="38" t="s">
         <v>1559</v>
       </c>
-      <c r="C991" s="38" t="s">
+      <c r="C991" s="37" t="s">
         <v>1560</v>
       </c>
-      <c r="D991" s="38">
+      <c r="D991" s="37">
         <v>6</v>
       </c>
-      <c r="E991" s="38">
+      <c r="E991" s="37">
         <v>0</v>
       </c>
-      <c r="F991" s="50" t="s">
+      <c r="F991" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="992" spans="1:6" ht="15" customHeight="1">
-      <c r="A992" s="39" t="s">
+      <c r="A992" s="38" t="s">
         <v>1558</v>
       </c>
-      <c r="B992" s="39" t="s">
+      <c r="B992" s="38" t="s">
         <v>1561</v>
       </c>
-      <c r="C992" s="38" t="s">
+      <c r="C992" s="37" t="s">
         <v>1562</v>
       </c>
-      <c r="D992" s="38">
+      <c r="D992" s="37">
         <v>17</v>
       </c>
-      <c r="E992" s="38">
+      <c r="E992" s="37">
         <v>0</v>
       </c>
-      <c r="F992" s="50" t="s">
+      <c r="F992" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="993" spans="1:6" ht="15" customHeight="1">
-      <c r="A993" s="39" t="s">
+      <c r="A993" s="38" t="s">
         <v>1558</v>
       </c>
-      <c r="B993" s="39" t="s">
+      <c r="B993" s="38" t="s">
         <v>1563</v>
       </c>
-      <c r="C993" s="39" t="s">
+      <c r="C993" s="38" t="s">
         <v>1564</v>
       </c>
-      <c r="D993" s="38">
+      <c r="D993" s="37">
         <v>15</v>
       </c>
-      <c r="E993" s="38">
+      <c r="E993" s="37">
         <v>0</v>
       </c>
-      <c r="F993" s="50" t="s">
+      <c r="F993" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="994" spans="1:6" ht="15" customHeight="1">
-      <c r="A994" s="39" t="s">
+      <c r="A994" s="38" t="s">
         <v>1558</v>
       </c>
-      <c r="B994" s="39" t="s">
+      <c r="B994" s="38" t="s">
         <v>1563</v>
       </c>
-      <c r="C994" s="38" t="s">
+      <c r="C994" s="37" t="s">
         <v>1565</v>
       </c>
-      <c r="D994" s="38">
+      <c r="D994" s="37">
         <v>16</v>
       </c>
-      <c r="E994" s="38">
+      <c r="E994" s="37">
         <v>0</v>
       </c>
-      <c r="F994" s="50" t="s">
+      <c r="F994" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="995" spans="1:6" ht="15" customHeight="1">
-      <c r="A995" s="39" t="s">
+      <c r="A995" s="38" t="s">
         <v>1558</v>
       </c>
-      <c r="B995" s="39" t="s">
+      <c r="B995" s="38" t="s">
         <v>1566</v>
       </c>
-      <c r="C995" s="38" t="s">
+      <c r="C995" s="37" t="s">
         <v>1567</v>
       </c>
-      <c r="D995" s="38">
+      <c r="D995" s="37">
         <v>12</v>
       </c>
-      <c r="E995" s="38">
+      <c r="E995" s="37">
         <v>0</v>
       </c>
-      <c r="F995" s="50" t="s">
+      <c r="F995" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="996" spans="1:6" ht="15" customHeight="1">
-      <c r="A996" s="39" t="s">
+      <c r="A996" s="38" t="s">
         <v>1558</v>
       </c>
-      <c r="B996" s="39" t="s">
+      <c r="B996" s="38" t="s">
         <v>1568</v>
       </c>
-      <c r="C996" s="38" t="s">
+      <c r="C996" s="37" t="s">
         <v>1569</v>
       </c>
-      <c r="D996" s="38">
+      <c r="D996" s="37">
         <v>6</v>
       </c>
-      <c r="E996" s="38">
+      <c r="E996" s="37">
         <v>0</v>
       </c>
-      <c r="F996" s="50" t="s">
+      <c r="F996" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="997" spans="1:6" ht="15" customHeight="1">
-      <c r="A997" s="39" t="s">
+      <c r="A997" s="38" t="s">
         <v>1558</v>
       </c>
-      <c r="B997" s="39" t="s">
+      <c r="B997" s="38" t="s">
         <v>1609</v>
       </c>
-      <c r="C997" s="38" t="s">
+      <c r="C997" s="37" t="s">
         <v>1570</v>
       </c>
-      <c r="D997" s="38">
+      <c r="D997" s="37">
         <v>7</v>
       </c>
-      <c r="E997" s="38">
+      <c r="E997" s="37">
         <v>0</v>
       </c>
-      <c r="F997" s="50" t="s">
+      <c r="F997" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="998" spans="1:6" ht="15" customHeight="1">
-      <c r="A998" s="39" t="s">
+      <c r="A998" s="38" t="s">
         <v>1558</v>
       </c>
-      <c r="B998" s="39" t="s">
+      <c r="B998" s="38" t="s">
         <v>1571</v>
       </c>
-      <c r="C998" s="38" t="s">
+      <c r="C998" s="37" t="s">
         <v>1572</v>
       </c>
-      <c r="D998" s="38">
+      <c r="D998" s="37">
         <v>9</v>
       </c>
-      <c r="E998" s="38">
+      <c r="E998" s="37">
         <v>0</v>
       </c>
-      <c r="F998" s="50" t="s">
+      <c r="F998" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="999" spans="1:6" ht="15" customHeight="1">
-      <c r="A999" s="39" t="s">
+      <c r="A999" s="38" t="s">
         <v>1558</v>
       </c>
-      <c r="B999" s="39" t="s">
+      <c r="B999" s="38" t="s">
         <v>1611</v>
       </c>
-      <c r="C999" s="39" t="s">
+      <c r="C999" s="38" t="s">
         <v>1573</v>
       </c>
-      <c r="D999" s="38">
+      <c r="D999" s="37">
         <v>19</v>
       </c>
-      <c r="E999" s="38">
+      <c r="E999" s="37">
         <v>2</v>
       </c>
-      <c r="F999" s="50" t="s">
+      <c r="F999" s="49" t="s">
         <v>9</v>
       </c>
     </row>
